--- a/ICBC-DATA.xlsx
+++ b/ICBC-DATA.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mypc\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\AICP\ICBC\WebHook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23B182AE-D08F-44D7-9C0C-4A6CFA715055}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F095CBF8-C969-4B07-94F4-A3193B81528E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="信用卡催收外呼信息-暂不用" sheetId="3" r:id="rId1"/>
@@ -5142,8 +5142,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EDD2311-8857-4ECF-8573-8040401A87F4}">
   <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F9:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -5829,7 +5829,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E5CF3B6-B177-4342-8426-912BE4F25E02}">
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>

--- a/ICBC-DATA.xlsx
+++ b/ICBC-DATA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\AICP\ICBC\WebHook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F095CBF8-C969-4B07-94F4-A3193B81528E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{657561E0-E2CC-434F-85E6-2A05F3A2BC66}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="信用卡催收外呼信息-暂不用" sheetId="3" r:id="rId1"/>
@@ -1467,10 +1467,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>不受限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>证件类型</t>
   </si>
   <si>
@@ -1793,6 +1789,10 @@
   <si>
     <t>18612345678</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3894,7 +3894,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="45" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C1" s="45" t="s">
         <v>9</v>
@@ -3903,16 +3903,16 @@
         <v>2</v>
       </c>
       <c r="E1" s="51" t="s">
+        <v>474</v>
+      </c>
+      <c r="F1" s="52" t="s">
         <v>475</v>
       </c>
-      <c r="F1" s="52" t="s">
+      <c r="G1" s="52" t="s">
         <v>476</v>
       </c>
-      <c r="G1" s="52" t="s">
+      <c r="H1" s="52" t="s">
         <v>477</v>
-      </c>
-      <c r="H1" s="52" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15" thickTop="1" thickBot="1">
@@ -3929,16 +3929,16 @@
         <v>139</v>
       </c>
       <c r="E2" s="53" t="s">
+        <v>478</v>
+      </c>
+      <c r="F2" s="53" t="s">
         <v>479</v>
-      </c>
-      <c r="F2" s="53" t="s">
-        <v>480</v>
       </c>
       <c r="G2" s="53" t="s">
         <v>395</v>
       </c>
       <c r="H2" s="53" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="14.25">
@@ -3946,77 +3946,77 @@
         <v>13</v>
       </c>
       <c r="B3" s="54" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C3" s="54" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D3" s="54" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E3" s="54" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="F3" s="54" t="s">
+        <v>481</v>
+      </c>
+      <c r="G3" s="54" t="s">
         <v>482</v>
       </c>
-      <c r="G3" s="54" t="s">
+      <c r="H3" s="54" t="s">
         <v>483</v>
-      </c>
-      <c r="H3" s="54" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.25">
       <c r="A4" s="54" t="s">
+        <v>484</v>
+      </c>
+      <c r="B4" s="54" t="s">
+        <v>493</v>
+      </c>
+      <c r="C4" s="54" t="s">
+        <v>467</v>
+      </c>
+      <c r="D4" s="54" t="s">
+        <v>497</v>
+      </c>
+      <c r="E4" s="54" t="s">
+        <v>515</v>
+      </c>
+      <c r="F4" s="54" t="s">
         <v>485</v>
       </c>
-      <c r="B4" s="54" t="s">
-        <v>494</v>
-      </c>
-      <c r="C4" s="54" t="s">
-        <v>468</v>
-      </c>
-      <c r="D4" s="54" t="s">
-        <v>498</v>
-      </c>
-      <c r="E4" s="54" t="s">
-        <v>516</v>
-      </c>
-      <c r="F4" s="54" t="s">
+      <c r="G4" s="54" t="s">
         <v>486</v>
       </c>
-      <c r="G4" s="54" t="s">
+      <c r="H4" s="54" t="s">
         <v>487</v>
-      </c>
-      <c r="H4" s="54" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="14.25">
       <c r="A5" s="54" t="s">
+        <v>488</v>
+      </c>
+      <c r="B5" s="54" t="s">
+        <v>494</v>
+      </c>
+      <c r="C5" s="54" t="s">
+        <v>495</v>
+      </c>
+      <c r="D5" s="54" t="s">
+        <v>498</v>
+      </c>
+      <c r="E5" s="54" t="s">
+        <v>516</v>
+      </c>
+      <c r="F5" s="54" t="s">
         <v>489</v>
       </c>
-      <c r="B5" s="54" t="s">
-        <v>495</v>
-      </c>
-      <c r="C5" s="54" t="s">
-        <v>496</v>
-      </c>
-      <c r="D5" s="54" t="s">
-        <v>499</v>
-      </c>
-      <c r="E5" s="54" t="s">
-        <v>517</v>
-      </c>
-      <c r="F5" s="54" t="s">
+      <c r="G5" s="54" t="s">
         <v>490</v>
       </c>
-      <c r="G5" s="54" t="s">
+      <c r="H5" s="54" t="s">
         <v>491</v>
-      </c>
-      <c r="H5" s="54" t="s">
-        <v>492</v>
       </c>
     </row>
   </sheetData>
@@ -5142,7 +5142,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EDD2311-8857-4ECF-8573-8040401A87F4}">
   <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F13" sqref="F9:F13"/>
     </sheetView>
   </sheetViews>
@@ -5175,22 +5175,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="45" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D1" s="45" t="s">
         <v>211</v>
       </c>
       <c r="E1" s="45" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F1" s="45" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="45" t="s">
+        <v>425</v>
+      </c>
+      <c r="H1" s="45" t="s">
         <v>426</v>
-      </c>
-      <c r="H1" s="45" t="s">
-        <v>427</v>
       </c>
       <c r="I1" s="45" t="s">
         <v>212</v>
@@ -5202,69 +5202,69 @@
         <v>390</v>
       </c>
       <c r="L1" s="45" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="M1" s="56" t="s">
         <v>155</v>
       </c>
       <c r="N1" s="45" t="s">
+        <v>428</v>
+      </c>
+      <c r="O1" s="46" t="s">
         <v>429</v>
       </c>
-      <c r="O1" s="46" t="s">
-        <v>430</v>
-      </c>
       <c r="P1" s="46" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
       <c r="A2" s="57" t="s">
+        <v>439</v>
+      </c>
+      <c r="B2" s="58" t="s">
         <v>440</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="C2" s="58" t="s">
         <v>441</v>
       </c>
-      <c r="C2" s="58" t="s">
+      <c r="D2" s="58" t="s">
         <v>442</v>
       </c>
-      <c r="D2" s="58" t="s">
+      <c r="E2" s="58" t="s">
         <v>443</v>
       </c>
-      <c r="E2" s="58" t="s">
+      <c r="F2" s="58" t="s">
         <v>444</v>
-      </c>
-      <c r="F2" s="58" t="s">
-        <v>445</v>
       </c>
       <c r="G2" s="58" t="s">
         <v>203</v>
       </c>
       <c r="H2" s="58" t="s">
+        <v>445</v>
+      </c>
+      <c r="I2" s="58" t="s">
         <v>446</v>
       </c>
-      <c r="I2" s="58" t="s">
+      <c r="J2" s="58" t="s">
         <v>447</v>
       </c>
-      <c r="J2" s="58" t="s">
+      <c r="K2" s="58" t="s">
         <v>448</v>
       </c>
-      <c r="K2" s="58" t="s">
+      <c r="L2" s="58" t="s">
         <v>449</v>
-      </c>
-      <c r="L2" s="58" t="s">
-        <v>450</v>
       </c>
       <c r="M2" s="58" t="s">
         <v>394</v>
       </c>
       <c r="N2" s="58" t="s">
+        <v>450</v>
+      </c>
+      <c r="O2" s="59" t="s">
         <v>451</v>
       </c>
-      <c r="O2" s="59" t="s">
+      <c r="P2" s="59" t="s">
         <v>452</v>
-      </c>
-      <c r="P2" s="59" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
@@ -5278,25 +5278,25 @@
         <v>37</v>
       </c>
       <c r="D3" s="47" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E3" s="47" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F3" s="47" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="G3" s="47" t="s">
         <v>38</v>
       </c>
       <c r="H3" s="47" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="I3" s="47">
         <v>123456</v>
       </c>
       <c r="J3" s="47" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="K3" s="47" t="s">
         <v>39</v>
@@ -5311,10 +5311,10 @@
         <v>20</v>
       </c>
       <c r="O3" s="47" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="P3" s="47" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
@@ -5328,31 +5328,31 @@
         <v>37</v>
       </c>
       <c r="D4" s="47" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E4" s="47" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F4" s="47" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="G4" s="47" t="s">
         <v>41</v>
       </c>
       <c r="H4" s="47" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="I4" s="47">
         <v>132456</v>
       </c>
       <c r="J4" s="47" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="K4" s="47" t="s">
         <v>39</v>
       </c>
       <c r="L4" s="47" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="M4" s="47">
         <v>12000</v>
@@ -5361,10 +5361,10 @@
         <v>20</v>
       </c>
       <c r="O4" s="47" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="P4" s="47" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
@@ -5378,25 +5378,25 @@
         <v>43</v>
       </c>
       <c r="D5" s="48" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E5" s="48" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F5" s="48" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="G5" s="48" t="s">
         <v>44</v>
       </c>
       <c r="H5" s="48" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="I5" s="48">
         <v>123456</v>
       </c>
       <c r="J5" s="48" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="K5" s="48" t="s">
         <v>45</v>
@@ -5411,10 +5411,10 @@
         <v>20</v>
       </c>
       <c r="O5" s="48" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="P5" s="48" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
@@ -5428,31 +5428,31 @@
         <v>43</v>
       </c>
       <c r="D6" s="48" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E6" s="48" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F6" s="48" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G6" s="48" t="s">
         <v>47</v>
       </c>
       <c r="H6" s="48" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="I6" s="48">
         <v>123456</v>
       </c>
       <c r="J6" s="48" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="K6" s="48" t="s">
         <v>45</v>
       </c>
       <c r="L6" s="48" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="M6" s="48">
         <v>50000</v>
@@ -5461,10 +5461,10 @@
         <v>20</v>
       </c>
       <c r="O6" s="48" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="P6" s="48" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
@@ -5478,31 +5478,31 @@
         <v>43</v>
       </c>
       <c r="D7" s="48" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E7" s="48" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F7" s="48" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G7" s="48" t="s">
         <v>48</v>
       </c>
       <c r="H7" s="48" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="I7" s="48">
         <v>123456</v>
       </c>
       <c r="J7" s="48" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="K7" s="48" t="s">
         <v>45</v>
       </c>
       <c r="L7" s="48" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="M7" s="48">
         <v>0</v>
@@ -5511,10 +5511,10 @@
         <v>49</v>
       </c>
       <c r="O7" s="48" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="P7" s="48" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
@@ -5528,31 +5528,31 @@
         <v>43</v>
       </c>
       <c r="D8" s="48" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E8" s="48" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F8" s="48" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G8" s="48" t="s">
         <v>48</v>
       </c>
       <c r="H8" s="48" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="I8" s="48">
         <v>123456</v>
       </c>
       <c r="J8" s="48" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="K8" s="48" t="s">
         <v>45</v>
       </c>
       <c r="L8" s="48" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="M8" s="48">
         <v>0</v>
@@ -5561,10 +5561,10 @@
         <v>49</v>
       </c>
       <c r="O8" s="48" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="P8" s="48" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
@@ -5578,25 +5578,25 @@
         <v>37</v>
       </c>
       <c r="D9" s="47" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E9" s="47" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F9" s="60" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G9" s="47" t="s">
         <v>44</v>
       </c>
       <c r="H9" s="47" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="I9" s="47">
         <v>123456</v>
       </c>
       <c r="J9" s="47" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="K9" s="47" t="s">
         <v>51</v>
@@ -5611,10 +5611,10 @@
         <v>20</v>
       </c>
       <c r="O9" s="47" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="P9" s="47" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
@@ -5628,31 +5628,31 @@
         <v>37</v>
       </c>
       <c r="D10" s="47" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E10" s="47" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F10" s="47" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G10" s="47" t="s">
         <v>44</v>
       </c>
       <c r="H10" s="47" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="I10" s="47">
         <v>123456</v>
       </c>
       <c r="J10" s="47" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="K10" s="47" t="s">
         <v>53</v>
       </c>
       <c r="L10" s="47" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="M10" s="47">
         <v>7000</v>
@@ -5661,10 +5661,10 @@
         <v>20</v>
       </c>
       <c r="O10" s="47" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="P10" s="47" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
@@ -5678,31 +5678,31 @@
         <v>37</v>
       </c>
       <c r="D11" s="47" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E11" s="47" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F11" s="47" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="G11" s="47" t="s">
         <v>44</v>
       </c>
       <c r="H11" s="47" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I11" s="47">
         <v>123456</v>
       </c>
       <c r="J11" s="47" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="K11" s="47" t="s">
         <v>54</v>
       </c>
       <c r="L11" s="47" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="M11" s="47">
         <v>4125.25</v>
@@ -5711,10 +5711,10 @@
         <v>20</v>
       </c>
       <c r="O11" s="47" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="P11" s="47" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
@@ -5728,31 +5728,31 @@
         <v>37</v>
       </c>
       <c r="D12" s="47" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E12" s="47" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F12" s="47" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G12" s="47" t="s">
         <v>44</v>
       </c>
       <c r="H12" s="47" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="I12" s="47">
         <v>123456</v>
       </c>
       <c r="J12" s="47" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="K12" s="47" t="s">
         <v>55</v>
       </c>
       <c r="L12" s="47" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="M12" s="47">
         <v>5000</v>
@@ -5761,10 +5761,10 @@
         <v>20</v>
       </c>
       <c r="O12" s="47" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="P12" s="47" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
@@ -5778,31 +5778,31 @@
         <v>37</v>
       </c>
       <c r="D13" s="47" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E13" s="47" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F13" s="47" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G13" s="47" t="s">
         <v>44</v>
       </c>
       <c r="H13" s="47" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="I13" s="47">
         <v>123456</v>
       </c>
       <c r="J13" s="47" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="K13" s="47" t="s">
+        <v>437</v>
+      </c>
+      <c r="L13" s="47" t="s">
         <v>438</v>
-      </c>
-      <c r="L13" s="47" t="s">
-        <v>439</v>
       </c>
       <c r="M13" s="47">
         <v>10000</v>
@@ -5811,10 +5811,10 @@
         <v>20</v>
       </c>
       <c r="O13" s="47" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="P13" s="47" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="14.25" thickTop="1"/>
@@ -5866,7 +5866,7 @@
         <v>212</v>
       </c>
       <c r="F1" s="25" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G1" s="25" t="s">
         <v>247</v>
@@ -5890,7 +5890,7 @@
         <v>252</v>
       </c>
       <c r="N1" s="25" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="30" customHeight="1">
@@ -5910,7 +5910,7 @@
         <v>144</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="G2" s="25" t="s">
         <v>132</v>
@@ -5934,7 +5934,7 @@
         <v>256</v>
       </c>
       <c r="N2" s="25" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="30" customHeight="1">
@@ -5957,10 +5957,10 @@
         <v>259</v>
       </c>
       <c r="G3" s="28" t="s">
+        <v>521</v>
+      </c>
+      <c r="H3" s="29" t="s">
         <v>522</v>
-      </c>
-      <c r="H3" s="29" t="s">
-        <v>523</v>
       </c>
       <c r="I3" s="28" t="s">
         <v>135</v>
@@ -5972,7 +5972,7 @@
         <v>0</v>
       </c>
       <c r="L3" s="28" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="M3" s="28" t="s">
         <v>261</v>
@@ -6016,7 +6016,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="28" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="M4" s="28" t="s">
         <v>261</v>
@@ -6060,7 +6060,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="28" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="M5" s="28" t="s">
         <v>261</v>
@@ -6104,7 +6104,7 @@
         <v>1000</v>
       </c>
       <c r="L6" s="28" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="M6" s="28" t="s">
         <v>261</v>
@@ -6148,7 +6148,7 @@
         <v>1000</v>
       </c>
       <c r="L7" s="28" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="M7" s="28" t="s">
         <v>261</v>
@@ -6192,7 +6192,7 @@
         <v>1000</v>
       </c>
       <c r="L8" s="28" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="M8" s="28" t="s">
         <v>261</v>
@@ -6599,7 +6599,7 @@
     </row>
     <row r="18" spans="1:14" ht="30" customHeight="1">
       <c r="A18" s="28" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B18" s="28" t="s">
         <v>308</v>
@@ -7268,8 +7268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22D1ADF8-5FB2-40D6-ABA5-038F78548C18}">
   <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4:N16"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7357,7 +7357,7 @@
         <v>350</v>
       </c>
       <c r="N2" s="44" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="O2" s="39"/>
     </row>
@@ -7402,7 +7402,7 @@
         <v>361</v>
       </c>
       <c r="N3" s="49" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="O3" s="33"/>
     </row>
@@ -7441,7 +7441,7 @@
         <v>416</v>
       </c>
       <c r="N4" s="50" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="O4" s="17" t="s">
         <v>223</v>
@@ -7523,7 +7523,7 @@
         <v>416</v>
       </c>
       <c r="N6" s="50" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="O6" s="17" t="s">
         <v>223</v>
@@ -7605,7 +7605,7 @@
       </c>
       <c r="M8" s="18"/>
       <c r="N8" s="50" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="O8" s="18" t="s">
         <v>229</v>
@@ -7677,7 +7677,7 @@
       </c>
       <c r="M10" s="18"/>
       <c r="N10" s="50" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="O10" s="18" t="s">
         <v>229</v>
@@ -7804,7 +7804,7 @@
         <v>236</v>
       </c>
       <c r="N13" s="50" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="O13" s="18" t="s">
         <v>237</v>
@@ -7899,7 +7899,7 @@
         <v>209</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>423</v>
+        <v>526</v>
       </c>
       <c r="G16" s="18" t="s">
         <v>208</v>
@@ -7917,7 +7917,7 @@
         <v>383</v>
       </c>
       <c r="N16" s="50" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="O16" s="18" t="s">
         <v>384</v>

--- a/ICBC-DATA.xlsx
+++ b/ICBC-DATA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\AICP\ICBC\WebHook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{657561E0-E2CC-434F-85E6-2A05F3A2BC66}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A43C74A-B3AD-4248-AB97-2BF1B5E584FB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="信用卡催收外呼信息-暂不用" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1103" uniqueCount="532">
   <si>
     <t>姓名</t>
   </si>
@@ -155,9 +155,6 @@
     <t>德胜门支行</t>
   </si>
   <si>
-    <t>北京市朝阳区德胜门外大街99号</t>
-  </si>
-  <si>
     <t>活期基本户（存折）</t>
   </si>
   <si>
@@ -173,9 +170,6 @@
     <t>方庄支行</t>
   </si>
   <si>
-    <t>北京市海淀区北四环西路65号</t>
-  </si>
-  <si>
     <t>定期一本通</t>
   </si>
   <si>
@@ -188,16 +182,7 @@
     <t>刘德华</t>
   </si>
   <si>
-    <t>望京公园支行</t>
-  </si>
-  <si>
-    <t>北京市西城区西直门外大街甲5号</t>
-  </si>
-  <si>
     <t>大山子分理处</t>
-  </si>
-  <si>
-    <t>酒仙桥车站路储蓄所</t>
   </si>
   <si>
     <t>前门大街储蓄所</t>
@@ -1435,10 +1420,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>52462719800101192x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>普卡</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1488,33 +1469,6 @@
     <t>电话银行注册状态</t>
   </si>
   <si>
-    <t>北京市朝阳区德胜门外大街100号</t>
-  </si>
-  <si>
-    <t>北京市海淀区北四环西路66号</t>
-  </si>
-  <si>
-    <t>北京市海淀区北四环西路67号</t>
-  </si>
-  <si>
-    <t>北京市海淀区北四环西路68号</t>
-  </si>
-  <si>
-    <t>北京市西城区西直门外大街甲6号</t>
-  </si>
-  <si>
-    <t>北京市西城区西直门外大街甲7号</t>
-  </si>
-  <si>
-    <t>北京市西城区西直门外大街甲8号</t>
-  </si>
-  <si>
-    <t>海淀西区支行营业室</t>
-  </si>
-  <si>
-    <t>北京市西城区西直门外大街甲9号</t>
-  </si>
-  <si>
     <t>customerName</t>
   </si>
   <si>
@@ -1578,9 +1532,6 @@
     <t>0200012312312312311</t>
   </si>
   <si>
-    <t>6222020300123456789</t>
-  </si>
-  <si>
     <t>6222020400123456777</t>
   </si>
   <si>
@@ -1590,9 +1541,6 @@
     <t>6222020400123456999</t>
   </si>
   <si>
-    <t>6222020400123456666</t>
-  </si>
-  <si>
     <t>13012345678</t>
   </si>
   <si>
@@ -1618,9 +1566,6 @@
     <t>N</t>
   </si>
   <si>
-    <t>证件号</t>
-  </si>
-  <si>
     <t>机具编号</t>
   </si>
   <si>
@@ -1648,21 +1593,12 @@
     <t>南礼士路礼士路支行 </t>
   </si>
   <si>
-    <t>7月29日 08:48</t>
-  </si>
-  <si>
-    <t>张小四</t>
-  </si>
-  <si>
     <t>北京市西城区南横东街6号</t>
   </si>
   <si>
     <t>珠市口虎坊路支行</t>
   </si>
   <si>
-    <t>7月26日 16:09</t>
-  </si>
-  <si>
     <t>王六</t>
   </si>
   <si>
@@ -1672,15 +1608,6 @@
     <t>开发区支行</t>
   </si>
   <si>
-    <t>8月1日 02:33</t>
-  </si>
-  <si>
-    <t>1101111988080887341113</t>
-  </si>
-  <si>
-    <t>1101111989080999734444</t>
-  </si>
-  <si>
     <t>1101111989080999735555</t>
   </si>
   <si>
@@ -1730,27 +1657,6 @@
   </si>
   <si>
     <t>2018/2/14</t>
-  </si>
-  <si>
-    <t>6251612222222222</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>10021315</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>002002127</t>
-  </si>
-  <si>
-    <t>020212345</t>
-  </si>
-  <si>
-    <t>020210045</t>
   </si>
   <si>
     <t>余额变动提醒是否制定</t>
@@ -1791,7 +1697,117 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>52462719800101192X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京市朝阳区</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>12000</t>
+  </si>
+  <si>
+    <t>132456</t>
+  </si>
+  <si>
+    <t>10021315</t>
+  </si>
+  <si>
+    <t>北京市海淀区</t>
+  </si>
+  <si>
+    <t>7000</t>
+  </si>
+  <si>
+    <t>50000</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>6222020300123456666</t>
+  </si>
+  <si>
+    <t>望京支行</t>
+  </si>
+  <si>
+    <t>北京市西城区</t>
+  </si>
+  <si>
+    <t>6000</t>
+  </si>
+  <si>
+    <t>酒仙桥储蓄所</t>
+  </si>
+  <si>
+    <t>4,125.25</t>
+  </si>
+  <si>
+    <t>5000</t>
+  </si>
+  <si>
+    <t>6222020400123450000</t>
+  </si>
+  <si>
+    <t>海淀西区支行</t>
+  </si>
+  <si>
+    <t>10000</t>
+  </si>
+  <si>
+    <t>建行卡</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>1989年8月9日</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>2002127</t>
+  </si>
+  <si>
+    <t>7月29日08:48</t>
+  </si>
+  <si>
+    <t>20212345</t>
+  </si>
+  <si>
+    <t>7月26日16:09</t>
+  </si>
+  <si>
+    <t>20210045</t>
+  </si>
+  <si>
+    <t>8月01日02:33</t>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>systemRecordFlag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统记录情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6258212025025025</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2789,43 +2805,43 @@
     </row>
     <row r="2" spans="1:13" ht="27">
       <c r="A2" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="G2" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="H2" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="I2" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="J2" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="K2" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="L2" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="M2" s="11" t="s">
         <v>63</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="L2" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="M2" s="11" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -3007,31 +3023,31 @@
       <c r="P1" s="13"/>
       <c r="Q1" s="13"/>
       <c r="R1" s="13" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="S1" s="13"/>
       <c r="T1" s="13"/>
       <c r="U1" s="13"/>
       <c r="V1" s="13" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="W1" s="13"/>
       <c r="X1" s="13"/>
       <c r="Y1" s="13"/>
       <c r="Z1" s="13" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AA1" s="13"/>
       <c r="AB1" s="13"/>
       <c r="AC1" s="13"/>
       <c r="AD1" s="13" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="AE1" s="13"/>
       <c r="AF1" s="13"/>
       <c r="AG1" s="13"/>
       <c r="AH1" s="13" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="AI1" s="13"/>
       <c r="AJ1" s="13"/>
@@ -3043,168 +3059,168 @@
         <v>0</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="G2" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="N2" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="O2" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="P2" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q2" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="R2" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="S2" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="T2" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="U2" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="V2" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="W2" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="X2" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y2" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="Z2" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="AA2" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="AB2" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="AC2" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD2" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="AE2" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="AF2" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="AG2" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="AH2" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="AI2" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="AJ2" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="AK2" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="AL2" s="13" t="s">
         <v>154</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="K2" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="L2" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="M2" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="N2" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="O2" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="P2" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q2" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="R2" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="S2" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="T2" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="U2" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="V2" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="W2" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="X2" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="Y2" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="Z2" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="AA2" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="AB2" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="AC2" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="AD2" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="AE2" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="AF2" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="AG2" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="AH2" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="AI2" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="AJ2" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="AK2" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="AL2" s="13" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:38" ht="40.5">
       <c r="A3" s="13" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B3" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="E3" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>145</v>
-      </c>
       <c r="F3" s="13" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="H3" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="L3" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="M3" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="N3" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="O3" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="P3" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="Q3" s="13" t="s">
         <v>169</v>
-      </c>
-      <c r="L3" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="M3" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="N3" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="O3" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="P3" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q3" s="13" t="s">
-        <v>174</v>
       </c>
       <c r="R3" s="13"/>
       <c r="S3" s="13"/>
@@ -3230,25 +3246,25 @@
     </row>
     <row r="4" spans="1:38" ht="16.5" thickBot="1">
       <c r="A4" s="14" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="D4" s="15">
         <v>123789</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="H4" s="15">
         <v>-4500</v>
@@ -3260,7 +3276,7 @@
         <v>4500</v>
       </c>
       <c r="K4" s="16" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="L4" s="16">
         <v>5000</v>
@@ -3341,42 +3357,42 @@
         <v>214</v>
       </c>
       <c r="AL4" s="16" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:38" ht="17.25" thickTop="1" thickBot="1">
       <c r="A5" s="14" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D5" s="15">
         <v>246800</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="H5" s="15">
         <v>-500</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="J5" s="16" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="K5" s="16" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="L5" s="16">
         <v>5000</v>
@@ -3457,30 +3473,30 @@
         <v>23</v>
       </c>
       <c r="AL5" s="16" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:38" ht="17.25" thickTop="1" thickBot="1">
       <c r="A6" s="14" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D6" s="15">
         <v>357951</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="H6" s="15">
         <v>-2000</v>
@@ -3489,10 +3505,10 @@
         <v>16</v>
       </c>
       <c r="J6" s="16" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="K6" s="16" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="L6" s="16">
         <v>5000</v>
@@ -3573,30 +3589,30 @@
         <v>95</v>
       </c>
       <c r="AL6" s="16" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:38" ht="17.25" thickTop="1" thickBot="1">
       <c r="A7" s="14" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="D7" s="15">
         <v>321321</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="H7" s="15">
         <v>-3000</v>
@@ -3605,10 +3621,10 @@
         <v>16</v>
       </c>
       <c r="J7" s="16" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="K7" s="16" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="L7" s="16">
         <v>5000</v>
@@ -3617,7 +3633,7 @@
         <v>2000</v>
       </c>
       <c r="N7" s="16" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="O7" s="16"/>
       <c r="P7" s="16"/>
@@ -3643,36 +3659,36 @@
       <c r="AJ7" s="16"/>
       <c r="AK7" s="16"/>
       <c r="AL7" s="16" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:38" ht="17.25" thickTop="1" thickBot="1">
       <c r="A8" s="14" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D8" s="15">
         <v>654321</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="H8" s="15">
         <v>0</v>
       </c>
       <c r="I8" s="16" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="J8" s="16">
         <v>0</v>
@@ -3709,30 +3725,30 @@
       <c r="AJ8" s="16"/>
       <c r="AK8" s="16"/>
       <c r="AL8" s="16" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:38" ht="17.25" thickTop="1" thickBot="1">
       <c r="A9" s="14" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="D9" s="15">
         <v>135790</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="H9" s="15">
         <v>-1000</v>
@@ -3775,30 +3791,30 @@
       <c r="AJ9" s="16"/>
       <c r="AK9" s="16"/>
       <c r="AL9" s="16" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:38" ht="17.25" thickTop="1" thickBot="1">
       <c r="A10" s="14" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D10" s="15">
         <v>159753</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="H10" s="15">
         <v>-150</v>
@@ -3841,7 +3857,7 @@
       <c r="AJ10" s="16"/>
       <c r="AK10" s="16"/>
       <c r="AL10" s="16" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:38" ht="14.25" thickTop="1">
@@ -3862,24 +3878,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CC4714-938C-4DED-8249-15DA7AA69E8A}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="10.75" style="32" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25" style="32" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.625" style="32" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.25" style="32" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="45" style="32" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.75" style="32" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15" style="32" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.75" style="32" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.625" style="32" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.75" style="32" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.25" style="32" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="45" style="32" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.75" style="32" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.625" style="32" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.75" style="32" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20.5" style="32" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="32.75" style="32" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18.25" style="32" bestFit="1" customWidth="1"/>
@@ -3889,134 +3905,164 @@
     <col min="17" max="16384" width="8.875" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.25" thickBot="1">
+    <row r="1" spans="1:10" ht="14.25" thickBot="1">
       <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="45" t="s">
-        <v>473</v>
+        <v>206</v>
       </c>
       <c r="C1" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="45" t="s">
+        <v>207</v>
+      </c>
+      <c r="E1" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="51" t="s">
+      <c r="F1" s="52" t="s">
+        <v>456</v>
+      </c>
+      <c r="G1" s="53" t="s">
+        <v>457</v>
+      </c>
+      <c r="H1" s="53" t="s">
+        <v>458</v>
+      </c>
+      <c r="I1" s="53" t="s">
+        <v>459</v>
+      </c>
+      <c r="J1" s="53" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15" thickTop="1" thickBot="1">
+      <c r="A2" s="51" t="s">
+        <v>133</v>
+      </c>
+      <c r="B2" s="52" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="52" t="s">
+        <v>528</v>
+      </c>
+      <c r="E2" s="53" t="s">
+        <v>126</v>
+      </c>
+      <c r="F2" s="53" t="s">
+        <v>460</v>
+      </c>
+      <c r="G2" s="53" t="s">
+        <v>461</v>
+      </c>
+      <c r="H2" s="53" t="s">
+        <v>390</v>
+      </c>
+      <c r="I2" s="53" t="s">
+        <v>462</v>
+      </c>
+      <c r="J2" s="53" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="14.25">
+      <c r="A3" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="54" t="s">
+        <v>438</v>
+      </c>
+      <c r="C3" s="54" t="s">
+        <v>472</v>
+      </c>
+      <c r="D3" s="54" t="s">
+        <v>499</v>
+      </c>
+      <c r="E3" s="54" t="s">
+        <v>448</v>
+      </c>
+      <c r="F3" s="54" t="s">
+        <v>522</v>
+      </c>
+      <c r="G3" s="54" t="s">
+        <v>463</v>
+      </c>
+      <c r="H3" s="54" t="s">
+        <v>464</v>
+      </c>
+      <c r="I3" s="32" t="s">
+        <v>523</v>
+      </c>
+      <c r="J3" s="32" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="14.25">
+      <c r="A4" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="54" t="s">
+        <v>439</v>
+      </c>
+      <c r="C4" s="54" t="s">
+        <v>531</v>
+      </c>
+      <c r="D4" s="54" t="s">
+        <v>499</v>
+      </c>
+      <c r="E4" s="54" t="s">
+        <v>450</v>
+      </c>
+      <c r="F4" s="54" t="s">
+        <v>524</v>
+      </c>
+      <c r="G4" s="54" t="s">
+        <v>465</v>
+      </c>
+      <c r="H4" s="54" t="s">
+        <v>466</v>
+      </c>
+      <c r="I4" s="32" t="s">
+        <v>525</v>
+      </c>
+      <c r="J4" s="32" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="14.25">
+      <c r="A5" s="54" t="s">
+        <v>467</v>
+      </c>
+      <c r="B5" s="54" t="s">
+        <v>470</v>
+      </c>
+      <c r="C5" s="54" t="s">
         <v>474</v>
       </c>
-      <c r="F1" s="52" t="s">
-        <v>475</v>
-      </c>
-      <c r="G1" s="52" t="s">
-        <v>476</v>
-      </c>
-      <c r="H1" s="52" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="15" thickTop="1" thickBot="1">
-      <c r="A2" s="51" t="s">
-        <v>138</v>
-      </c>
-      <c r="B2" s="52" t="s">
-        <v>140</v>
-      </c>
-      <c r="C2" s="52" t="s">
-        <v>131</v>
-      </c>
-      <c r="D2" s="52" t="s">
-        <v>139</v>
-      </c>
-      <c r="E2" s="53" t="s">
-        <v>478</v>
-      </c>
-      <c r="F2" s="53" t="s">
-        <v>479</v>
-      </c>
-      <c r="G2" s="53" t="s">
-        <v>395</v>
-      </c>
-      <c r="H2" s="53" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="14.25">
-      <c r="A3" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="54" t="s">
-        <v>492</v>
-      </c>
-      <c r="C3" s="54" t="s">
-        <v>465</v>
-      </c>
-      <c r="D3" s="54" t="s">
-        <v>496</v>
-      </c>
-      <c r="E3" s="54" t="s">
-        <v>514</v>
-      </c>
-      <c r="F3" s="54" t="s">
-        <v>481</v>
-      </c>
-      <c r="G3" s="54" t="s">
-        <v>482</v>
-      </c>
-      <c r="H3" s="54" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="14.25">
-      <c r="A4" s="54" t="s">
-        <v>484</v>
-      </c>
-      <c r="B4" s="54" t="s">
-        <v>493</v>
-      </c>
-      <c r="C4" s="54" t="s">
-        <v>467</v>
-      </c>
-      <c r="D4" s="54" t="s">
-        <v>497</v>
-      </c>
-      <c r="E4" s="54" t="s">
-        <v>515</v>
-      </c>
-      <c r="F4" s="54" t="s">
-        <v>485</v>
-      </c>
-      <c r="G4" s="54" t="s">
-        <v>486</v>
-      </c>
-      <c r="H4" s="54" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="14.25">
-      <c r="A5" s="54" t="s">
-        <v>488</v>
-      </c>
-      <c r="B5" s="54" t="s">
-        <v>494</v>
-      </c>
-      <c r="C5" s="54" t="s">
-        <v>495</v>
-      </c>
       <c r="D5" s="54" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="E5" s="54" t="s">
-        <v>516</v>
+        <v>471</v>
       </c>
       <c r="F5" s="54" t="s">
-        <v>489</v>
+        <v>526</v>
       </c>
       <c r="G5" s="54" t="s">
-        <v>490</v>
+        <v>468</v>
       </c>
       <c r="H5" s="54" t="s">
-        <v>491</v>
+        <v>469</v>
+      </c>
+      <c r="I5" s="32" t="s">
+        <v>527</v>
+      </c>
+      <c r="J5" s="32" t="s">
+        <v>455</v>
       </c>
     </row>
   </sheetData>
@@ -4047,7 +4093,7 @@
       <c r="C1" s="62"/>
       <c r="D1" s="63"/>
       <c r="E1" s="61" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F1" s="62"/>
       <c r="G1" s="62"/>
@@ -4055,7 +4101,7 @@
       <c r="I1" s="62"/>
       <c r="J1" s="63"/>
       <c r="K1" s="61" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="L1" s="62"/>
       <c r="M1" s="62"/>
@@ -4063,7 +4109,7 @@
       <c r="O1" s="62"/>
       <c r="P1" s="63"/>
       <c r="Q1" s="61" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="R1" s="62"/>
       <c r="S1" s="62"/>
@@ -4071,7 +4117,7 @@
       <c r="U1" s="62"/>
       <c r="V1" s="63"/>
       <c r="W1" s="61" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="X1" s="62"/>
       <c r="Y1" s="62"/>
@@ -4079,7 +4125,7 @@
       <c r="AA1" s="62"/>
       <c r="AB1" s="63"/>
       <c r="AC1" s="61" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="AD1" s="62"/>
       <c r="AE1" s="62"/>
@@ -4087,7 +4133,7 @@
       <c r="AG1" s="62"/>
       <c r="AH1" s="63"/>
       <c r="AI1" s="61" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="AJ1" s="62"/>
       <c r="AK1" s="62"/>
@@ -4105,260 +4151,260 @@
         <v>29</v>
       </c>
       <c r="C2" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="H2" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="I2" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="J2" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="F2" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>120</v>
-      </c>
       <c r="K2" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="O2" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="P2" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="L2" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="M2" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="N2" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="O2" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="P2" s="11" t="s">
-        <v>120</v>
-      </c>
       <c r="Q2" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="R2" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="S2" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="T2" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="U2" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="V2" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="R2" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="S2" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="T2" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="U2" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="V2" s="11" t="s">
-        <v>120</v>
-      </c>
       <c r="W2" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="X2" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y2" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z2" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA2" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB2" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="X2" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y2" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="Z2" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="AA2" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="AB2" s="11" t="s">
-        <v>120</v>
-      </c>
       <c r="AC2" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD2" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="AE2" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF2" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="AG2" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="AH2" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="AD2" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="AE2" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="AF2" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="AG2" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="AH2" s="11" t="s">
-        <v>120</v>
-      </c>
       <c r="AI2" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="AJ2" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="AK2" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="AL2" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="AM2" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="AN2" s="11" t="s">
         <v>115</v>
-      </c>
-      <c r="AJ2" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="AK2" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="AL2" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="AM2" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="AN2" s="11" t="s">
-        <v>120</v>
       </c>
       <c r="AO2" s="11" t="s">
         <v>27</v>
       </c>
       <c r="AP2" s="11" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:42" ht="40.5">
       <c r="A3" s="11" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D3" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="I3" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="J3" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="K3" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="L3" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="M3" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="N3" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="O3" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="P3" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="Q3" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="M3" s="11" t="s">
+      <c r="R3" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="N3" s="11" t="s">
+      <c r="S3" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="O3" s="11" t="s">
+      <c r="T3" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="P3" s="11" t="s">
+      <c r="U3" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="Q3" s="11" t="s">
+      <c r="V3" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="R3" s="11" t="s">
+      <c r="W3" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="S3" s="11" t="s">
+      <c r="X3" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="T3" s="11" t="s">
+      <c r="Y3" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="U3" s="11" t="s">
+      <c r="Z3" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="V3" s="11" t="s">
+      <c r="AA3" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="W3" s="11" t="s">
+      <c r="AB3" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="X3" s="11" t="s">
+      <c r="AC3" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="Y3" s="11" t="s">
+      <c r="AD3" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="Z3" s="11" t="s">
+      <c r="AE3" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="AA3" s="11" t="s">
+      <c r="AF3" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="AB3" s="11" t="s">
+      <c r="AG3" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="AC3" s="11" t="s">
+      <c r="AH3" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="AD3" s="11" t="s">
+      <c r="AI3" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="AE3" s="11" t="s">
+      <c r="AJ3" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="AF3" s="11" t="s">
+      <c r="AK3" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="AG3" s="11" t="s">
+      <c r="AL3" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="AH3" s="11" t="s">
+      <c r="AM3" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="AI3" s="11" t="s">
+      <c r="AN3" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="AJ3" s="11" t="s">
+      <c r="AO3" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AP3" s="11" t="s">
         <v>101</v>
-      </c>
-      <c r="AK3" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="AL3" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="AM3" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="AN3" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="AO3" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="AP3" s="11" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:42" ht="16.5" thickBot="1">
       <c r="A4" s="14" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>23</v>
@@ -4478,12 +4524,12 @@
         <v>13312345678</v>
       </c>
       <c r="AP4" s="10" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:42" ht="17.25" thickTop="1" thickBot="1">
       <c r="A5" s="14" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>31</v>
@@ -4606,12 +4652,12 @@
         <v>35</v>
       </c>
       <c r="AP5" s="10" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:42" ht="17.25" thickTop="1" thickBot="1">
       <c r="A6" s="14" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>32</v>
@@ -4734,15 +4780,15 @@
         <v>13312345676</v>
       </c>
       <c r="AP6" s="10" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:42" ht="17.25" thickTop="1" thickBot="1">
       <c r="A7" s="14" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>14</v>
@@ -4862,12 +4908,12 @@
         <v>13312345675</v>
       </c>
       <c r="AP7" s="10" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:42" ht="17.25" thickTop="1" thickBot="1">
       <c r="A8" s="14" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>33</v>
@@ -4990,12 +5036,12 @@
         <v>13312345674</v>
       </c>
       <c r="AP8" s="10" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:42" ht="17.25" thickTop="1" thickBot="1">
       <c r="A9" s="14" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>34</v>
@@ -5118,7 +5164,7 @@
         <v>13312345673</v>
       </c>
       <c r="AP9" s="10" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:42" ht="14.25" thickTop="1"/>
@@ -5140,10 +5186,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EDD2311-8857-4ECF-8573-8040401A87F4}">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F9:F13"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -5175,96 +5221,96 @@
         <v>1</v>
       </c>
       <c r="C1" s="45" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="D1" s="45" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="E1" s="45" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="F1" s="45" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="45" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="H1" s="45" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="I1" s="45" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="J1" s="45" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="45" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="L1" s="45" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="M1" s="56" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="N1" s="45" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="O1" s="46" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="P1" s="46" t="s">
-        <v>499</v>
+        <v>475</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
       <c r="A2" s="57" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="B2" s="58" t="s">
-        <v>440</v>
+        <v>425</v>
       </c>
       <c r="C2" s="58" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="D2" s="58" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="E2" s="58" t="s">
-        <v>443</v>
+        <v>428</v>
       </c>
       <c r="F2" s="58" t="s">
-        <v>444</v>
+        <v>429</v>
       </c>
       <c r="G2" s="58" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="H2" s="58" t="s">
-        <v>445</v>
+        <v>430</v>
       </c>
       <c r="I2" s="58" t="s">
-        <v>446</v>
+        <v>431</v>
       </c>
       <c r="J2" s="58" t="s">
-        <v>447</v>
+        <v>432</v>
       </c>
       <c r="K2" s="58" t="s">
-        <v>448</v>
+        <v>433</v>
       </c>
       <c r="L2" s="58" t="s">
-        <v>449</v>
+        <v>434</v>
       </c>
       <c r="M2" s="58" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="N2" s="58" t="s">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="O2" s="59" t="s">
-        <v>451</v>
+        <v>436</v>
       </c>
       <c r="P2" s="59" t="s">
-        <v>452</v>
+        <v>437</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
@@ -5278,43 +5324,43 @@
         <v>37</v>
       </c>
       <c r="D3" s="47" t="s">
-        <v>453</v>
+        <v>438</v>
       </c>
       <c r="E3" s="47" t="s">
-        <v>500</v>
+        <v>476</v>
       </c>
       <c r="F3" s="47" t="s">
-        <v>511</v>
+        <v>472</v>
       </c>
       <c r="G3" s="47" t="s">
         <v>38</v>
       </c>
       <c r="H3" s="47" t="s">
-        <v>503</v>
-      </c>
-      <c r="I3" s="47">
-        <v>123456</v>
+        <v>479</v>
+      </c>
+      <c r="I3" s="47" t="s">
+        <v>499</v>
       </c>
       <c r="J3" s="47" t="s">
-        <v>465</v>
+        <v>448</v>
       </c>
       <c r="K3" s="47" t="s">
         <v>39</v>
       </c>
       <c r="L3" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="M3" s="47">
-        <v>12000</v>
+        <v>498</v>
+      </c>
+      <c r="M3" s="47" t="s">
+        <v>500</v>
       </c>
       <c r="N3" s="47" t="s">
         <v>20</v>
       </c>
       <c r="O3" s="47" t="s">
-        <v>512</v>
+        <v>521</v>
       </c>
       <c r="P3" s="47" t="s">
-        <v>472</v>
+        <v>455</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
@@ -5328,248 +5374,248 @@
         <v>37</v>
       </c>
       <c r="D4" s="47" t="s">
-        <v>453</v>
+        <v>438</v>
       </c>
       <c r="E4" s="47" t="s">
-        <v>500</v>
+        <v>476</v>
       </c>
       <c r="F4" s="47" t="s">
-        <v>455</v>
+        <v>440</v>
       </c>
       <c r="G4" s="47" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H4" s="47" t="s">
-        <v>503</v>
-      </c>
-      <c r="I4" s="47">
-        <v>132456</v>
+        <v>479</v>
+      </c>
+      <c r="I4" s="47" t="s">
+        <v>501</v>
       </c>
       <c r="J4" s="47" t="s">
-        <v>465</v>
+        <v>448</v>
       </c>
       <c r="K4" s="47" t="s">
         <v>39</v>
       </c>
       <c r="L4" s="47" t="s">
-        <v>430</v>
-      </c>
-      <c r="M4" s="47">
-        <v>12000</v>
+        <v>498</v>
+      </c>
+      <c r="M4" s="47" t="s">
+        <v>500</v>
       </c>
       <c r="N4" s="47" t="s">
         <v>20</v>
       </c>
       <c r="O4" s="47" t="s">
-        <v>472</v>
+        <v>455</v>
       </c>
       <c r="P4" s="47" t="s">
-        <v>472</v>
+        <v>455</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
       <c r="A5" s="48" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B5" s="48" t="s">
         <v>23</v>
       </c>
       <c r="C5" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="48" t="s">
+        <v>502</v>
+      </c>
+      <c r="E5" s="48" t="s">
+        <v>477</v>
+      </c>
+      <c r="F5" s="48" t="s">
+        <v>441</v>
+      </c>
+      <c r="G5" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="E5" s="48" t="s">
-        <v>501</v>
-      </c>
-      <c r="F5" s="48" t="s">
-        <v>456</v>
-      </c>
-      <c r="G5" s="48" t="s">
+      <c r="H5" s="48" t="s">
+        <v>480</v>
+      </c>
+      <c r="I5" s="48" t="s">
+        <v>499</v>
+      </c>
+      <c r="J5" s="48" t="s">
+        <v>449</v>
+      </c>
+      <c r="K5" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="H5" s="48" t="s">
+      <c r="L5" s="48" t="s">
+        <v>503</v>
+      </c>
+      <c r="M5" s="48" t="s">
         <v>504</v>
-      </c>
-      <c r="I5" s="48">
-        <v>123456</v>
-      </c>
-      <c r="J5" s="48" t="s">
-        <v>466</v>
-      </c>
-      <c r="K5" s="48" t="s">
-        <v>45</v>
-      </c>
-      <c r="L5" s="48" t="s">
-        <v>46</v>
-      </c>
-      <c r="M5" s="48">
-        <v>7000</v>
       </c>
       <c r="N5" s="48" t="s">
         <v>20</v>
       </c>
       <c r="O5" s="48" t="s">
-        <v>472</v>
+        <v>455</v>
       </c>
       <c r="P5" s="48" t="s">
-        <v>512</v>
+        <v>521</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
       <c r="A6" s="48" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B6" s="48" t="s">
         <v>23</v>
       </c>
       <c r="C6" s="48" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D6" s="48" t="s">
-        <v>513</v>
+        <v>502</v>
       </c>
       <c r="E6" s="48" t="s">
-        <v>501</v>
+        <v>477</v>
       </c>
       <c r="F6" s="48" t="s">
-        <v>457</v>
+        <v>442</v>
       </c>
       <c r="G6" s="48" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H6" s="48" t="s">
+        <v>481</v>
+      </c>
+      <c r="I6" s="48" t="s">
+        <v>499</v>
+      </c>
+      <c r="J6" s="48" t="s">
+        <v>449</v>
+      </c>
+      <c r="K6" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="L6" s="48" t="s">
+        <v>503</v>
+      </c>
+      <c r="M6" s="48" t="s">
         <v>505</v>
-      </c>
-      <c r="I6" s="48">
-        <v>123456</v>
-      </c>
-      <c r="J6" s="48" t="s">
-        <v>466</v>
-      </c>
-      <c r="K6" s="48" t="s">
-        <v>45</v>
-      </c>
-      <c r="L6" s="48" t="s">
-        <v>431</v>
-      </c>
-      <c r="M6" s="48">
-        <v>50000</v>
       </c>
       <c r="N6" s="48" t="s">
         <v>20</v>
       </c>
       <c r="O6" s="48" t="s">
-        <v>472</v>
+        <v>455</v>
       </c>
       <c r="P6" s="48" t="s">
-        <v>472</v>
+        <v>455</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
       <c r="A7" s="48" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B7" s="48" t="s">
         <v>23</v>
       </c>
       <c r="C7" s="48" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D7" s="48" t="s">
-        <v>513</v>
+        <v>502</v>
       </c>
       <c r="E7" s="48" t="s">
-        <v>501</v>
+        <v>477</v>
       </c>
       <c r="F7" s="48" t="s">
-        <v>458</v>
+        <v>443</v>
       </c>
       <c r="G7" s="48" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H7" s="48" t="s">
-        <v>505</v>
-      </c>
-      <c r="I7" s="48">
-        <v>123456</v>
+        <v>481</v>
+      </c>
+      <c r="I7" s="48" t="s">
+        <v>499</v>
       </c>
       <c r="J7" s="48" t="s">
-        <v>466</v>
+        <v>449</v>
       </c>
       <c r="K7" s="48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L7" s="48" t="s">
-        <v>432</v>
-      </c>
-      <c r="M7" s="48">
-        <v>0</v>
+        <v>503</v>
+      </c>
+      <c r="M7" s="48" t="s">
+        <v>506</v>
       </c>
       <c r="N7" s="48" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="O7" s="48" t="s">
-        <v>472</v>
+        <v>455</v>
       </c>
       <c r="P7" s="48" t="s">
-        <v>472</v>
+        <v>455</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
       <c r="A8" s="48" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B8" s="48" t="s">
         <v>23</v>
       </c>
       <c r="C8" s="48" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D8" s="48" t="s">
-        <v>513</v>
+        <v>502</v>
       </c>
       <c r="E8" s="48" t="s">
-        <v>501</v>
+        <v>477</v>
       </c>
       <c r="F8" s="48" t="s">
-        <v>459</v>
+        <v>444</v>
       </c>
       <c r="G8" s="48" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H8" s="48" t="s">
-        <v>505</v>
-      </c>
-      <c r="I8" s="48">
-        <v>123456</v>
+        <v>481</v>
+      </c>
+      <c r="I8" s="48" t="s">
+        <v>499</v>
       </c>
       <c r="J8" s="48" t="s">
-        <v>466</v>
+        <v>449</v>
       </c>
       <c r="K8" s="48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L8" s="48" t="s">
-        <v>433</v>
-      </c>
-      <c r="M8" s="48">
-        <v>0</v>
+        <v>503</v>
+      </c>
+      <c r="M8" s="48" t="s">
+        <v>506</v>
       </c>
       <c r="N8" s="48" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="O8" s="48" t="s">
-        <v>472</v>
+        <v>455</v>
       </c>
       <c r="P8" s="48" t="s">
-        <v>472</v>
+        <v>455</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
       <c r="A9" s="47" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B9" s="47" t="s">
         <v>14</v>
@@ -5578,48 +5624,48 @@
         <v>37</v>
       </c>
       <c r="D9" s="47" t="s">
-        <v>454</v>
+        <v>439</v>
       </c>
       <c r="E9" s="47" t="s">
-        <v>502</v>
+        <v>478</v>
       </c>
       <c r="F9" s="60" t="s">
-        <v>460</v>
+        <v>507</v>
       </c>
       <c r="G9" s="47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H9" s="47" t="s">
-        <v>506</v>
-      </c>
-      <c r="I9" s="47">
-        <v>123456</v>
+        <v>482</v>
+      </c>
+      <c r="I9" s="47" t="s">
+        <v>499</v>
       </c>
       <c r="J9" s="47" t="s">
-        <v>467</v>
+        <v>450</v>
       </c>
       <c r="K9" s="47" t="s">
-        <v>51</v>
+        <v>508</v>
       </c>
       <c r="L9" s="47" t="s">
-        <v>52</v>
-      </c>
-      <c r="M9" s="47">
-        <v>6000</v>
+        <v>509</v>
+      </c>
+      <c r="M9" s="47" t="s">
+        <v>510</v>
       </c>
       <c r="N9" s="47" t="s">
         <v>20</v>
       </c>
       <c r="O9" s="47" t="s">
-        <v>512</v>
+        <v>521</v>
       </c>
       <c r="P9" s="47" t="s">
-        <v>472</v>
+        <v>455</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
       <c r="A10" s="47" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="47" t="s">
         <v>14</v>
@@ -5628,48 +5674,48 @@
         <v>37</v>
       </c>
       <c r="D10" s="47" t="s">
-        <v>454</v>
+        <v>439</v>
       </c>
       <c r="E10" s="47" t="s">
-        <v>502</v>
+        <v>478</v>
       </c>
       <c r="F10" s="47" t="s">
-        <v>461</v>
+        <v>445</v>
       </c>
       <c r="G10" s="47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H10" s="47" t="s">
-        <v>507</v>
-      </c>
-      <c r="I10" s="47">
-        <v>123456</v>
+        <v>483</v>
+      </c>
+      <c r="I10" s="47" t="s">
+        <v>499</v>
       </c>
       <c r="J10" s="47" t="s">
-        <v>467</v>
+        <v>450</v>
       </c>
       <c r="K10" s="47" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="L10" s="47" t="s">
-        <v>434</v>
-      </c>
-      <c r="M10" s="47">
-        <v>7000</v>
+        <v>509</v>
+      </c>
+      <c r="M10" s="47" t="s">
+        <v>504</v>
       </c>
       <c r="N10" s="47" t="s">
         <v>20</v>
       </c>
       <c r="O10" s="47" t="s">
-        <v>472</v>
+        <v>455</v>
       </c>
       <c r="P10" s="47" t="s">
-        <v>472</v>
+        <v>455</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
       <c r="A11" s="47" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B11" s="47" t="s">
         <v>14</v>
@@ -5678,48 +5724,48 @@
         <v>37</v>
       </c>
       <c r="D11" s="47" t="s">
-        <v>454</v>
+        <v>439</v>
       </c>
       <c r="E11" s="47" t="s">
-        <v>502</v>
+        <v>478</v>
       </c>
       <c r="F11" s="47" t="s">
-        <v>462</v>
+        <v>446</v>
       </c>
       <c r="G11" s="47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H11" s="47" t="s">
-        <v>508</v>
-      </c>
-      <c r="I11" s="47">
-        <v>123456</v>
+        <v>484</v>
+      </c>
+      <c r="I11" s="47" t="s">
+        <v>499</v>
       </c>
       <c r="J11" s="47" t="s">
-        <v>467</v>
+        <v>450</v>
       </c>
       <c r="K11" s="47" t="s">
-        <v>54</v>
+        <v>511</v>
       </c>
       <c r="L11" s="47" t="s">
-        <v>435</v>
-      </c>
-      <c r="M11" s="47">
-        <v>4125.25</v>
+        <v>509</v>
+      </c>
+      <c r="M11" s="47" t="s">
+        <v>512</v>
       </c>
       <c r="N11" s="47" t="s">
         <v>20</v>
       </c>
       <c r="O11" s="47" t="s">
-        <v>472</v>
+        <v>455</v>
       </c>
       <c r="P11" s="47" t="s">
-        <v>472</v>
+        <v>455</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
       <c r="A12" s="47" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B12" s="47" t="s">
         <v>14</v>
@@ -5728,48 +5774,48 @@
         <v>37</v>
       </c>
       <c r="D12" s="47" t="s">
-        <v>454</v>
+        <v>439</v>
       </c>
       <c r="E12" s="47" t="s">
-        <v>502</v>
+        <v>478</v>
       </c>
       <c r="F12" s="47" t="s">
-        <v>463</v>
+        <v>447</v>
       </c>
       <c r="G12" s="47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H12" s="47" t="s">
+        <v>485</v>
+      </c>
+      <c r="I12" s="47" t="s">
+        <v>499</v>
+      </c>
+      <c r="J12" s="47" t="s">
+        <v>450</v>
+      </c>
+      <c r="K12" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="L12" s="47" t="s">
         <v>509</v>
       </c>
-      <c r="I12" s="47">
-        <v>123456</v>
-      </c>
-      <c r="J12" s="47" t="s">
-        <v>467</v>
-      </c>
-      <c r="K12" s="47" t="s">
-        <v>55</v>
-      </c>
-      <c r="L12" s="47" t="s">
-        <v>436</v>
-      </c>
-      <c r="M12" s="47">
-        <v>5000</v>
+      <c r="M12" s="47" t="s">
+        <v>513</v>
       </c>
       <c r="N12" s="47" t="s">
         <v>20</v>
       </c>
       <c r="O12" s="47" t="s">
-        <v>472</v>
+        <v>455</v>
       </c>
       <c r="P12" s="47" t="s">
-        <v>472</v>
+        <v>455</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
       <c r="A13" s="47" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B13" s="47" t="s">
         <v>14</v>
@@ -5778,46 +5824,145 @@
         <v>37</v>
       </c>
       <c r="D13" s="47" t="s">
-        <v>454</v>
+        <v>439</v>
       </c>
       <c r="E13" s="47" t="s">
-        <v>502</v>
+        <v>478</v>
       </c>
       <c r="F13" s="47" t="s">
-        <v>464</v>
+        <v>514</v>
       </c>
       <c r="G13" s="47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H13" s="47" t="s">
-        <v>510</v>
-      </c>
-      <c r="I13" s="47">
-        <v>123456</v>
+        <v>486</v>
+      </c>
+      <c r="I13" s="47" t="s">
+        <v>499</v>
       </c>
       <c r="J13" s="47" t="s">
-        <v>467</v>
+        <v>450</v>
       </c>
       <c r="K13" s="47" t="s">
-        <v>437</v>
+        <v>515</v>
       </c>
       <c r="L13" s="47" t="s">
-        <v>438</v>
-      </c>
-      <c r="M13" s="47">
-        <v>10000</v>
+        <v>509</v>
+      </c>
+      <c r="M13" s="47" t="s">
+        <v>516</v>
       </c>
       <c r="N13" s="47" t="s">
         <v>20</v>
       </c>
       <c r="O13" s="47" t="s">
-        <v>472</v>
+        <v>455</v>
       </c>
       <c r="P13" s="47" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="14.25" thickTop="1"/>
+        <v>455</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="14.25" thickTop="1">
+      <c r="A14" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="40" t="s">
+        <v>439</v>
+      </c>
+      <c r="E14" s="40" t="s">
+        <v>478</v>
+      </c>
+      <c r="F14" s="40" t="s">
+        <v>473</v>
+      </c>
+      <c r="G14" s="40" t="s">
+        <v>517</v>
+      </c>
+      <c r="H14" s="40" t="s">
+        <v>486</v>
+      </c>
+      <c r="I14" s="40" t="s">
+        <v>499</v>
+      </c>
+      <c r="J14" s="40" t="s">
+        <v>450</v>
+      </c>
+      <c r="K14" s="40" t="s">
+        <v>515</v>
+      </c>
+      <c r="L14" s="40" t="s">
+        <v>509</v>
+      </c>
+      <c r="M14" s="40" t="s">
+        <v>518</v>
+      </c>
+      <c r="N14" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="O14" s="40" t="s">
+        <v>455</v>
+      </c>
+      <c r="P14" s="40" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="40" t="s">
+        <v>467</v>
+      </c>
+      <c r="B15" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="40" t="s">
+        <v>470</v>
+      </c>
+      <c r="E15" s="40" t="s">
+        <v>519</v>
+      </c>
+      <c r="F15" s="40" t="s">
+        <v>474</v>
+      </c>
+      <c r="G15" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="H15" s="40" t="s">
+        <v>484</v>
+      </c>
+      <c r="I15" s="40" t="s">
+        <v>499</v>
+      </c>
+      <c r="J15" s="40" t="s">
+        <v>471</v>
+      </c>
+      <c r="K15" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="L15" s="40" t="s">
+        <v>498</v>
+      </c>
+      <c r="M15" s="40" t="s">
+        <v>520</v>
+      </c>
+      <c r="N15" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="O15" s="40" t="s">
+        <v>455</v>
+      </c>
+      <c r="P15" s="40" t="s">
+        <v>455</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5857,125 +6002,125 @@
         <v>2</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D1" s="25" t="s">
+        <v>241</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>487</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>242</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>243</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="J1" s="25" t="s">
+        <v>244</v>
+      </c>
+      <c r="K1" s="25" t="s">
+        <v>245</v>
+      </c>
+      <c r="L1" s="25" t="s">
         <v>246</v>
       </c>
-      <c r="E1" s="25" t="s">
-        <v>212</v>
-      </c>
-      <c r="F1" s="25" t="s">
-        <v>517</v>
-      </c>
-      <c r="G1" s="25" t="s">
+      <c r="M1" s="25" t="s">
         <v>247</v>
       </c>
-      <c r="H1" s="26" t="s">
-        <v>248</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>130</v>
-      </c>
-      <c r="J1" s="25" t="s">
-        <v>249</v>
-      </c>
-      <c r="K1" s="25" t="s">
-        <v>250</v>
-      </c>
-      <c r="L1" s="25" t="s">
-        <v>251</v>
-      </c>
-      <c r="M1" s="25" t="s">
-        <v>252</v>
-      </c>
       <c r="N1" s="25" t="s">
-        <v>518</v>
+        <v>488</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="30" customHeight="1">
       <c r="A2" s="25" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B2" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>198</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>248</v>
+      </c>
+      <c r="E2" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="C2" s="25" t="s">
-        <v>203</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>253</v>
-      </c>
-      <c r="E2" s="25" t="s">
-        <v>144</v>
-      </c>
       <c r="F2" s="25" t="s">
-        <v>519</v>
+        <v>489</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="H2" s="26" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="I2" s="25" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="J2" s="25" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="K2" s="27" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="L2" s="25" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="M2" s="25" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="N2" s="25" t="s">
-        <v>520</v>
+        <v>490</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="30" customHeight="1">
       <c r="A3" s="28" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="E3" s="28">
         <v>190722</v>
       </c>
       <c r="F3" s="28" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="G3" s="28" t="s">
-        <v>521</v>
+        <v>491</v>
       </c>
       <c r="H3" s="29" t="s">
-        <v>522</v>
+        <v>492</v>
       </c>
       <c r="I3" s="28" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="J3" s="28" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="K3" s="28">
         <v>0</v>
       </c>
       <c r="L3" s="28" t="s">
-        <v>525</v>
+        <v>495</v>
       </c>
       <c r="M3" s="28" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="N3" s="28">
         <v>1</v>
@@ -5983,43 +6128,43 @@
     </row>
     <row r="4" spans="1:14" ht="30" customHeight="1">
       <c r="A4" s="28" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="E4" s="28">
         <v>190722</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="H4" s="29" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="K4" s="28">
         <v>0</v>
       </c>
       <c r="L4" s="28" t="s">
-        <v>525</v>
+        <v>495</v>
       </c>
       <c r="M4" s="28" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="N4" s="28">
         <v>1</v>
@@ -6027,43 +6172,43 @@
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1">
       <c r="A5" s="28" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="E5" s="28">
         <v>190722</v>
       </c>
       <c r="F5" s="28" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="G5" s="28" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="H5" s="29" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="I5" s="28" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="J5" s="28" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="K5" s="28">
         <v>0</v>
       </c>
       <c r="L5" s="28" t="s">
-        <v>525</v>
+        <v>495</v>
       </c>
       <c r="M5" s="28" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="N5" s="28">
         <v>1</v>
@@ -6071,43 +6216,43 @@
     </row>
     <row r="6" spans="1:14" ht="30" customHeight="1">
       <c r="A6" s="28" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="E6" s="28">
         <v>190723</v>
       </c>
       <c r="F6" s="28" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="G6" s="28" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H6" s="29" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="I6" s="28" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="J6" s="28" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="K6" s="28">
         <v>1000</v>
       </c>
       <c r="L6" s="28" t="s">
-        <v>524</v>
+        <v>494</v>
       </c>
       <c r="M6" s="28" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="N6" s="28">
         <v>2</v>
@@ -6115,43 +6260,43 @@
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1">
       <c r="A7" s="28" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="E7" s="28">
         <v>190723</v>
       </c>
       <c r="F7" s="28" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="G7" s="28" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H7" s="29" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="I7" s="28" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="J7" s="28" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="K7" s="28">
         <v>1000</v>
       </c>
       <c r="L7" s="28" t="s">
-        <v>524</v>
+        <v>494</v>
       </c>
       <c r="M7" s="28" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="N7" s="28">
         <v>2</v>
@@ -6159,43 +6304,43 @@
     </row>
     <row r="8" spans="1:14" ht="30" customHeight="1">
       <c r="A8" s="28" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="E8" s="28">
         <v>190723</v>
       </c>
       <c r="F8" s="28" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="G8" s="28" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="H8" s="29" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="I8" s="28" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="J8" s="28" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="K8" s="28">
         <v>1000</v>
       </c>
       <c r="L8" s="28" t="s">
-        <v>524</v>
+        <v>494</v>
       </c>
       <c r="M8" s="28" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="N8" s="28">
         <v>2</v>
@@ -6203,34 +6348,34 @@
     </row>
     <row r="9" spans="1:14" ht="30" customHeight="1">
       <c r="A9" s="28" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="E9" s="28">
         <v>190724</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="H9" s="29" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="I9" s="28" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="J9" s="28" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="K9" s="28">
         <v>0</v>
@@ -6239,7 +6384,7 @@
         <v>13947851245</v>
       </c>
       <c r="M9" s="28" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="N9" s="28">
         <v>3</v>
@@ -6247,34 +6392,34 @@
     </row>
     <row r="10" spans="1:14" ht="30" customHeight="1">
       <c r="A10" s="28" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="E10" s="28">
         <v>190724</v>
       </c>
       <c r="F10" s="28" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="G10" s="28" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="H10" s="29" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="I10" s="28" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="J10" s="28" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="K10" s="28">
         <v>0</v>
@@ -6283,7 +6428,7 @@
         <v>13947851245</v>
       </c>
       <c r="M10" s="28" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="N10" s="28">
         <v>3</v>
@@ -6291,34 +6436,34 @@
     </row>
     <row r="11" spans="1:14" ht="30" customHeight="1">
       <c r="A11" s="28" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="E11" s="28">
         <v>190724</v>
       </c>
       <c r="F11" s="28" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="G11" s="28" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="H11" s="29" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="I11" s="28" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="J11" s="28" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="K11" s="28">
         <v>0</v>
@@ -6327,7 +6472,7 @@
         <v>13947851245</v>
       </c>
       <c r="M11" s="28" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="N11" s="28">
         <v>3</v>
@@ -6335,34 +6480,34 @@
     </row>
     <row r="12" spans="1:14" ht="30" customHeight="1">
       <c r="A12" s="28" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="E12" s="28">
         <v>190725</v>
       </c>
       <c r="F12" s="28" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="G12" s="28" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="H12" s="29" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="I12" s="28" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="J12" s="28" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="K12" s="28">
         <v>1000</v>
@@ -6371,7 +6516,7 @@
         <v>13847569541</v>
       </c>
       <c r="M12" s="28" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="N12" s="28">
         <v>4</v>
@@ -6379,34 +6524,34 @@
     </row>
     <row r="13" spans="1:14" ht="30" customHeight="1">
       <c r="A13" s="28" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="E13" s="28">
         <v>190725</v>
       </c>
       <c r="F13" s="28" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="G13" s="28" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="H13" s="29" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="I13" s="28" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="J13" s="28" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="K13" s="28">
         <v>1000</v>
@@ -6415,7 +6560,7 @@
         <v>13847569541</v>
       </c>
       <c r="M13" s="28" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="N13" s="28">
         <v>4</v>
@@ -6423,34 +6568,34 @@
     </row>
     <row r="14" spans="1:14" ht="30" customHeight="1">
       <c r="A14" s="28" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="E14" s="28">
         <v>190725</v>
       </c>
       <c r="F14" s="28" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="G14" s="28" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="H14" s="29" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="I14" s="28" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="J14" s="28" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="K14" s="28">
         <v>1000</v>
@@ -6459,7 +6604,7 @@
         <v>13847569541</v>
       </c>
       <c r="M14" s="28" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="N14" s="28">
         <v>4</v>
@@ -6467,34 +6612,34 @@
     </row>
     <row r="15" spans="1:14" ht="30" customHeight="1">
       <c r="A15" s="28" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="E15" s="28">
         <v>190726</v>
       </c>
       <c r="F15" s="28" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="G15" s="28" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="H15" s="29" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="I15" s="28" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="J15" s="28" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="K15" s="28">
         <v>1000</v>
@@ -6503,7 +6648,7 @@
         <v>13745123547</v>
       </c>
       <c r="M15" s="28" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="N15" s="28">
         <v>5</v>
@@ -6511,34 +6656,34 @@
     </row>
     <row r="16" spans="1:14" ht="30" customHeight="1">
       <c r="A16" s="28" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="E16" s="28">
         <v>190726</v>
       </c>
       <c r="F16" s="28" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="G16" s="28" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="H16" s="29" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="I16" s="28" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="J16" s="28" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="K16" s="28">
         <v>1000</v>
@@ -6547,7 +6692,7 @@
         <v>13745123547</v>
       </c>
       <c r="M16" s="28" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="N16" s="28">
         <v>5</v>
@@ -6555,34 +6700,34 @@
     </row>
     <row r="17" spans="1:14" ht="30" customHeight="1">
       <c r="A17" s="28" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="E17" s="28">
         <v>190726</v>
       </c>
       <c r="F17" s="28" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="G17" s="28" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="H17" s="29" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="I17" s="28" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="J17" s="28" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="K17" s="28">
         <v>1000</v>
@@ -6591,7 +6736,7 @@
         <v>13745123547</v>
       </c>
       <c r="M17" s="28" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="N17" s="28">
         <v>5</v>
@@ -6599,34 +6744,34 @@
     </row>
     <row r="18" spans="1:14" ht="30" customHeight="1">
       <c r="A18" s="28" t="s">
-        <v>523</v>
+        <v>493</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="E18" s="28">
         <v>190727</v>
       </c>
       <c r="F18" s="28" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="G18" s="28" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="H18" s="29" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="I18" s="28" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="J18" s="28" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="K18" s="28">
         <v>300</v>
@@ -6635,7 +6780,7 @@
         <v>13644851444</v>
       </c>
       <c r="M18" s="28" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="N18" s="28">
         <v>6</v>
@@ -6643,34 +6788,34 @@
     </row>
     <row r="19" spans="1:14" ht="30" customHeight="1">
       <c r="A19" s="28" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="E19" s="28">
         <v>190727</v>
       </c>
       <c r="F19" s="28" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="G19" s="28" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="H19" s="29" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="I19" s="28" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="J19" s="28" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="K19" s="28">
         <v>300</v>
@@ -6679,7 +6824,7 @@
         <v>13644851444</v>
       </c>
       <c r="M19" s="28" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="N19" s="28">
         <v>6</v>
@@ -6687,34 +6832,34 @@
     </row>
     <row r="20" spans="1:14" ht="30" customHeight="1">
       <c r="A20" s="28" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="E20" s="28">
         <v>190727</v>
       </c>
       <c r="F20" s="28" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="G20" s="28" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="H20" s="29" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="I20" s="28" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="J20" s="28" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="K20" s="28">
         <v>300</v>
@@ -6723,7 +6868,7 @@
         <v>13644851444</v>
       </c>
       <c r="M20" s="28" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="N20" s="28">
         <v>6</v>
@@ -6731,34 +6876,34 @@
     </row>
     <row r="21" spans="1:14" ht="30" customHeight="1">
       <c r="A21" s="28" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="E21" s="28">
         <v>190728</v>
       </c>
       <c r="F21" s="28" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="G21" s="28" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="H21" s="29" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="I21" s="28" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="J21" s="28" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="K21" s="28">
         <v>300</v>
@@ -6767,7 +6912,7 @@
         <v>13569696465</v>
       </c>
       <c r="M21" s="28" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="N21" s="28">
         <v>7</v>
@@ -6775,34 +6920,34 @@
     </row>
     <row r="22" spans="1:14" ht="30" customHeight="1">
       <c r="A22" s="28" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="E22" s="28">
         <v>190728</v>
       </c>
       <c r="F22" s="28" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="G22" s="28" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="H22" s="29" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="I22" s="28" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="J22" s="28" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="K22" s="28">
         <v>300</v>
@@ -6811,7 +6956,7 @@
         <v>13569696465</v>
       </c>
       <c r="M22" s="28" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="N22" s="28">
         <v>7</v>
@@ -6819,34 +6964,34 @@
     </row>
     <row r="23" spans="1:14" ht="30" customHeight="1">
       <c r="A23" s="28" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="C23" s="28" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="E23" s="28">
         <v>190728</v>
       </c>
       <c r="F23" s="28" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="G23" s="28" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="H23" s="29" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="I23" s="28" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="J23" s="28" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="K23" s="28">
         <v>300</v>
@@ -6855,7 +7000,7 @@
         <v>13569696465</v>
       </c>
       <c r="M23" s="28" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="N23" s="28">
         <v>7</v>
@@ -6863,34 +7008,34 @@
     </row>
     <row r="24" spans="1:14" ht="30" customHeight="1">
       <c r="A24" s="28" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="B24" s="28" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="E24" s="28">
         <v>190729</v>
       </c>
       <c r="F24" s="28" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="G24" s="28" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="H24" s="29" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="I24" s="28" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="J24" s="28" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="K24" s="28">
         <v>300</v>
@@ -6899,7 +7044,7 @@
         <v>13147852111</v>
       </c>
       <c r="M24" s="28" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="N24" s="28">
         <v>8</v>
@@ -6907,34 +7052,34 @@
     </row>
     <row r="25" spans="1:14" ht="30" customHeight="1">
       <c r="A25" s="28" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="B25" s="28" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="D25" s="28" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="E25" s="28">
         <v>190729</v>
       </c>
       <c r="F25" s="28" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="G25" s="28" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="H25" s="29" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="I25" s="28" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="J25" s="28" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="K25" s="28">
         <v>300</v>
@@ -6943,7 +7088,7 @@
         <v>13147852111</v>
       </c>
       <c r="M25" s="28" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="N25" s="28">
         <v>8</v>
@@ -6951,34 +7096,34 @@
     </row>
     <row r="26" spans="1:14" ht="30" customHeight="1">
       <c r="A26" s="28" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="B26" s="28" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C26" s="28" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="D26" s="28" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="E26" s="28">
         <v>190729</v>
       </c>
       <c r="F26" s="28" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="G26" s="28" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="H26" s="29" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="I26" s="28" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="J26" s="28" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="K26" s="28">
         <v>300</v>
@@ -6987,7 +7132,7 @@
         <v>13147852111</v>
       </c>
       <c r="M26" s="28" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="N26" s="28">
         <v>8</v>
@@ -6995,34 +7140,34 @@
     </row>
     <row r="27" spans="1:14" ht="30" customHeight="1">
       <c r="A27" s="28" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="B27" s="28" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="C27" s="28" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="D27" s="28" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="E27" s="28">
         <v>190730</v>
       </c>
       <c r="F27" s="28" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="G27" s="28" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="H27" s="29" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="I27" s="28" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="J27" s="28" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="K27" s="28">
         <v>300</v>
@@ -7031,7 +7176,7 @@
         <v>13069654888</v>
       </c>
       <c r="M27" s="28" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="N27" s="28">
         <v>9</v>
@@ -7039,34 +7184,34 @@
     </row>
     <row r="28" spans="1:14" ht="30" customHeight="1">
       <c r="A28" s="28" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="B28" s="28" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="C28" s="28" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="E28" s="28">
         <v>190730</v>
       </c>
       <c r="F28" s="28" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="G28" s="28" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="H28" s="29" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="I28" s="28" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="J28" s="28" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="K28" s="28">
         <v>300</v>
@@ -7075,7 +7220,7 @@
         <v>13069654888</v>
       </c>
       <c r="M28" s="28" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="N28" s="28">
         <v>9</v>
@@ -7083,34 +7228,34 @@
     </row>
     <row r="29" spans="1:14" ht="30" customHeight="1">
       <c r="A29" s="28" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="B29" s="28" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="C29" s="28" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="D29" s="28" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="E29" s="28">
         <v>190730</v>
       </c>
       <c r="F29" s="28" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="G29" s="28" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="H29" s="29" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="I29" s="28" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="J29" s="28" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="K29" s="28">
         <v>300</v>
@@ -7119,7 +7264,7 @@
         <v>13069654888</v>
       </c>
       <c r="M29" s="28" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="N29" s="28">
         <v>9</v>
@@ -7127,34 +7272,34 @@
     </row>
     <row r="30" spans="1:14" ht="30" customHeight="1">
       <c r="A30" s="28" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="B30" s="28" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="C30" s="28" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="D30" s="28" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="E30" s="28">
         <v>190731</v>
       </c>
       <c r="F30" s="28" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="G30" s="28" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="H30" s="29" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="I30" s="28" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="J30" s="28" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="K30" s="28">
         <v>300</v>
@@ -7163,7 +7308,7 @@
         <v>13354784121</v>
       </c>
       <c r="M30" s="28" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="N30" s="28">
         <v>10</v>
@@ -7171,34 +7316,34 @@
     </row>
     <row r="31" spans="1:14" ht="30" customHeight="1">
       <c r="A31" s="28" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="B31" s="28" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="C31" s="28" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="D31" s="28" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="E31" s="28">
         <v>190731</v>
       </c>
       <c r="F31" s="28" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="G31" s="28" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="H31" s="29" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="I31" s="28" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="J31" s="28" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="K31" s="28">
         <v>300</v>
@@ -7207,7 +7352,7 @@
         <v>13354784121</v>
       </c>
       <c r="M31" s="28" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="N31" s="28">
         <v>10</v>
@@ -7215,34 +7360,34 @@
     </row>
     <row r="32" spans="1:14" ht="30" customHeight="1">
       <c r="A32" s="28" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="B32" s="28" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="C32" s="28" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="D32" s="28" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="E32" s="28">
         <v>190731</v>
       </c>
       <c r="F32" s="28" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="G32" s="28" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H32" s="29" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="I32" s="28" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="J32" s="28" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="K32" s="28">
         <v>300</v>
@@ -7251,7 +7396,7 @@
         <v>13354784121</v>
       </c>
       <c r="M32" s="28" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="N32" s="28">
         <v>10</v>
@@ -7268,8 +7413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22D1ADF8-5FB2-40D6-ABA5-038F78548C18}">
   <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7296,13 +7441,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C1" s="30" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="30" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="E1" s="31"/>
       <c r="F1" s="31"/>
@@ -7315,94 +7460,94 @@
       <c r="M1" s="31"/>
       <c r="N1" s="43"/>
       <c r="O1" s="31" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="14.25" thickBot="1">
       <c r="A2" s="65"/>
       <c r="B2" s="38" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C2" s="38" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D2" s="38" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="E2" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="F2" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="G2" s="31" t="s">
+        <v>210</v>
+      </c>
+      <c r="H2" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="I2" s="31" t="s">
+        <v>334</v>
+      </c>
+      <c r="J2" s="31" t="s">
+        <v>212</v>
+      </c>
+      <c r="K2" s="31" t="s">
         <v>213</v>
       </c>
-      <c r="F2" s="31" t="s">
-        <v>214</v>
-      </c>
-      <c r="G2" s="31" t="s">
-        <v>215</v>
-      </c>
-      <c r="H2" s="31" t="s">
-        <v>216</v>
-      </c>
-      <c r="I2" s="31" t="s">
-        <v>339</v>
-      </c>
-      <c r="J2" s="31" t="s">
-        <v>217</v>
-      </c>
-      <c r="K2" s="31" t="s">
-        <v>218</v>
-      </c>
       <c r="L2" s="31" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="M2" s="31" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="N2" s="44" t="s">
-        <v>471</v>
+        <v>454</v>
       </c>
       <c r="O2" s="39"/>
     </row>
     <row r="3" spans="1:15" ht="14.25" thickBot="1">
       <c r="A3" s="33" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="C3" s="33" t="s">
+        <v>346</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>347</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>348</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>349</v>
+      </c>
+      <c r="G3" s="36" t="s">
+        <v>350</v>
+      </c>
+      <c r="H3" s="34" t="s">
         <v>351</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="I3" s="34" t="s">
         <v>352</v>
       </c>
-      <c r="E3" s="35" t="s">
+      <c r="J3" s="34" t="s">
         <v>353</v>
       </c>
-      <c r="F3" s="35" t="s">
+      <c r="K3" s="34" t="s">
         <v>354</v>
       </c>
-      <c r="G3" s="36" t="s">
+      <c r="L3" s="34" t="s">
         <v>355</v>
       </c>
-      <c r="H3" s="34" t="s">
+      <c r="M3" s="33" t="s">
         <v>356</v>
       </c>
-      <c r="I3" s="34" t="s">
-        <v>357</v>
-      </c>
-      <c r="J3" s="34" t="s">
-        <v>358</v>
-      </c>
-      <c r="K3" s="34" t="s">
-        <v>359</v>
-      </c>
-      <c r="L3" s="34" t="s">
-        <v>360</v>
-      </c>
-      <c r="M3" s="33" t="s">
-        <v>361</v>
-      </c>
       <c r="N3" s="49" t="s">
-        <v>468</v>
+        <v>451</v>
       </c>
       <c r="O3" s="33"/>
     </row>
@@ -7411,10 +7556,10 @@
         <v>13</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="D4" s="18">
         <v>123456</v>
@@ -7429,22 +7574,22 @@
         <v>2000</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="I4" s="18"/>
       <c r="J4" s="18" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="K4" s="18"/>
       <c r="L4" s="21"/>
       <c r="M4" s="21" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="N4" s="50" t="s">
-        <v>469</v>
+        <v>452</v>
       </c>
       <c r="O4" s="17" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="14.25" thickBot="1">
@@ -7452,10 +7597,10 @@
         <v>30</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="D5" s="18">
         <v>123456</v>
@@ -7470,22 +7615,22 @@
         <v>2000</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="I5" s="18"/>
       <c r="J5" s="18" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="K5" s="18"/>
       <c r="L5" s="18"/>
       <c r="M5" s="18" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="N5" s="50" t="s">
         <v>16</v>
       </c>
       <c r="O5" s="17" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="14.25" thickBot="1">
@@ -7493,51 +7638,51 @@
         <v>13</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="D6" s="18">
         <v>123456</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="G6" s="22">
         <v>2000</v>
       </c>
       <c r="H6" s="18" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="I6" s="18"/>
       <c r="J6" s="18" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="K6" s="18"/>
       <c r="L6" s="18"/>
       <c r="M6" s="18" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="N6" s="50" t="s">
-        <v>470</v>
+        <v>453</v>
       </c>
       <c r="O6" s="17" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="14.25" thickBot="1">
       <c r="A7" s="37" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B7" s="37" t="s">
-        <v>415</v>
+        <v>496</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="D7" s="18">
         <v>123321</v>
@@ -7552,14 +7697,14 @@
         <v>2000</v>
       </c>
       <c r="H7" s="18" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="I7" s="18"/>
       <c r="J7" s="18" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="K7" s="18" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="L7" s="18"/>
       <c r="M7" s="18"/>
@@ -7567,18 +7712,18 @@
         <v>16</v>
       </c>
       <c r="O7" s="18" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="14.25" thickBot="1">
       <c r="A8" s="37" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B8" s="37" t="s">
-        <v>415</v>
+        <v>496</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="D8" s="18">
         <v>123321</v>
@@ -7593,33 +7738,33 @@
         <v>2000</v>
       </c>
       <c r="H8" s="18" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="I8" s="18"/>
       <c r="J8" s="18" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="K8" s="18"/>
       <c r="L8" s="18" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="M8" s="18"/>
       <c r="N8" s="50" t="s">
-        <v>469</v>
+        <v>452</v>
       </c>
       <c r="O8" s="18" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="14.25" thickBot="1">
       <c r="A9" s="37" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="D9" s="18">
         <v>321321</v>
@@ -7628,29 +7773,29 @@
       <c r="F9" s="18"/>
       <c r="G9" s="18"/>
       <c r="H9" s="18" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="I9" s="18"/>
       <c r="J9" s="18" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="K9" s="18"/>
       <c r="L9" s="18"/>
       <c r="M9" s="18"/>
       <c r="N9" s="50"/>
       <c r="O9" s="18" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="14.25" thickBot="1">
       <c r="A10" s="37" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="B10" s="37" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="D10" s="18">
         <v>321321</v>
@@ -7665,76 +7810,76 @@
         <v>2000</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="I10" s="18"/>
       <c r="J10" s="18" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="K10" s="18"/>
       <c r="L10" s="18" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="M10" s="18"/>
       <c r="N10" s="50" t="s">
-        <v>469</v>
+        <v>452</v>
       </c>
       <c r="O10" s="18" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="14.25" thickBot="1">
       <c r="A11" s="17" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="D11" s="18">
         <v>112233</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="G11" s="18">
         <v>2000</v>
       </c>
       <c r="H11" s="18" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="I11" s="18" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="J11" s="18" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="K11" s="18"/>
       <c r="L11" s="18"/>
       <c r="M11" s="18" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="N11" s="50" t="s">
         <v>16</v>
       </c>
       <c r="O11" s="18" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="14.25" thickBot="1">
       <c r="A12" s="17" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="D12" s="18">
         <v>112233</v>
@@ -7743,41 +7888,41 @@
         <v>0</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="G12" s="18">
         <v>2000</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="I12" s="18" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="J12" s="18" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="K12" s="18"/>
       <c r="L12" s="18"/>
       <c r="M12" s="18" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="N12" s="50" t="s">
         <v>16</v>
       </c>
       <c r="O12" s="18" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="14.25" thickBot="1">
       <c r="A13" s="18" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="D13" s="18">
         <v>147147</v>
@@ -7792,33 +7937,33 @@
         <v>2000</v>
       </c>
       <c r="H13" s="18" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="I13" s="18"/>
       <c r="J13" s="18" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="K13" s="18"/>
       <c r="L13" s="18"/>
       <c r="M13" s="18" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="N13" s="50" t="s">
-        <v>469</v>
+        <v>452</v>
       </c>
       <c r="O13" s="18" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="14.25" thickBot="1">
       <c r="A14" s="23" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="D14" s="18">
         <v>456456</v>
@@ -7829,31 +7974,31 @@
       <c r="F14" s="18"/>
       <c r="G14" s="18"/>
       <c r="H14" s="18" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="I14" s="18"/>
       <c r="J14" s="18" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="K14" s="18" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="L14" s="18"/>
       <c r="M14" s="18"/>
       <c r="N14" s="50"/>
       <c r="O14" s="18" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="14.25" thickBot="1">
       <c r="A15" s="17" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="D15" s="18">
         <v>232323</v>
@@ -7866,61 +8011,61 @@
         <v>2000</v>
       </c>
       <c r="H15" s="18" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="I15" s="18"/>
       <c r="J15" s="18" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="K15" s="18" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="L15" s="18"/>
       <c r="M15" s="18"/>
       <c r="N15" s="50"/>
       <c r="O15" s="18" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="14.25" thickBot="1">
       <c r="A16" s="40" t="s">
+        <v>375</v>
+      </c>
+      <c r="B16" s="40" t="s">
+        <v>376</v>
+      </c>
+      <c r="C16" s="18" t="s">
         <v>380</v>
       </c>
-      <c r="B16" s="40" t="s">
-        <v>381</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>385</v>
-      </c>
       <c r="D16" s="18" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>526</v>
+        <v>497</v>
       </c>
       <c r="G16" s="18" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="H16" s="18" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="I16" s="18"/>
       <c r="J16" s="18" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="K16" s="18"/>
       <c r="L16" s="18"/>
       <c r="M16" s="18" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="N16" s="50" t="s">
-        <v>469</v>
+        <v>452</v>
       </c>
       <c r="O16" s="18" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
   </sheetData>
@@ -7956,59 +8101,59 @@
   <sheetData>
     <row r="1" spans="1:8" ht="24.75" thickBot="1">
       <c r="A1" s="41" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="B1" s="41" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="C1" s="41" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="D1" s="41" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E1" s="41" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="41" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="G1" s="41" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="H1" s="41" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="24.75" thickBot="1">
       <c r="A2" s="41" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C2" s="41" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="D2" s="41" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="E2" s="41" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="F2" s="41" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="G2" s="41" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="H2" s="41" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="14.25" thickBot="1">
       <c r="A3" s="42" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="B3" s="42">
         <v>11111111111</v>
@@ -8017,10 +8162,10 @@
         <v>22222222221</v>
       </c>
       <c r="D3" s="42" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="E3" s="42" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="F3" s="42">
         <v>112233</v>
@@ -8029,12 +8174,12 @@
         <v>111</v>
       </c>
       <c r="H3" s="42" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.25" thickBot="1">
       <c r="A4" s="42" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="B4" s="42">
         <v>11111111112</v>
@@ -8043,10 +8188,10 @@
         <v>22222222222</v>
       </c>
       <c r="D4" s="42" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="E4" s="42" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="F4" s="42">
         <v>112233</v>
@@ -8055,7 +8200,7 @@
         <v>112</v>
       </c>
       <c r="H4" s="42" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="14.25" thickBot="1">
@@ -8069,10 +8214,10 @@
         <v>22222222223</v>
       </c>
       <c r="D5" s="42" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="E5" s="42" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="F5" s="42">
         <v>112233</v>
@@ -8081,12 +8226,12 @@
         <v>113</v>
       </c>
       <c r="H5" s="42" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="14.25" thickBot="1">
       <c r="A6" s="42" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B6" s="42">
         <v>11111111114</v>
@@ -8095,10 +8240,10 @@
         <v>22222222224</v>
       </c>
       <c r="D6" s="42" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="E6" s="42" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="F6" s="42">
         <v>112233</v>
@@ -8107,12 +8252,12 @@
         <v>114</v>
       </c>
       <c r="H6" s="42" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="14.25" thickBot="1">
       <c r="A7" s="42" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="B7" s="42">
         <v>11111111115</v>
@@ -8121,10 +8266,10 @@
         <v>22222222225</v>
       </c>
       <c r="D7" s="42" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="E7" s="42" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="F7" s="42">
         <v>112233</v>
@@ -8133,12 +8278,12 @@
         <v>115</v>
       </c>
       <c r="H7" s="42" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="14.25" thickBot="1">
       <c r="A8" s="42" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="B8" s="42">
         <v>11111111116</v>
@@ -8147,10 +8292,10 @@
         <v>22222222226</v>
       </c>
       <c r="D8" s="42" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="E8" s="42" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="F8" s="42">
         <v>112233</v>
@@ -8159,12 +8304,12 @@
         <v>116</v>
       </c>
       <c r="H8" s="42" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="14.25" thickBot="1">
       <c r="A9" s="42" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="B9" s="42">
         <v>11111111117</v>
@@ -8173,10 +8318,10 @@
         <v>22222222227</v>
       </c>
       <c r="D9" s="42" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="E9" s="42" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="F9" s="42">
         <v>112233</v>
@@ -8185,7 +8330,7 @@
         <v>117</v>
       </c>
       <c r="H9" s="42" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
     </row>
   </sheetData>

--- a/ICBC-DATA.xlsx
+++ b/ICBC-DATA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10910"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\AICP\ICBC\WebHook\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangbo43/Desktop/webhook/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14918185-8A50-45BB-B2D0-B2C2B66C2B29}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F95A5D53-829A-9149-B8C2-E1798136CBA4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="460" windowWidth="29040" windowHeight="16000" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="信用卡催收外呼信息-暂不用" sheetId="3" r:id="rId1"/>
@@ -22,12 +22,12 @@
     <sheet name="一键调额流程信息" sheetId="10" r:id="rId7"/>
     <sheet name="助手调用信息" sheetId="11" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1345" uniqueCount="558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="564">
   <si>
     <t>姓名</t>
   </si>
@@ -736,9 +736,6 @@
   </si>
   <si>
     <t>有明细的交易日期</t>
-  </si>
-  <si>
-    <t>当天交易明细笔数金额</t>
   </si>
   <si>
     <t>发送状态</t>
@@ -1861,6 +1858,34 @@
   <si>
     <t>商务卡</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金额一</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>金额二</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>金额三</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>moneyOne</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>moneyTwo</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>moneyThree</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>当天交易明细笔数金额</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1920,6 +1945,7 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="SimSun"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1927,12 +1953,14 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="SimSun"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="SimSun"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1947,18 +1975,21 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="SimSun"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="SimSun"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="SimSun"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1966,6 +1997,7 @@
       <sz val="11"/>
       <color rgb="FFFFD900"/>
       <name val="SimSun"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1973,6 +2005,7 @@
       <sz val="11"/>
       <color rgb="FFFE2C23"/>
       <name val="SimSun"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1980,6 +2013,7 @@
       <sz val="12"/>
       <color rgb="FFFE2C23"/>
       <name val="SimSun"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -2015,7 +2049,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -2205,13 +2239,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2374,6 +2417,9 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2383,8 +2429,14 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2738,24 +2790,24 @@
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="13.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
     <col min="3" max="3" width="21.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="17" style="1" customWidth="1"/>
     <col min="6" max="6" width="17.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="29.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="29.1640625" style="1" customWidth="1"/>
     <col min="8" max="8" width="17" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" style="1" customWidth="1"/>
     <col min="11" max="11" width="9" style="1"/>
-    <col min="12" max="12" width="9.625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9.6640625" style="1" customWidth="1"/>
     <col min="13" max="13" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" ht="15">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -2796,7 +2848,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="27">
+    <row r="2" spans="1:13" ht="30">
       <c r="A2" s="11" t="s">
         <v>46</v>
       </c>
@@ -2975,29 +3027,29 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="2" width="22.875" style="22" customWidth="1"/>
-    <col min="3" max="3" width="25.125" style="22" customWidth="1"/>
-    <col min="4" max="4" width="38.125" style="22" customWidth="1"/>
-    <col min="5" max="5" width="27.125" style="22" customWidth="1"/>
+    <col min="1" max="2" width="22.83203125" style="22" customWidth="1"/>
+    <col min="3" max="3" width="25.1640625" style="22" customWidth="1"/>
+    <col min="4" max="4" width="38.1640625" style="22" customWidth="1"/>
+    <col min="5" max="5" width="27.1640625" style="22" customWidth="1"/>
     <col min="6" max="6" width="14.5" style="22" customWidth="1"/>
-    <col min="7" max="7" width="10.625" style="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" style="22" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" style="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.375" style="22" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.375" style="22" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.25" style="22" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.75" style="22" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.25" style="22" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.375" style="22" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="22" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" style="22" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.1640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.6640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.1640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.33203125" style="22" customWidth="1"/>
     <col min="15" max="16" width="9" style="22" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.625" style="22" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.6640625" style="22" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="13" style="22" customWidth="1"/>
     <col min="19" max="37" width="9" style="22" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="80" style="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38">
+    <row r="1" spans="1:38" ht="15">
       <c r="A1" s="12"/>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -3047,7 +3099,7 @@
       <c r="AK1" s="12"/>
       <c r="AL1" s="12"/>
     </row>
-    <row r="2" spans="1:38" ht="27">
+    <row r="2" spans="1:38" ht="30">
       <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
@@ -3163,7 +3215,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="3" spans="1:38" ht="40.5">
+    <row r="3" spans="1:38" ht="45">
       <c r="A3" s="12" t="s">
         <v>128</v>
       </c>
@@ -3237,7 +3289,7 @@
       <c r="AK3" s="12"/>
       <c r="AL3" s="12"/>
     </row>
-    <row r="4" spans="1:38" ht="16.5" thickBot="1">
+    <row r="4" spans="1:38" ht="18" thickBot="1">
       <c r="A4" s="13" t="s">
         <v>136</v>
       </c>
@@ -3245,13 +3297,13 @@
         <v>169</v>
       </c>
       <c r="C4" s="13" t="s">
+        <v>424</v>
+      </c>
+      <c r="D4" s="14" t="s">
         <v>425</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="E4" s="14" t="s">
         <v>426</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>427</v>
       </c>
       <c r="F4" s="14" t="s">
         <v>139</v>
@@ -3260,7 +3312,7 @@
         <v>164</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="I4" s="15" t="s">
         <v>165</v>
@@ -3272,88 +3324,88 @@
         <v>173</v>
       </c>
       <c r="L4" s="15" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="M4" s="15" t="s">
+        <v>428</v>
+      </c>
+      <c r="N4" s="15" t="s">
         <v>429</v>
       </c>
-      <c r="N4" s="15" t="s">
+      <c r="O4" s="15" t="s">
         <v>430</v>
       </c>
-      <c r="O4" s="15" t="s">
+      <c r="P4" s="15" t="s">
         <v>431</v>
       </c>
-      <c r="P4" s="15" t="s">
+      <c r="Q4" s="15" t="s">
         <v>432</v>
       </c>
-      <c r="Q4" s="15" t="s">
+      <c r="R4" s="15" t="s">
         <v>433</v>
       </c>
-      <c r="R4" s="15" t="s">
+      <c r="S4" s="15" t="s">
         <v>434</v>
       </c>
-      <c r="S4" s="15" t="s">
+      <c r="T4" s="15" t="s">
         <v>435</v>
       </c>
-      <c r="T4" s="15" t="s">
+      <c r="U4" s="15" t="s">
         <v>436</v>
       </c>
-      <c r="U4" s="15" t="s">
+      <c r="V4" s="15" t="s">
         <v>437</v>
       </c>
-      <c r="V4" s="15" t="s">
+      <c r="W4" s="15" t="s">
         <v>438</v>
       </c>
-      <c r="W4" s="15" t="s">
+      <c r="X4" s="15" t="s">
         <v>439</v>
       </c>
-      <c r="X4" s="15" t="s">
+      <c r="Y4" s="15" t="s">
         <v>440</v>
       </c>
-      <c r="Y4" s="15" t="s">
+      <c r="Z4" s="15" t="s">
         <v>441</v>
       </c>
-      <c r="Z4" s="15" t="s">
+      <c r="AA4" s="15" t="s">
         <v>442</v>
       </c>
-      <c r="AA4" s="15" t="s">
+      <c r="AB4" s="15" t="s">
         <v>443</v>
       </c>
-      <c r="AB4" s="15" t="s">
+      <c r="AC4" s="15" t="s">
         <v>444</v>
       </c>
-      <c r="AC4" s="15" t="s">
+      <c r="AD4" s="15" t="s">
         <v>445</v>
       </c>
-      <c r="AD4" s="15" t="s">
+      <c r="AE4" s="15" t="s">
         <v>446</v>
       </c>
-      <c r="AE4" s="15" t="s">
+      <c r="AF4" s="15" t="s">
         <v>447</v>
       </c>
-      <c r="AF4" s="15" t="s">
+      <c r="AG4" s="15" t="s">
         <v>448</v>
       </c>
-      <c r="AG4" s="15" t="s">
+      <c r="AH4" s="15" t="s">
         <v>449</v>
       </c>
-      <c r="AH4" s="15" t="s">
+      <c r="AI4" s="15" t="s">
         <v>450</v>
       </c>
-      <c r="AI4" s="15" t="s">
+      <c r="AJ4" s="15" t="s">
         <v>451</v>
       </c>
-      <c r="AJ4" s="15" t="s">
+      <c r="AK4" s="15" t="s">
         <v>452</v>
       </c>
-      <c r="AK4" s="15" t="s">
+      <c r="AL4" s="15" t="s">
         <v>453</v>
       </c>
-      <c r="AL4" s="15" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="5" spans="1:38" ht="17.25" thickTop="1" thickBot="1">
+    </row>
+    <row r="5" spans="1:38" ht="19" thickTop="1" thickBot="1">
       <c r="A5" s="13" t="s">
         <v>136</v>
       </c>
@@ -3361,13 +3413,13 @@
         <v>169</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D5" s="14" t="s">
+        <v>425</v>
+      </c>
+      <c r="E5" s="14" t="s">
         <v>426</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>427</v>
       </c>
       <c r="F5" s="14" t="s">
         <v>141</v>
@@ -3376,7 +3428,7 @@
         <v>164</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="I5" s="15" t="s">
         <v>16</v>
@@ -3388,88 +3440,88 @@
         <v>173</v>
       </c>
       <c r="L5" s="15" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="M5" s="15" t="s">
         <v>175</v>
       </c>
       <c r="N5" s="15" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="O5" s="15" t="s">
+        <v>456</v>
+      </c>
+      <c r="P5" s="15" t="s">
         <v>457</v>
       </c>
-      <c r="P5" s="15" t="s">
+      <c r="Q5" s="15" t="s">
         <v>458</v>
       </c>
-      <c r="Q5" s="15" t="s">
+      <c r="R5" s="15" t="s">
+        <v>433</v>
+      </c>
+      <c r="S5" s="15" t="s">
         <v>459</v>
       </c>
-      <c r="R5" s="15" t="s">
-        <v>434</v>
-      </c>
-      <c r="S5" s="15" t="s">
+      <c r="T5" s="15" t="s">
         <v>460</v>
       </c>
-      <c r="T5" s="15" t="s">
+      <c r="U5" s="15" t="s">
         <v>461</v>
       </c>
-      <c r="U5" s="15" t="s">
+      <c r="V5" s="15" t="s">
+        <v>437</v>
+      </c>
+      <c r="W5" s="15" t="s">
         <v>462</v>
       </c>
-      <c r="V5" s="15" t="s">
-        <v>438</v>
-      </c>
-      <c r="W5" s="15" t="s">
+      <c r="X5" s="15" t="s">
         <v>463</v>
       </c>
-      <c r="X5" s="15" t="s">
+      <c r="Y5" s="15" t="s">
         <v>464</v>
       </c>
-      <c r="Y5" s="15" t="s">
+      <c r="Z5" s="15" t="s">
+        <v>441</v>
+      </c>
+      <c r="AA5" s="15" t="s">
         <v>465</v>
       </c>
-      <c r="Z5" s="15" t="s">
-        <v>442</v>
-      </c>
-      <c r="AA5" s="15" t="s">
+      <c r="AB5" s="15" t="s">
         <v>466</v>
       </c>
-      <c r="AB5" s="15" t="s">
+      <c r="AC5" s="15" t="s">
         <v>467</v>
       </c>
-      <c r="AC5" s="15" t="s">
+      <c r="AD5" s="15" t="s">
+        <v>445</v>
+      </c>
+      <c r="AE5" s="15" t="s">
         <v>468</v>
       </c>
-      <c r="AD5" s="15" t="s">
-        <v>446</v>
-      </c>
-      <c r="AE5" s="15" t="s">
+      <c r="AF5" s="15" t="s">
         <v>469</v>
       </c>
-      <c r="AF5" s="15" t="s">
+      <c r="AG5" s="15" t="s">
         <v>470</v>
       </c>
-      <c r="AG5" s="15" t="s">
+      <c r="AH5" s="15" t="s">
+        <v>449</v>
+      </c>
+      <c r="AI5" s="15" t="s">
         <v>471</v>
       </c>
-      <c r="AH5" s="15" t="s">
-        <v>450</v>
-      </c>
-      <c r="AI5" s="15" t="s">
+      <c r="AJ5" s="15" t="s">
         <v>472</v>
       </c>
-      <c r="AJ5" s="15" t="s">
+      <c r="AK5" s="15" t="s">
         <v>473</v>
       </c>
-      <c r="AK5" s="15" t="s">
+      <c r="AL5" s="15" t="s">
         <v>474</v>
       </c>
-      <c r="AL5" s="15" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="6" spans="1:38" ht="17.25" thickTop="1" thickBot="1">
+    </row>
+    <row r="6" spans="1:38" ht="19" thickTop="1" thickBot="1">
       <c r="A6" s="13" t="s">
         <v>136</v>
       </c>
@@ -3477,13 +3529,13 @@
         <v>169</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D6" s="14" t="s">
+        <v>425</v>
+      </c>
+      <c r="E6" s="14" t="s">
         <v>426</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>427</v>
       </c>
       <c r="F6" s="14"/>
       <c r="G6" s="14" t="s">
@@ -3520,24 +3572,24 @@
       <c r="AJ6" s="15"/>
       <c r="AK6" s="15"/>
       <c r="AL6" s="15" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="7" spans="1:38" ht="17.25" thickTop="1" thickBot="1">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38" ht="19" thickTop="1" thickBot="1">
       <c r="A7" s="13" t="s">
         <v>138</v>
       </c>
       <c r="B7" s="13" t="s">
+        <v>477</v>
+      </c>
+      <c r="C7" s="13" t="s">
         <v>478</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="D7" s="14" t="s">
         <v>479</v>
       </c>
-      <c r="D7" s="14" t="s">
-        <v>480</v>
-      </c>
       <c r="E7" s="14" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F7" s="14" t="s">
         <v>139</v>
@@ -3576,24 +3628,24 @@
       <c r="AJ7" s="15"/>
       <c r="AK7" s="15"/>
       <c r="AL7" s="15" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="8" spans="1:38" ht="17.25" thickTop="1" thickBot="1">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38" ht="19" thickTop="1" thickBot="1">
       <c r="A8" s="13" t="s">
         <v>138</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F8" s="14" t="s">
         <v>137</v>
@@ -3602,7 +3654,7 @@
         <v>163</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="I8" s="15" t="s">
         <v>16</v>
@@ -3614,102 +3666,102 @@
         <v>173</v>
       </c>
       <c r="L8" s="15" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="M8" s="15" t="s">
         <v>174</v>
       </c>
       <c r="N8" s="15" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="O8" s="15" t="s">
+        <v>456</v>
+      </c>
+      <c r="P8" s="15" t="s">
         <v>457</v>
       </c>
-      <c r="P8" s="15" t="s">
+      <c r="Q8" s="15" t="s">
         <v>458</v>
       </c>
-      <c r="Q8" s="15" t="s">
+      <c r="R8" s="15" t="s">
+        <v>433</v>
+      </c>
+      <c r="S8" s="15" t="s">
         <v>459</v>
       </c>
-      <c r="R8" s="15" t="s">
-        <v>434</v>
-      </c>
-      <c r="S8" s="15" t="s">
+      <c r="T8" s="15" t="s">
         <v>460</v>
       </c>
-      <c r="T8" s="15" t="s">
+      <c r="U8" s="15" t="s">
         <v>461</v>
       </c>
-      <c r="U8" s="15" t="s">
+      <c r="V8" s="15" t="s">
+        <v>437</v>
+      </c>
+      <c r="W8" s="15" t="s">
         <v>462</v>
       </c>
-      <c r="V8" s="15" t="s">
-        <v>438</v>
-      </c>
-      <c r="W8" s="15" t="s">
+      <c r="X8" s="15" t="s">
         <v>463</v>
       </c>
-      <c r="X8" s="15" t="s">
+      <c r="Y8" s="15" t="s">
         <v>464</v>
       </c>
-      <c r="Y8" s="15" t="s">
+      <c r="Z8" s="15" t="s">
+        <v>441</v>
+      </c>
+      <c r="AA8" s="15" t="s">
         <v>465</v>
       </c>
-      <c r="Z8" s="15" t="s">
-        <v>442</v>
-      </c>
-      <c r="AA8" s="15" t="s">
+      <c r="AB8" s="15" t="s">
         <v>466</v>
       </c>
-      <c r="AB8" s="15" t="s">
+      <c r="AC8" s="15" t="s">
         <v>467</v>
       </c>
-      <c r="AC8" s="15" t="s">
+      <c r="AD8" s="15" t="s">
+        <v>445</v>
+      </c>
+      <c r="AE8" s="15" t="s">
         <v>468</v>
       </c>
-      <c r="AD8" s="15" t="s">
-        <v>446</v>
-      </c>
-      <c r="AE8" s="15" t="s">
+      <c r="AF8" s="15" t="s">
         <v>469</v>
       </c>
-      <c r="AF8" s="15" t="s">
+      <c r="AG8" s="15" t="s">
         <v>470</v>
       </c>
-      <c r="AG8" s="15" t="s">
+      <c r="AH8" s="15" t="s">
+        <v>449</v>
+      </c>
+      <c r="AI8" s="15" t="s">
         <v>471</v>
       </c>
-      <c r="AH8" s="15" t="s">
-        <v>450</v>
-      </c>
-      <c r="AI8" s="15" t="s">
+      <c r="AJ8" s="15" t="s">
         <v>472</v>
       </c>
-      <c r="AJ8" s="15" t="s">
+      <c r="AK8" s="15" t="s">
         <v>473</v>
       </c>
-      <c r="AK8" s="15" t="s">
-        <v>474</v>
-      </c>
       <c r="AL8" s="15" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="9" spans="1:38" ht="17.25" thickTop="1" thickBot="1">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" ht="19" thickTop="1" thickBot="1">
       <c r="A9" s="13" t="s">
         <v>140</v>
       </c>
       <c r="B9" s="13" t="s">
+        <v>484</v>
+      </c>
+      <c r="C9" s="13" t="s">
         <v>485</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="D9" s="14" t="s">
         <v>486</v>
       </c>
-      <c r="D9" s="14" t="s">
-        <v>487</v>
-      </c>
       <c r="E9" s="14" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F9" s="14"/>
       <c r="G9" s="14" t="s">
@@ -3746,24 +3798,24 @@
       <c r="AJ9" s="15"/>
       <c r="AK9" s="15"/>
       <c r="AL9" s="15" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="10" spans="1:38" ht="17.25" thickTop="1" thickBot="1">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" ht="19" thickTop="1" thickBot="1">
       <c r="A10" s="13" t="s">
         <v>140</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F10" s="14"/>
       <c r="G10" s="14" t="s">
@@ -3800,24 +3852,24 @@
       <c r="AJ10" s="15"/>
       <c r="AK10" s="15"/>
       <c r="AL10" s="15" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="11" spans="1:38" ht="17.25" thickTop="1" thickBot="1">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38" ht="19" thickTop="1" thickBot="1">
       <c r="A11" s="13" t="s">
         <v>166</v>
       </c>
       <c r="B11" s="13" t="s">
+        <v>500</v>
+      </c>
+      <c r="C11" s="13" t="s">
         <v>501</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="D11" s="14" t="s">
         <v>502</v>
       </c>
-      <c r="D11" s="14" t="s">
-        <v>503</v>
-      </c>
       <c r="E11" s="14" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F11" s="14"/>
       <c r="G11" s="14" t="s">
@@ -3854,24 +3906,24 @@
       <c r="AJ11" s="15"/>
       <c r="AK11" s="15"/>
       <c r="AL11" s="15" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="12" spans="1:38" ht="17.25" thickTop="1" thickBot="1">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="12" spans="1:38" ht="19" thickTop="1" thickBot="1">
       <c r="A12" s="13" t="s">
         <v>166</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F12" s="14"/>
       <c r="G12" s="14" t="s">
@@ -3908,24 +3960,24 @@
       <c r="AJ12" s="15"/>
       <c r="AK12" s="15"/>
       <c r="AL12" s="15" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="13" spans="1:38" ht="17.25" thickTop="1" thickBot="1">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="13" spans="1:38" ht="19" thickTop="1" thickBot="1">
       <c r="A13" s="13" t="s">
         <v>177</v>
       </c>
       <c r="B13" s="13" t="s">
+        <v>504</v>
+      </c>
+      <c r="C13" s="13" t="s">
         <v>505</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="D13" s="14" t="s">
         <v>506</v>
       </c>
-      <c r="D13" s="14" t="s">
-        <v>507</v>
-      </c>
       <c r="E13" s="14" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F13" s="14"/>
       <c r="G13" s="14" t="s">
@@ -3962,24 +4014,24 @@
       <c r="AJ13" s="15"/>
       <c r="AK13" s="15"/>
       <c r="AL13" s="15" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="14" spans="1:38" ht="17.25" thickTop="1" thickBot="1">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38" ht="19" thickTop="1" thickBot="1">
       <c r="A14" s="13" t="s">
         <v>177</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F14" s="14"/>
       <c r="G14" s="14" t="s">
@@ -4016,24 +4068,24 @@
       <c r="AJ14" s="15"/>
       <c r="AK14" s="15"/>
       <c r="AL14" s="15" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="15" spans="1:38" ht="17.25" thickTop="1" thickBot="1">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="15" spans="1:38" ht="19" thickTop="1" thickBot="1">
       <c r="A15" s="13" t="s">
         <v>167</v>
       </c>
       <c r="B15" s="13" t="s">
+        <v>508</v>
+      </c>
+      <c r="C15" s="13" t="s">
         <v>509</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="D15" s="14" t="s">
         <v>510</v>
       </c>
-      <c r="D15" s="14" t="s">
-        <v>511</v>
-      </c>
       <c r="E15" s="14" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F15" s="14"/>
       <c r="G15" s="14" t="s">
@@ -4070,24 +4122,24 @@
       <c r="AJ15" s="15"/>
       <c r="AK15" s="15"/>
       <c r="AL15" s="15" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="16" spans="1:38" ht="17.25" thickTop="1" thickBot="1">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="16" spans="1:38" ht="19" thickTop="1" thickBot="1">
       <c r="A16" s="13" t="s">
         <v>167</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F16" s="14"/>
       <c r="G16" s="14" t="s">
@@ -4124,24 +4176,24 @@
       <c r="AJ16" s="15"/>
       <c r="AK16" s="15"/>
       <c r="AL16" s="15" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="17" spans="1:38" ht="17.25" thickTop="1" thickBot="1">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="17" spans="1:38" ht="19" thickTop="1" thickBot="1">
       <c r="A17" s="13" t="s">
         <v>168</v>
       </c>
       <c r="B17" s="13" t="s">
+        <v>512</v>
+      </c>
+      <c r="C17" s="13" t="s">
         <v>513</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="D17" s="14" t="s">
         <v>514</v>
       </c>
-      <c r="D17" s="14" t="s">
-        <v>515</v>
-      </c>
       <c r="E17" s="14" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F17" s="14"/>
       <c r="G17" s="14" t="s">
@@ -4178,24 +4230,24 @@
       <c r="AJ17" s="15"/>
       <c r="AK17" s="15"/>
       <c r="AL17" s="15" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="18" spans="1:38" ht="19" thickTop="1" thickBot="1">
+      <c r="A18" s="13" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="18" spans="1:38" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A18" s="13" t="s">
-        <v>497</v>
-      </c>
       <c r="B18" s="13" t="s">
+        <v>515</v>
+      </c>
+      <c r="C18" s="13" t="s">
         <v>516</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="D18" s="14" t="s">
         <v>517</v>
       </c>
-      <c r="D18" s="14" t="s">
-        <v>518</v>
-      </c>
       <c r="E18" s="14" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F18" s="14"/>
       <c r="G18" s="14" t="s">
@@ -4232,24 +4284,24 @@
       <c r="AJ18" s="15"/>
       <c r="AK18" s="15"/>
       <c r="AL18" s="15" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="19" spans="1:38" ht="19" thickTop="1" thickBot="1">
+      <c r="A19" s="13" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="19" spans="1:38" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A19" s="13" t="s">
-        <v>499</v>
-      </c>
       <c r="B19" s="13" t="s">
+        <v>518</v>
+      </c>
+      <c r="C19" s="13" t="s">
         <v>519</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="D19" s="14" t="s">
         <v>520</v>
       </c>
-      <c r="D19" s="14" t="s">
-        <v>521</v>
-      </c>
       <c r="E19" s="14" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F19" s="14" t="s">
         <v>137</v>
@@ -4258,11 +4310,11 @@
         <v>163</v>
       </c>
       <c r="H19" s="14" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="I19" s="15"/>
       <c r="J19" s="15" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="K19" s="15" t="s">
         <v>173</v>
@@ -4294,10 +4346,10 @@
       <c r="AJ19" s="15"/>
       <c r="AK19" s="15"/>
       <c r="AL19" s="15" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="20" spans="1:38" ht="14.25" thickTop="1"/>
+        <v>499</v>
+      </c>
+    </row>
+    <row r="20" spans="1:38" ht="15" thickTop="1"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4313,28 +4365,28 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="10.75" style="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.375" style="42" customWidth="1"/>
-    <col min="3" max="3" width="31.875" style="42" customWidth="1"/>
-    <col min="4" max="4" width="10.75" style="22" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" style="42" customWidth="1"/>
+    <col min="3" max="3" width="31.83203125" style="42" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" style="22" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.5" style="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.25" style="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.1640625" style="22" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="45" style="22" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.75" style="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.625" style="22" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.75" style="22" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.6640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.6640625" style="22" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20.5" style="22" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="32.75" style="22" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.25" style="22" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="32.6640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.1640625" style="22" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="17" style="22" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10.5" style="22" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9.5" style="22" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="8.875" style="22"/>
+    <col min="17" max="16384" width="8.83203125" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1">
+    <row r="1" spans="1:10" ht="16" thickBot="1">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -4351,22 +4403,22 @@
         <v>9</v>
       </c>
       <c r="F1" s="29" t="s">
+        <v>371</v>
+      </c>
+      <c r="G1" s="29" t="s">
         <v>372</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="H1" s="29" t="s">
         <v>373</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="I1" s="29" t="s">
         <v>374</v>
       </c>
-      <c r="I1" s="29" t="s">
-        <v>375</v>
-      </c>
       <c r="J1" s="30" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="14.25" thickBot="1">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15" thickBot="1">
       <c r="A2" s="31" t="s">
         <v>128</v>
       </c>
@@ -4383,147 +4435,147 @@
         <v>121</v>
       </c>
       <c r="F2" s="31" t="s">
+        <v>375</v>
+      </c>
+      <c r="G2" s="31" t="s">
         <v>376</v>
       </c>
-      <c r="G2" s="31" t="s">
+      <c r="H2" s="31" t="s">
+        <v>312</v>
+      </c>
+      <c r="I2" s="31" t="s">
         <v>377</v>
       </c>
-      <c r="H2" s="31" t="s">
-        <v>313</v>
-      </c>
-      <c r="I2" s="31" t="s">
-        <v>378</v>
-      </c>
       <c r="J2" s="32" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="14.25">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15">
       <c r="A3" s="33" t="s">
         <v>35</v>
       </c>
       <c r="B3" s="41" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C3" s="41" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D3" s="44" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E3" s="38" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F3" s="38" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="G3" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H3" s="33" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="I3" s="35" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="J3" s="36" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="14.25">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15">
       <c r="A4" s="33" t="s">
         <v>45</v>
       </c>
       <c r="B4" s="41" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C4" s="41" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D4" s="44" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E4" s="38" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F4" s="38" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="G4" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H4" s="33" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="I4" s="37" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="J4" s="34" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="14.25">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15">
       <c r="A5" s="33" t="s">
+        <v>378</v>
+      </c>
+      <c r="B5" s="41" t="s">
+        <v>530</v>
+      </c>
+      <c r="C5" s="41" t="s">
+        <v>382</v>
+      </c>
+      <c r="D5" s="44" t="s">
+        <v>402</v>
+      </c>
+      <c r="E5" s="38" t="s">
         <v>379</v>
       </c>
-      <c r="B5" s="41" t="s">
+      <c r="F5" s="38" t="s">
         <v>531</v>
-      </c>
-      <c r="C5" s="41" t="s">
-        <v>383</v>
-      </c>
-      <c r="D5" s="44" t="s">
-        <v>403</v>
-      </c>
-      <c r="E5" s="38" t="s">
-        <v>380</v>
-      </c>
-      <c r="F5" s="38" t="s">
-        <v>532</v>
       </c>
       <c r="G5" s="33" t="s">
         <v>25</v>
       </c>
       <c r="H5" s="33" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="I5" s="37" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="J5" s="34" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="14.25">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15">
       <c r="A6" s="33" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="41" t="s">
+        <v>521</v>
+      </c>
+      <c r="C6" s="41" t="s">
         <v>522</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="D6" s="44" t="s">
+        <v>402</v>
+      </c>
+      <c r="E6" s="38" t="s">
         <v>523</v>
       </c>
-      <c r="D6" s="44" t="s">
-        <v>403</v>
-      </c>
-      <c r="E6" s="38" t="s">
+      <c r="F6" s="38" t="s">
         <v>524</v>
-      </c>
-      <c r="F6" s="38" t="s">
-        <v>525</v>
       </c>
       <c r="G6" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H6" s="33" t="s">
+        <v>525</v>
+      </c>
+      <c r="I6" s="37" t="s">
         <v>526</v>
       </c>
-      <c r="I6" s="37" t="s">
-        <v>527</v>
-      </c>
       <c r="J6" s="34" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -4544,70 +4596,70 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="29.375" customWidth="1"/>
-    <col min="41" max="41" width="21.625" customWidth="1"/>
-    <col min="42" max="42" width="16.875" customWidth="1"/>
+    <col min="1" max="1" width="29.33203125" customWidth="1"/>
+    <col min="41" max="41" width="21.6640625" customWidth="1"/>
+    <col min="42" max="42" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:42">
-      <c r="A1" s="54"/>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="54" t="s">
+      <c r="A1" s="55"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="55" t="s">
         <v>97</v>
       </c>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="54" t="s">
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="55" t="s">
         <v>98</v>
       </c>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="54" t="s">
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="57"/>
+      <c r="Q1" s="55" t="s">
         <v>99</v>
       </c>
-      <c r="R1" s="55"/>
-      <c r="S1" s="55"/>
-      <c r="T1" s="55"/>
-      <c r="U1" s="55"/>
-      <c r="V1" s="56"/>
-      <c r="W1" s="54" t="s">
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="56"/>
+      <c r="V1" s="57"/>
+      <c r="W1" s="55" t="s">
         <v>100</v>
       </c>
-      <c r="X1" s="55"/>
-      <c r="Y1" s="55"/>
-      <c r="Z1" s="55"/>
-      <c r="AA1" s="55"/>
-      <c r="AB1" s="56"/>
-      <c r="AC1" s="54" t="s">
+      <c r="X1" s="56"/>
+      <c r="Y1" s="56"/>
+      <c r="Z1" s="56"/>
+      <c r="AA1" s="56"/>
+      <c r="AB1" s="57"/>
+      <c r="AC1" s="55" t="s">
         <v>101</v>
       </c>
-      <c r="AD1" s="55"/>
-      <c r="AE1" s="55"/>
-      <c r="AF1" s="55"/>
-      <c r="AG1" s="55"/>
-      <c r="AH1" s="56"/>
-      <c r="AI1" s="54" t="s">
+      <c r="AD1" s="56"/>
+      <c r="AE1" s="56"/>
+      <c r="AF1" s="56"/>
+      <c r="AG1" s="56"/>
+      <c r="AH1" s="57"/>
+      <c r="AI1" s="55" t="s">
         <v>102</v>
       </c>
-      <c r="AJ1" s="55"/>
-      <c r="AK1" s="55"/>
-      <c r="AL1" s="55"/>
-      <c r="AM1" s="55"/>
-      <c r="AN1" s="56"/>
+      <c r="AJ1" s="56"/>
+      <c r="AK1" s="56"/>
+      <c r="AL1" s="56"/>
+      <c r="AM1" s="56"/>
+      <c r="AN1" s="57"/>
       <c r="AO1" s="11"/>
       <c r="AP1" s="11"/>
     </row>
-    <row r="2" spans="1:42" ht="54">
+    <row r="2" spans="1:42" ht="60">
       <c r="A2" s="11" t="s">
         <v>28</v>
       </c>
@@ -4735,7 +4787,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:42" ht="40.5">
+    <row r="3" spans="1:42" ht="45">
       <c r="A3" s="11" t="s">
         <v>48</v>
       </c>
@@ -4863,9 +4915,9 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:42" ht="16.5" thickBot="1">
+    <row r="4" spans="1:42" ht="18" thickBot="1">
       <c r="A4" s="13" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>118</v>
@@ -4991,9 +5043,9 @@
         <v>112</v>
       </c>
     </row>
-    <row r="5" spans="1:42" ht="17.25" thickTop="1" thickBot="1">
+    <row r="5" spans="1:42" ht="19" thickTop="1" thickBot="1">
       <c r="A5" s="13" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>30</v>
@@ -5119,7 +5171,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="6" spans="1:42" ht="17.25" thickTop="1" thickBot="1">
+    <row r="6" spans="1:42" ht="19" thickTop="1" thickBot="1">
       <c r="A6" s="13" t="s">
         <v>205</v>
       </c>
@@ -5247,7 +5299,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="7" spans="1:42" ht="17.25" thickTop="1" thickBot="1">
+    <row r="7" spans="1:42" ht="19" thickTop="1" thickBot="1">
       <c r="A7" s="13" t="s">
         <v>206</v>
       </c>
@@ -5375,7 +5427,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="8" spans="1:42" ht="17.25" thickTop="1" thickBot="1">
+    <row r="8" spans="1:42" ht="19" thickTop="1" thickBot="1">
       <c r="A8" s="13" t="s">
         <v>205</v>
       </c>
@@ -5503,7 +5555,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="9" spans="1:42" ht="17.25" thickTop="1" thickBot="1">
+    <row r="9" spans="1:42" ht="19" thickTop="1" thickBot="1">
       <c r="A9" s="13" t="s">
         <v>206</v>
       </c>
@@ -5631,7 +5683,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="10" spans="1:42" ht="14.25" thickTop="1"/>
+    <row r="10" spans="1:42" ht="15" thickTop="1"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A1:D1"/>
@@ -5656,28 +5708,28 @@
       <selection activeCell="E3" sqref="E3:E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="13.875" style="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.75" style="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.625" style="23" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.83203125" style="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" style="23" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.5" style="23" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" style="23" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.625" style="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.6640625" style="23" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.5" style="23" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.625" style="23" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" style="23" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.5" style="23" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.75" style="23" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="23" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20.5" style="23" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="32.75" style="23" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.125" style="23" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="32.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.1640625" style="23" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15" style="23" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10.5" style="23" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9.5" style="23" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="8.875" style="23"/>
+    <col min="17" max="16384" width="8.83203125" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" thickBot="1">
+    <row r="1" spans="1:16" ht="16" thickBot="1">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -5685,22 +5737,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D1" s="26" t="s">
         <v>178</v>
       </c>
       <c r="E1" s="26" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F1" s="26" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="26" t="s">
+        <v>336</v>
+      </c>
+      <c r="H1" s="26" t="s">
         <v>337</v>
-      </c>
-      <c r="H1" s="26" t="s">
-        <v>338</v>
       </c>
       <c r="I1" s="26" t="s">
         <v>179</v>
@@ -5709,75 +5761,75 @@
         <v>9</v>
       </c>
       <c r="K1" s="26" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="L1" s="26" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="M1" s="26" t="s">
         <v>143</v>
       </c>
       <c r="N1" s="26" t="s">
+        <v>339</v>
+      </c>
+      <c r="O1" s="26" t="s">
         <v>340</v>
       </c>
-      <c r="O1" s="26" t="s">
+      <c r="P1" s="26" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="17" thickTop="1" thickBot="1">
+      <c r="A2" s="26" t="s">
         <v>341</v>
       </c>
-      <c r="P1" s="26" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
-      <c r="A2" s="26" t="s">
+      <c r="B2" s="26" t="s">
         <v>342</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="C2" s="26" t="s">
         <v>343</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="D2" s="26" t="s">
         <v>344</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="E2" s="26" t="s">
         <v>345</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="F2" s="26" t="s">
         <v>346</v>
-      </c>
-      <c r="F2" s="26" t="s">
-        <v>347</v>
       </c>
       <c r="G2" s="26" t="s">
         <v>170</v>
       </c>
       <c r="H2" s="26" t="s">
+        <v>347</v>
+      </c>
+      <c r="I2" s="26" t="s">
         <v>348</v>
       </c>
-      <c r="I2" s="26" t="s">
+      <c r="J2" s="26" t="s">
         <v>349</v>
       </c>
-      <c r="J2" s="26" t="s">
+      <c r="K2" s="26" t="s">
         <v>350</v>
       </c>
-      <c r="K2" s="26" t="s">
+      <c r="L2" s="26" t="s">
         <v>351</v>
       </c>
-      <c r="L2" s="26" t="s">
+      <c r="M2" s="26" t="s">
+        <v>311</v>
+      </c>
+      <c r="N2" s="26" t="s">
         <v>352</v>
       </c>
-      <c r="M2" s="26" t="s">
-        <v>312</v>
-      </c>
-      <c r="N2" s="26" t="s">
+      <c r="O2" s="26" t="s">
         <v>353</v>
       </c>
-      <c r="O2" s="26" t="s">
+      <c r="P2" s="26" t="s">
         <v>354</v>
       </c>
-      <c r="P2" s="26" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
+    </row>
+    <row r="3" spans="1:16" ht="17" thickTop="1" thickBot="1">
       <c r="A3" s="26" t="s">
         <v>35</v>
       </c>
@@ -5788,46 +5840,46 @@
         <v>36</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F3" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G3" s="26" t="s">
         <v>37</v>
       </c>
       <c r="H3" s="26" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I3" s="26" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="J3" s="26" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="K3" s="26" t="s">
         <v>19</v>
       </c>
       <c r="L3" s="26" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="M3" s="26" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="N3" s="26" t="s">
         <v>20</v>
       </c>
       <c r="O3" s="26" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="P3" s="26" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="17" thickTop="1" thickBot="1">
       <c r="A4" s="26" t="s">
         <v>35</v>
       </c>
@@ -5838,46 +5890,46 @@
         <v>36</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F4" s="26" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G4" s="26" t="s">
         <v>38</v>
       </c>
       <c r="H4" s="26" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I4" s="26" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="J4" s="26" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="K4" s="26" t="s">
         <v>19</v>
       </c>
       <c r="L4" s="26" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="M4" s="26" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="N4" s="26" t="s">
         <v>20</v>
       </c>
       <c r="O4" s="26" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="P4" s="26" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="17" thickTop="1" thickBot="1">
       <c r="A5" s="26" t="s">
         <v>39</v>
       </c>
@@ -5888,46 +5940,46 @@
         <v>40</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E5" s="26" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="F5" s="26" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G5" s="26" t="s">
         <v>41</v>
       </c>
       <c r="H5" s="26" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I5" s="26" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="J5" s="26" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="K5" s="26" t="s">
         <v>19</v>
       </c>
       <c r="L5" s="26" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="M5" s="26" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="N5" s="26" t="s">
         <v>20</v>
       </c>
       <c r="O5" s="26" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="P5" s="26" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="17" thickTop="1" thickBot="1">
       <c r="A6" s="26" t="s">
         <v>39</v>
       </c>
@@ -5938,46 +5990,46 @@
         <v>40</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="F6" s="26" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G6" s="26" t="s">
         <v>42</v>
       </c>
       <c r="H6" s="26" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I6" s="26" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="J6" s="26" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="K6" s="26" t="s">
         <v>19</v>
       </c>
       <c r="L6" s="26" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="M6" s="26" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="N6" s="26" t="s">
         <v>20</v>
       </c>
       <c r="O6" s="26" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="P6" s="26" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="17" thickTop="1" thickBot="1">
       <c r="A7" s="26" t="s">
         <v>39</v>
       </c>
@@ -5988,46 +6040,46 @@
         <v>40</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="F7" s="26" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G7" s="26" t="s">
         <v>43</v>
       </c>
       <c r="H7" s="26" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I7" s="26" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="J7" s="26" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="K7" s="26" t="s">
         <v>19</v>
       </c>
       <c r="L7" s="26" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="M7" s="26" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N7" s="26" t="s">
         <v>44</v>
       </c>
       <c r="O7" s="26" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="P7" s="26" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="17" thickTop="1" thickBot="1">
       <c r="A8" s="26" t="s">
         <v>39</v>
       </c>
@@ -6038,46 +6090,46 @@
         <v>40</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="F8" s="26" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G8" s="26" t="s">
         <v>43</v>
       </c>
       <c r="H8" s="26" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I8" s="26" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="J8" s="26" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="K8" s="26" t="s">
         <v>19</v>
       </c>
       <c r="L8" s="26" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="M8" s="26" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N8" s="26" t="s">
         <v>44</v>
       </c>
       <c r="O8" s="26" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="P8" s="26" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="17" thickTop="1" thickBot="1">
       <c r="A9" s="26" t="s">
         <v>45</v>
       </c>
@@ -6088,46 +6140,46 @@
         <v>36</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="F9" s="26" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G9" s="26" t="s">
         <v>41</v>
       </c>
       <c r="H9" s="26" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I9" s="26" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="J9" s="26" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="K9" s="26" t="s">
         <v>19</v>
       </c>
       <c r="L9" s="26" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="M9" s="26" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="N9" s="26" t="s">
         <v>20</v>
       </c>
       <c r="O9" s="26" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="P9" s="26" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="17" thickTop="1" thickBot="1">
       <c r="A10" s="26" t="s">
         <v>45</v>
       </c>
@@ -6138,46 +6190,46 @@
         <v>36</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="F10" s="26" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G10" s="26" t="s">
         <v>41</v>
       </c>
       <c r="H10" s="26" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I10" s="26" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="J10" s="26" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="K10" s="26" t="s">
         <v>19</v>
       </c>
       <c r="L10" s="26" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="M10" s="26" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="N10" s="26" t="s">
         <v>20</v>
       </c>
       <c r="O10" s="26" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="P10" s="26" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="17" thickTop="1" thickBot="1">
       <c r="A11" s="26" t="s">
         <v>45</v>
       </c>
@@ -6188,46 +6240,46 @@
         <v>36</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="F11" s="26" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G11" s="26" t="s">
         <v>41</v>
       </c>
       <c r="H11" s="26" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I11" s="26" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="J11" s="26" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="K11" s="26" t="s">
         <v>19</v>
       </c>
       <c r="L11" s="26" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="M11" s="26" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="N11" s="26" t="s">
         <v>20</v>
       </c>
       <c r="O11" s="26" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="P11" s="26" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="17" thickTop="1" thickBot="1">
       <c r="A12" s="26" t="s">
         <v>45</v>
       </c>
@@ -6238,46 +6290,46 @@
         <v>36</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E12" s="26" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="F12" s="26" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G12" s="26" t="s">
         <v>41</v>
       </c>
       <c r="H12" s="26" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I12" s="26" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="J12" s="26" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="K12" s="26" t="s">
         <v>19</v>
       </c>
       <c r="L12" s="26" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="M12" s="26" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="N12" s="26" t="s">
         <v>20</v>
       </c>
       <c r="O12" s="26" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="P12" s="26" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="17" thickTop="1" thickBot="1">
       <c r="A13" s="26" t="s">
         <v>45</v>
       </c>
@@ -6288,46 +6340,46 @@
         <v>36</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E13" s="26" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="F13" s="26" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G13" s="26" t="s">
         <v>41</v>
       </c>
       <c r="H13" s="26" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="I13" s="26" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="J13" s="26" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="K13" s="26" t="s">
         <v>19</v>
       </c>
       <c r="L13" s="26" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="M13" s="26" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="N13" s="26" t="s">
         <v>20</v>
       </c>
       <c r="O13" s="26" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="P13" s="26" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="17" thickTop="1" thickBot="1">
       <c r="A14" s="26" t="s">
         <v>45</v>
       </c>
@@ -6338,48 +6390,48 @@
         <v>36</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E14" s="26" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="F14" s="26" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G14" s="26" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H14" s="26" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="I14" s="26" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="J14" s="26" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="K14" s="26" t="s">
         <v>19</v>
       </c>
       <c r="L14" s="26" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="M14" s="26" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="N14" s="26" t="s">
         <v>20</v>
       </c>
       <c r="O14" s="26" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="P14" s="26" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="17" thickTop="1" thickBot="1">
       <c r="A15" s="26" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B15" s="26" t="s">
         <v>14</v>
@@ -6388,46 +6440,46 @@
         <v>36</v>
       </c>
       <c r="D15" s="26" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E15" s="26" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="F15" s="26" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G15" s="26" t="s">
         <v>41</v>
       </c>
       <c r="H15" s="26" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I15" s="26" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="J15" s="26" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="K15" s="26" t="s">
         <v>19</v>
       </c>
       <c r="L15" s="26" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="M15" s="26" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="N15" s="26" t="s">
         <v>20</v>
       </c>
       <c r="O15" s="26" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="P15" s="26" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="17" thickTop="1" thickBot="1">
       <c r="A16" s="26" t="s">
         <v>13</v>
       </c>
@@ -6438,46 +6490,46 @@
         <v>36</v>
       </c>
       <c r="D16" s="26" t="s">
+        <v>521</v>
+      </c>
+      <c r="E16" s="26" t="s">
+        <v>555</v>
+      </c>
+      <c r="F16" s="26" t="s">
         <v>522</v>
       </c>
-      <c r="E16" s="26" t="s">
-        <v>556</v>
-      </c>
-      <c r="F16" s="26" t="s">
+      <c r="G16" s="26" t="s">
+        <v>415</v>
+      </c>
+      <c r="H16" s="26" t="s">
+        <v>391</v>
+      </c>
+      <c r="I16" s="26" t="s">
+        <v>402</v>
+      </c>
+      <c r="J16" s="26" t="s">
         <v>523</v>
-      </c>
-      <c r="G16" s="26" t="s">
-        <v>416</v>
-      </c>
-      <c r="H16" s="26" t="s">
-        <v>392</v>
-      </c>
-      <c r="I16" s="26" t="s">
-        <v>403</v>
-      </c>
-      <c r="J16" s="26" t="s">
-        <v>524</v>
       </c>
       <c r="K16" s="26" t="s">
         <v>19</v>
       </c>
       <c r="L16" s="26" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="M16" s="26" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="N16" s="26" t="s">
         <v>20</v>
       </c>
       <c r="O16" s="26" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="P16" s="26" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="17" ht="14.25" thickTop="1"/>
+        <v>370</v>
+      </c>
+    </row>
+    <row r="17" ht="15" thickTop="1"/>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6487,29 +6539,29 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E5CF3B6-B177-4342-8426-912BE4F25E02}">
-  <dimension ref="A1:N32"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="H12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q30" sqref="Q30:Q32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
     <col min="2" max="2" width="35.5" customWidth="1"/>
     <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="59.75" style="16" customWidth="1"/>
-    <col min="9" max="9" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="154.6640625" style="16" customWidth="1"/>
+    <col min="9" max="9" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.1640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17.5" customWidth="1"/>
-    <col min="12" max="12" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="30" customHeight="1">
+    <row r="1" spans="1:17" ht="30" customHeight="1">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -6526,34 +6578,43 @@
         <v>179</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G1" s="17" t="s">
         <v>208</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>209</v>
+        <v>563</v>
       </c>
       <c r="I1" s="17" t="s">
         <v>120</v>
       </c>
       <c r="J1" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="K1" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="L1" s="17" t="s">
         <v>211</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="M1" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="M1" s="17" t="s">
-        <v>213</v>
-      </c>
       <c r="N1" s="17" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="30" customHeight="1">
+        <v>393</v>
+      </c>
+      <c r="O1" s="58" t="s">
+        <v>557</v>
+      </c>
+      <c r="P1" s="58" t="s">
+        <v>558</v>
+      </c>
+      <c r="Q1" s="58" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="30" customHeight="1">
       <c r="A2" s="17" t="s">
         <v>128</v>
       </c>
@@ -6564,19 +6625,19 @@
         <v>170</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>134</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G2" s="17" t="s">
         <v>122</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I2" s="17" t="s">
         <v>123</v>
@@ -6585,174 +6646,210 @@
         <v>124</v>
       </c>
       <c r="K2" s="19" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L2" s="17" t="s">
         <v>121</v>
       </c>
       <c r="M2" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="N2" s="17" t="s">
+        <v>395</v>
+      </c>
+      <c r="O2" s="58" t="s">
+        <v>560</v>
+      </c>
+      <c r="P2" s="58" t="s">
+        <v>561</v>
+      </c>
+      <c r="Q2" s="58" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="30" customHeight="1">
+      <c r="A3" s="20" t="s">
         <v>217</v>
       </c>
-      <c r="N2" s="17" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="30" customHeight="1">
-      <c r="A3" s="20" t="s">
+      <c r="B3" s="20" t="s">
+        <v>263</v>
+      </c>
+      <c r="C3" s="20" t="s">
         <v>218</v>
       </c>
-      <c r="B3" s="20" t="s">
-        <v>264</v>
-      </c>
-      <c r="C3" s="20" t="s">
+      <c r="D3" s="20" t="s">
         <v>219</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>220</v>
       </c>
       <c r="E3" s="20">
         <v>190722</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G3" s="20" t="s">
+        <v>396</v>
+      </c>
+      <c r="H3" s="21" t="s">
         <v>397</v>
-      </c>
-      <c r="H3" s="21" t="s">
-        <v>398</v>
       </c>
       <c r="I3" s="20" t="s">
         <v>125</v>
       </c>
       <c r="J3" s="20" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K3" s="20">
         <v>0</v>
       </c>
       <c r="L3" s="20" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="M3" s="20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="N3" s="20">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" ht="30" customHeight="1">
+      <c r="O3">
+        <v>300</v>
+      </c>
+      <c r="P3" s="59">
+        <v>789</v>
+      </c>
+      <c r="Q3" s="59">
+        <v>10001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="30" customHeight="1">
       <c r="A4" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>263</v>
+      </c>
+      <c r="C4" s="20" t="s">
         <v>218</v>
       </c>
-      <c r="B4" s="20" t="s">
-        <v>264</v>
-      </c>
-      <c r="C4" s="20" t="s">
+      <c r="D4" s="20" t="s">
         <v>219</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>220</v>
       </c>
       <c r="E4" s="20">
         <v>190722</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H4" s="21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I4" s="20" t="s">
         <v>125</v>
       </c>
       <c r="J4" s="20" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K4" s="20">
         <v>0</v>
       </c>
       <c r="L4" s="20" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="M4" s="20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="N4" s="20">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" ht="30" customHeight="1">
+      <c r="O4">
+        <v>300</v>
+      </c>
+      <c r="P4" s="59">
+        <v>789</v>
+      </c>
+      <c r="Q4" s="59">
+        <v>10001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="30" customHeight="1">
       <c r="A5" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>263</v>
+      </c>
+      <c r="C5" s="20" t="s">
         <v>218</v>
       </c>
-      <c r="B5" s="20" t="s">
-        <v>264</v>
-      </c>
-      <c r="C5" s="20" t="s">
+      <c r="D5" s="20" t="s">
         <v>219</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>220</v>
       </c>
       <c r="E5" s="20">
         <v>190722</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H5" s="21" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I5" s="20" t="s">
         <v>125</v>
       </c>
       <c r="J5" s="20" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K5" s="20">
         <v>0</v>
       </c>
       <c r="L5" s="20" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="M5" s="20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="N5" s="20">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" ht="30" customHeight="1">
+      <c r="O5">
+        <v>300</v>
+      </c>
+      <c r="P5" s="59">
+        <v>789</v>
+      </c>
+      <c r="Q5" s="59">
+        <v>10001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="30" customHeight="1">
       <c r="A6" s="20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E6" s="20">
         <v>190723</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H6" s="21" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I6" s="20" t="s">
         <v>125</v>
@@ -6764,39 +6861,48 @@
         <v>1000</v>
       </c>
       <c r="L6" s="20" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="M6" s="20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="N6" s="20">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" ht="30" customHeight="1">
+      <c r="O6">
+        <v>800</v>
+      </c>
+      <c r="P6" s="59">
+        <v>900</v>
+      </c>
+      <c r="Q6" s="59">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="30" customHeight="1">
       <c r="A7" s="20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E7" s="20">
         <v>190723</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H7" s="21" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I7" s="20" t="s">
         <v>125</v>
@@ -6808,39 +6914,48 @@
         <v>1000</v>
       </c>
       <c r="L7" s="20" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="M7" s="20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="N7" s="20">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" ht="30" customHeight="1">
+      <c r="O7">
+        <v>800</v>
+      </c>
+      <c r="P7" s="59">
+        <v>900</v>
+      </c>
+      <c r="Q7" s="59">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="30" customHeight="1">
       <c r="A8" s="20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E8" s="20">
         <v>190723</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G8" s="20" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H8" s="21" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I8" s="20" t="s">
         <v>125</v>
@@ -6852,45 +6967,54 @@
         <v>1000</v>
       </c>
       <c r="L8" s="20" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="M8" s="20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="N8" s="20">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" ht="30" customHeight="1">
+      <c r="O8">
+        <v>800</v>
+      </c>
+      <c r="P8" s="59">
+        <v>900</v>
+      </c>
+      <c r="Q8" s="59">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="30" customHeight="1">
       <c r="A9" s="20" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E9" s="20">
         <v>190724</v>
       </c>
       <c r="F9" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>279</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>229</v>
+      </c>
+      <c r="I9" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="J9" s="20" t="s">
         <v>220</v>
-      </c>
-      <c r="G9" s="20" t="s">
-        <v>280</v>
-      </c>
-      <c r="H9" s="21" t="s">
-        <v>230</v>
-      </c>
-      <c r="I9" s="20" t="s">
-        <v>231</v>
-      </c>
-      <c r="J9" s="20" t="s">
-        <v>221</v>
       </c>
       <c r="K9" s="20">
         <v>0</v>
@@ -6899,42 +7023,51 @@
         <v>13947851245</v>
       </c>
       <c r="M9" s="20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N9" s="20">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" ht="30" customHeight="1">
+      <c r="O9" s="60">
+        <v>600</v>
+      </c>
+      <c r="P9" s="59">
+        <v>888</v>
+      </c>
+      <c r="Q9" s="59">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="30" customHeight="1">
       <c r="A10" s="20" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E10" s="20">
         <v>190724</v>
       </c>
       <c r="F10" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>280</v>
+      </c>
+      <c r="H10" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="I10" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="J10" s="20" t="s">
         <v>220</v>
-      </c>
-      <c r="G10" s="20" t="s">
-        <v>281</v>
-      </c>
-      <c r="H10" s="21" t="s">
-        <v>232</v>
-      </c>
-      <c r="I10" s="20" t="s">
-        <v>231</v>
-      </c>
-      <c r="J10" s="20" t="s">
-        <v>221</v>
       </c>
       <c r="K10" s="20">
         <v>0</v>
@@ -6943,42 +7076,51 @@
         <v>13947851245</v>
       </c>
       <c r="M10" s="20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N10" s="20">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" ht="30" customHeight="1">
+      <c r="O10" s="60">
+        <v>600</v>
+      </c>
+      <c r="P10" s="59">
+        <v>888</v>
+      </c>
+      <c r="Q10" s="59">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="30" customHeight="1">
       <c r="A11" s="20" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E11" s="20">
         <v>190724</v>
       </c>
       <c r="F11" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>281</v>
+      </c>
+      <c r="H11" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="I11" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="J11" s="20" t="s">
         <v>220</v>
-      </c>
-      <c r="G11" s="20" t="s">
-        <v>282</v>
-      </c>
-      <c r="H11" s="21" t="s">
-        <v>233</v>
-      </c>
-      <c r="I11" s="20" t="s">
-        <v>231</v>
-      </c>
-      <c r="J11" s="20" t="s">
-        <v>221</v>
       </c>
       <c r="K11" s="20">
         <v>0</v>
@@ -6987,36 +7129,45 @@
         <v>13947851245</v>
       </c>
       <c r="M11" s="20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N11" s="20">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" ht="30" customHeight="1">
+      <c r="O11" s="60">
+        <v>600</v>
+      </c>
+      <c r="P11" s="59">
+        <v>888</v>
+      </c>
+      <c r="Q11" s="59">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="30" customHeight="1">
       <c r="A12" s="20" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E12" s="20">
         <v>190725</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G12" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H12" s="21" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I12" s="20" t="s">
         <v>125</v>
@@ -7031,36 +7182,45 @@
         <v>13847569541</v>
       </c>
       <c r="M12" s="20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N12" s="20">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" ht="30" customHeight="1">
+      <c r="O12" s="60">
+        <v>301</v>
+      </c>
+      <c r="P12" s="59">
+        <v>90000</v>
+      </c>
+      <c r="Q12" s="59">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="30" customHeight="1">
       <c r="A13" s="20" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E13" s="20">
         <v>190725</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H13" s="21" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I13" s="20" t="s">
         <v>125</v>
@@ -7075,36 +7235,45 @@
         <v>13847569541</v>
       </c>
       <c r="M13" s="20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N13" s="20">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" ht="30" customHeight="1">
+      <c r="O13" s="60">
+        <v>301</v>
+      </c>
+      <c r="P13" s="59">
+        <v>90000</v>
+      </c>
+      <c r="Q13" s="59">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="30" customHeight="1">
       <c r="A14" s="20" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E14" s="20">
         <v>190725</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G14" s="20" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H14" s="21" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I14" s="20" t="s">
         <v>125</v>
@@ -7119,39 +7288,48 @@
         <v>13847569541</v>
       </c>
       <c r="M14" s="20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N14" s="20">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" ht="30" customHeight="1">
+      <c r="O14" s="60">
+        <v>301</v>
+      </c>
+      <c r="P14" s="59">
+        <v>90000</v>
+      </c>
+      <c r="Q14" s="59">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="30" customHeight="1">
       <c r="A15" s="20" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C15" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D15" s="20" t="s">
         <v>219</v>
-      </c>
-      <c r="D15" s="20" t="s">
-        <v>220</v>
       </c>
       <c r="E15" s="20">
         <v>190726</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G15" s="20" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H15" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="I15" s="20" t="s">
         <v>239</v>
-      </c>
-      <c r="I15" s="20" t="s">
-        <v>240</v>
       </c>
       <c r="J15" s="20" t="s">
         <v>126</v>
@@ -7163,39 +7341,48 @@
         <v>13745123547</v>
       </c>
       <c r="M15" s="20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N15" s="20">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" ht="30" customHeight="1">
+      <c r="O15" s="60">
+        <v>6000</v>
+      </c>
+      <c r="P15" s="59">
+        <v>90000</v>
+      </c>
+      <c r="Q15" s="59">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="30" customHeight="1">
       <c r="A16" s="20" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C16" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D16" s="20" t="s">
         <v>219</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>220</v>
       </c>
       <c r="E16" s="20">
         <v>190726</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G16" s="20" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H16" s="21" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I16" s="20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J16" s="20" t="s">
         <v>126</v>
@@ -7207,39 +7394,48 @@
         <v>13745123547</v>
       </c>
       <c r="M16" s="20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N16" s="20">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" ht="30" customHeight="1">
+      <c r="O16" s="60">
+        <v>6000</v>
+      </c>
+      <c r="P16" s="59">
+        <v>90000</v>
+      </c>
+      <c r="Q16" s="59">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="30" customHeight="1">
       <c r="A17" s="20" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C17" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D17" s="20" t="s">
         <v>219</v>
-      </c>
-      <c r="D17" s="20" t="s">
-        <v>220</v>
       </c>
       <c r="E17" s="20">
         <v>190726</v>
       </c>
       <c r="F17" s="20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G17" s="20" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H17" s="21" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I17" s="20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J17" s="20" t="s">
         <v>126</v>
@@ -7251,42 +7447,51 @@
         <v>13745123547</v>
       </c>
       <c r="M17" s="20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N17" s="20">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" ht="30" customHeight="1">
+      <c r="O17" s="60">
+        <v>6000</v>
+      </c>
+      <c r="P17" s="59">
+        <v>90000</v>
+      </c>
+      <c r="Q17" s="59">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="30" customHeight="1">
       <c r="A18" s="20" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E18" s="20">
         <v>190727</v>
       </c>
       <c r="F18" s="20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G18" s="20" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H18" s="21" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I18" s="20" t="s">
         <v>125</v>
       </c>
       <c r="J18" s="20" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K18" s="20">
         <v>300</v>
@@ -7295,42 +7500,51 @@
         <v>13644851444</v>
       </c>
       <c r="M18" s="20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="N18" s="20">
         <v>6</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" ht="30" customHeight="1">
+      <c r="O18" s="60">
+        <v>600</v>
+      </c>
+      <c r="P18" s="59">
+        <v>200</v>
+      </c>
+      <c r="Q18" s="59">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="30" customHeight="1">
       <c r="A19" s="20" t="s">
+        <v>242</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>268</v>
+      </c>
+      <c r="C19" s="20" t="s">
         <v>243</v>
       </c>
-      <c r="B19" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>244</v>
-      </c>
       <c r="D19" s="20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E19" s="20">
         <v>190727</v>
       </c>
       <c r="F19" s="20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G19" s="20" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H19" s="21" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I19" s="20" t="s">
         <v>125</v>
       </c>
       <c r="J19" s="20" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K19" s="20">
         <v>300</v>
@@ -7339,42 +7553,51 @@
         <v>13644851444</v>
       </c>
       <c r="M19" s="20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="N19" s="20">
         <v>6</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" ht="30" customHeight="1">
+      <c r="O19" s="60">
+        <v>600</v>
+      </c>
+      <c r="P19" s="59">
+        <v>200</v>
+      </c>
+      <c r="Q19" s="59">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="30" customHeight="1">
       <c r="A20" s="20" t="s">
+        <v>242</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>268</v>
+      </c>
+      <c r="C20" s="20" t="s">
         <v>243</v>
       </c>
-      <c r="B20" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="C20" s="20" t="s">
-        <v>244</v>
-      </c>
       <c r="D20" s="20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E20" s="20">
         <v>190727</v>
       </c>
       <c r="F20" s="20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G20" s="20" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H20" s="21" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I20" s="20" t="s">
         <v>125</v>
       </c>
       <c r="J20" s="20" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K20" s="20">
         <v>300</v>
@@ -7383,42 +7606,51 @@
         <v>13644851444</v>
       </c>
       <c r="M20" s="20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="N20" s="20">
         <v>6</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" ht="30" customHeight="1">
+      <c r="O20" s="60">
+        <v>600</v>
+      </c>
+      <c r="P20" s="59">
+        <v>200</v>
+      </c>
+      <c r="Q20" s="59">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="30" customHeight="1">
       <c r="A21" s="20" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E21" s="20">
         <v>190728</v>
       </c>
       <c r="F21" s="20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G21" s="20" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H21" s="21" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I21" s="20" t="s">
         <v>125</v>
       </c>
       <c r="J21" s="20" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K21" s="20">
         <v>300</v>
@@ -7427,42 +7659,51 @@
         <v>13569696465</v>
       </c>
       <c r="M21" s="20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N21" s="20">
         <v>7</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" ht="30" customHeight="1">
+      <c r="O21" s="60">
+        <v>10001</v>
+      </c>
+      <c r="P21" s="59">
+        <v>600</v>
+      </c>
+      <c r="Q21" s="59">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="30" customHeight="1">
       <c r="A22" s="20" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E22" s="20">
         <v>190728</v>
       </c>
       <c r="F22" s="20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G22" s="20" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H22" s="21" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I22" s="20" t="s">
         <v>125</v>
       </c>
       <c r="J22" s="20" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K22" s="20">
         <v>300</v>
@@ -7471,42 +7712,51 @@
         <v>13569696465</v>
       </c>
       <c r="M22" s="20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N22" s="20">
         <v>7</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" ht="30" customHeight="1">
+      <c r="O22" s="60">
+        <v>10001</v>
+      </c>
+      <c r="P22" s="59">
+        <v>600</v>
+      </c>
+      <c r="Q22" s="59">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="30" customHeight="1">
       <c r="A23" s="20" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E23" s="20">
         <v>190728</v>
       </c>
       <c r="F23" s="20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G23" s="20" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H23" s="21" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I23" s="20" t="s">
         <v>125</v>
       </c>
       <c r="J23" s="20" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K23" s="20">
         <v>300</v>
@@ -7515,42 +7765,51 @@
         <v>13569696465</v>
       </c>
       <c r="M23" s="20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N23" s="20">
         <v>7</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" ht="30" customHeight="1">
+      <c r="O23" s="60">
+        <v>10001</v>
+      </c>
+      <c r="P23" s="59">
+        <v>600</v>
+      </c>
+      <c r="Q23" s="59">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="30" customHeight="1">
       <c r="A24" s="20" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E24" s="20">
         <v>190729</v>
       </c>
       <c r="F24" s="20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G24" s="20" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H24" s="21" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I24" s="20" t="s">
         <v>125</v>
       </c>
       <c r="J24" s="20" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K24" s="20">
         <v>300</v>
@@ -7559,42 +7818,51 @@
         <v>13147852111</v>
       </c>
       <c r="M24" s="20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N24" s="20">
         <v>8</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" ht="30" customHeight="1">
+      <c r="O24" s="60">
+        <v>299</v>
+      </c>
+      <c r="P24" s="59">
+        <v>301</v>
+      </c>
+      <c r="Q24" s="59">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="30" customHeight="1">
       <c r="A25" s="20" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E25" s="20">
         <v>190729</v>
       </c>
       <c r="F25" s="20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G25" s="20" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H25" s="21" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I25" s="20" t="s">
         <v>125</v>
       </c>
       <c r="J25" s="20" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K25" s="20">
         <v>300</v>
@@ -7603,42 +7871,51 @@
         <v>13147852111</v>
       </c>
       <c r="M25" s="20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N25" s="20">
         <v>8</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" ht="30" customHeight="1">
+      <c r="O25" s="60">
+        <v>299</v>
+      </c>
+      <c r="P25" s="59">
+        <v>301</v>
+      </c>
+      <c r="Q25" s="59">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="30" customHeight="1">
       <c r="A26" s="20" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E26" s="20">
         <v>190729</v>
       </c>
       <c r="F26" s="20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G26" s="20" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H26" s="21" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I26" s="20" t="s">
         <v>125</v>
       </c>
       <c r="J26" s="20" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K26" s="20">
         <v>300</v>
@@ -7647,42 +7924,51 @@
         <v>13147852111</v>
       </c>
       <c r="M26" s="20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N26" s="20">
         <v>8</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" ht="30" customHeight="1">
+      <c r="O26" s="60">
+        <v>299</v>
+      </c>
+      <c r="P26" s="59">
+        <v>301</v>
+      </c>
+      <c r="Q26" s="59">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="30" customHeight="1">
       <c r="A27" s="20" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E27" s="20">
         <v>190730</v>
       </c>
       <c r="F27" s="20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G27" s="20" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H27" s="21" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I27" s="20" t="s">
         <v>125</v>
       </c>
       <c r="J27" s="20" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K27" s="20">
         <v>300</v>
@@ -7691,42 +7977,51 @@
         <v>13069654888</v>
       </c>
       <c r="M27" s="20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N27" s="20">
         <v>9</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" ht="30" customHeight="1">
+      <c r="O27" s="60">
+        <v>285</v>
+      </c>
+      <c r="P27" s="59">
+        <v>6000</v>
+      </c>
+      <c r="Q27" s="59">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="30" customHeight="1">
       <c r="A28" s="20" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E28" s="20">
         <v>190730</v>
       </c>
       <c r="F28" s="20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G28" s="20" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H28" s="21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I28" s="20" t="s">
         <v>125</v>
       </c>
       <c r="J28" s="20" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K28" s="20">
         <v>300</v>
@@ -7735,42 +8030,51 @@
         <v>13069654888</v>
       </c>
       <c r="M28" s="20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N28" s="20">
         <v>9</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" ht="30" customHeight="1">
+      <c r="O28" s="60">
+        <v>285</v>
+      </c>
+      <c r="P28" s="59">
+        <v>6000</v>
+      </c>
+      <c r="Q28" s="59">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="30" customHeight="1">
       <c r="A29" s="20" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E29" s="20">
         <v>190730</v>
       </c>
       <c r="F29" s="20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G29" s="20" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H29" s="21" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I29" s="20" t="s">
         <v>125</v>
       </c>
       <c r="J29" s="20" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K29" s="20">
         <v>300</v>
@@ -7779,42 +8083,51 @@
         <v>13069654888</v>
       </c>
       <c r="M29" s="20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N29" s="20">
         <v>9</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" ht="30" customHeight="1">
+      <c r="O29" s="60">
+        <v>285</v>
+      </c>
+      <c r="P29" s="59">
+        <v>6000</v>
+      </c>
+      <c r="Q29" s="59">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" ht="30" customHeight="1">
       <c r="A30" s="20" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D30" s="20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E30" s="20">
         <v>190731</v>
       </c>
       <c r="F30" s="20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G30" s="20" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H30" s="21" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I30" s="20" t="s">
         <v>125</v>
       </c>
       <c r="J30" s="20" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K30" s="20">
         <v>300</v>
@@ -7823,42 +8136,51 @@
         <v>13354784121</v>
       </c>
       <c r="M30" s="20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N30" s="20">
         <v>10</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" ht="30" customHeight="1">
+      <c r="O30" s="60">
+        <v>600</v>
+      </c>
+      <c r="P30" s="59">
+        <v>789</v>
+      </c>
+      <c r="Q30" s="59">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" ht="30" customHeight="1">
       <c r="A31" s="20" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D31" s="20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E31" s="20">
         <v>190731</v>
       </c>
       <c r="F31" s="20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G31" s="20" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H31" s="21" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I31" s="20" t="s">
         <v>125</v>
       </c>
       <c r="J31" s="20" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K31" s="20">
         <v>300</v>
@@ -7867,42 +8189,51 @@
         <v>13354784121</v>
       </c>
       <c r="M31" s="20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N31" s="20">
         <v>10</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" ht="30" customHeight="1">
+      <c r="O31" s="60">
+        <v>600</v>
+      </c>
+      <c r="P31" s="59">
+        <v>789</v>
+      </c>
+      <c r="Q31" s="59">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="30" customHeight="1">
       <c r="A32" s="20" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D32" s="20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E32" s="20">
         <v>190731</v>
       </c>
       <c r="F32" s="20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G32" s="20" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H32" s="21" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I32" s="20" t="s">
         <v>125</v>
       </c>
       <c r="J32" s="20" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K32" s="20">
         <v>300</v>
@@ -7911,10 +8242,19 @@
         <v>13354784121</v>
       </c>
       <c r="M32" s="20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N32" s="20">
         <v>10</v>
+      </c>
+      <c r="O32" s="60">
+        <v>600</v>
+      </c>
+      <c r="P32" s="59">
+        <v>789</v>
+      </c>
+      <c r="Q32" s="59">
+        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -7928,25 +8268,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22D1ADF8-5FB2-40D6-ABA5-038F78548C18}">
   <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="6.25" style="22" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.1640625" style="22" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.5" style="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.625" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" style="22" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.625" style="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" style="22" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" style="22" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.625" style="22" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.375" style="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.25" style="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" style="22" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.1640625" style="22" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" style="22" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.375" style="22" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.33203125" style="22" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="12" style="22" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="40.125" style="22" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="40.1640625" style="22" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="22"/>
   </cols>
   <sheetData>
@@ -7986,7 +8326,7 @@
       </c>
       <c r="L1" s="45"/>
       <c r="M1" s="45" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="N1" s="45" t="s">
         <v>147</v>
@@ -8019,40 +8359,40 @@
         <v>186</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C3" s="46" t="s">
+        <v>533</v>
+      </c>
+      <c r="D3" s="46" t="s">
         <v>534</v>
       </c>
-      <c r="D3" s="46" t="s">
+      <c r="E3" s="46" t="s">
         <v>535</v>
       </c>
-      <c r="E3" s="46" t="s">
+      <c r="F3" s="46" t="s">
         <v>536</v>
       </c>
-      <c r="F3" s="46" t="s">
+      <c r="G3" s="46" t="s">
         <v>537</v>
       </c>
-      <c r="G3" s="46" t="s">
+      <c r="H3" s="46" t="s">
         <v>538</v>
       </c>
-      <c r="H3" s="46" t="s">
+      <c r="I3" s="46" t="s">
         <v>539</v>
       </c>
-      <c r="I3" s="46" t="s">
+      <c r="J3" s="46" t="s">
         <v>540</v>
-      </c>
-      <c r="J3" s="46" t="s">
-        <v>541</v>
       </c>
       <c r="K3" s="46" t="s">
         <v>170</v>
       </c>
       <c r="L3" s="46" t="s">
+        <v>541</v>
+      </c>
+      <c r="M3" s="47" t="s">
         <v>542</v>
-      </c>
-      <c r="M3" s="47" t="s">
-        <v>543</v>
       </c>
       <c r="N3" s="46"/>
     </row>
@@ -8064,22 +8404,22 @@
         <v>169</v>
       </c>
       <c r="C4" s="21" t="s">
+        <v>424</v>
+      </c>
+      <c r="D4" s="21" t="s">
         <v>425</v>
       </c>
-      <c r="D4" s="21" t="s">
-        <v>426</v>
-      </c>
       <c r="E4" s="21" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G4" s="21" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H4" s="21" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="I4" s="21" t="s">
         <v>187</v>
@@ -8106,19 +8446,19 @@
         <v>169</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E5" s="21" t="s">
         <v>16</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G5" s="21" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H5" s="21" t="s">
         <v>176</v>
@@ -8134,7 +8474,7 @@
       </c>
       <c r="L5" s="21"/>
       <c r="M5" s="21" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="N5" s="50"/>
     </row>
@@ -8146,19 +8486,19 @@
         <v>169</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H6" s="21" t="s">
         <v>175</v>
@@ -8174,7 +8514,7 @@
       </c>
       <c r="L6" s="21"/>
       <c r="M6" s="21" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="N6" s="51"/>
     </row>
@@ -8183,22 +8523,22 @@
         <v>138</v>
       </c>
       <c r="B7" s="21" t="s">
+        <v>477</v>
+      </c>
+      <c r="C7" s="21" t="s">
         <v>478</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="D7" s="21" t="s">
         <v>479</v>
       </c>
-      <c r="D7" s="21" t="s">
-        <v>480</v>
-      </c>
       <c r="E7" s="21" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G7" s="21" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H7" s="21" t="s">
         <v>175</v>
@@ -8225,25 +8565,25 @@
         <v>138</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G8" s="21" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H8" s="21" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I8" s="21" t="s">
         <v>187</v>
@@ -8267,22 +8607,22 @@
         <v>140</v>
       </c>
       <c r="B9" s="21" t="s">
+        <v>484</v>
+      </c>
+      <c r="C9" s="21" t="s">
         <v>485</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="D9" s="21" t="s">
         <v>486</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>487</v>
       </c>
       <c r="E9" s="21" t="s">
         <v>16</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H9" s="21" t="s">
         <v>175</v>
@@ -8311,22 +8651,22 @@
         <v>140</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G10" s="21" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H10" s="21" t="s">
         <v>175</v>
@@ -8353,13 +8693,13 @@
         <v>166</v>
       </c>
       <c r="B11" s="21" t="s">
+        <v>500</v>
+      </c>
+      <c r="C11" s="21" t="s">
         <v>501</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="D11" s="21" t="s">
         <v>502</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>503</v>
       </c>
       <c r="E11" s="21"/>
       <c r="F11" s="21"/>
@@ -8374,7 +8714,7 @@
       <c r="K11" s="21"/>
       <c r="L11" s="21"/>
       <c r="M11" s="21" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="N11" s="49" t="s">
         <v>198</v>
@@ -8385,22 +8725,22 @@
         <v>166</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G12" s="21" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H12" s="21" t="s">
         <v>175</v>
@@ -8425,22 +8765,22 @@
         <v>177</v>
       </c>
       <c r="B13" s="21" t="s">
+        <v>504</v>
+      </c>
+      <c r="C13" s="21" t="s">
         <v>505</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="D13" s="21" t="s">
         <v>506</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>507</v>
       </c>
       <c r="E13" s="21" t="s">
         <v>16</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H13" s="21" t="s">
         <v>175</v>
@@ -8452,11 +8792,11 @@
         <v>164</v>
       </c>
       <c r="K13" s="21" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="L13" s="21"/>
       <c r="M13" s="21" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="N13" s="21" t="s">
         <v>200</v>
@@ -8467,22 +8807,22 @@
         <v>177</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E14" s="21" t="s">
         <v>16</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H14" s="21" t="s">
         <v>175</v>
@@ -8494,11 +8834,11 @@
         <v>164</v>
       </c>
       <c r="K14" s="21" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="L14" s="21"/>
       <c r="M14" s="21" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="N14" s="21" t="s">
         <v>202</v>
@@ -8509,16 +8849,16 @@
         <v>167</v>
       </c>
       <c r="B15" s="21" t="s">
+        <v>508</v>
+      </c>
+      <c r="C15" s="21" t="s">
         <v>509</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="D15" s="21" t="s">
         <v>510</v>
       </c>
-      <c r="D15" s="21" t="s">
-        <v>511</v>
-      </c>
       <c r="E15" s="49" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F15" s="21"/>
       <c r="G15" s="21"/>
@@ -8545,13 +8885,13 @@
         <v>167</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E16" s="51"/>
       <c r="F16" s="21"/>
@@ -8576,22 +8916,22 @@
         <v>168</v>
       </c>
       <c r="B17" s="48" t="s">
+        <v>512</v>
+      </c>
+      <c r="C17" s="48" t="s">
         <v>513</v>
       </c>
-      <c r="C17" s="48" t="s">
+      <c r="D17" s="48" t="s">
         <v>514</v>
       </c>
-      <c r="D17" s="48" t="s">
-        <v>515</v>
-      </c>
       <c r="E17" s="48" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F17" s="48" t="s">
         <v>176</v>
       </c>
       <c r="G17" s="21" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H17" s="48" t="s">
         <v>175</v>
@@ -8607,24 +8947,24 @@
       </c>
       <c r="L17" s="48"/>
       <c r="M17" s="48" t="s">
+        <v>301</v>
+      </c>
+      <c r="N17" s="48" t="s">
         <v>302</v>
-      </c>
-      <c r="N17" s="48" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="48" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B18" s="48" t="s">
+        <v>515</v>
+      </c>
+      <c r="C18" s="48" t="s">
         <v>516</v>
       </c>
-      <c r="C18" s="48" t="s">
+      <c r="D18" s="48" t="s">
         <v>517</v>
-      </c>
-      <c r="D18" s="48" t="s">
-        <v>518</v>
       </c>
       <c r="E18" s="48"/>
       <c r="F18" s="48"/>
@@ -8637,26 +8977,26 @@
         <v>164</v>
       </c>
       <c r="K18" s="48" t="s">
-        <v>547</v>
-      </c>
-      <c r="L18" s="57" t="s">
-        <v>557</v>
-      </c>
-      <c r="M18" s="57"/>
+        <v>546</v>
+      </c>
+      <c r="L18" s="54" t="s">
+        <v>556</v>
+      </c>
+      <c r="M18" s="54"/>
       <c r="N18" s="48"/>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="48" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B19" s="48" t="s">
+        <v>518</v>
+      </c>
+      <c r="C19" s="48" t="s">
         <v>519</v>
       </c>
-      <c r="C19" s="48" t="s">
+      <c r="D19" s="48" t="s">
         <v>520</v>
-      </c>
-      <c r="D19" s="48" t="s">
-        <v>521</v>
       </c>
       <c r="E19" s="48" t="s">
         <v>16</v>
@@ -8676,7 +9016,7 @@
       <c r="L19" s="48"/>
       <c r="M19" s="48"/>
       <c r="N19" s="48" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
   </sheetData>
@@ -8694,28 +9034,28 @@
       <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="9" style="22"/>
-    <col min="2" max="2" width="20.25" style="22" customWidth="1"/>
-    <col min="3" max="3" width="22.375" style="22" customWidth="1"/>
-    <col min="4" max="4" width="28.25" style="22" customWidth="1"/>
-    <col min="5" max="5" width="24.625" style="22" customWidth="1"/>
+    <col min="2" max="2" width="20.1640625" style="22" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" style="22" customWidth="1"/>
+    <col min="4" max="4" width="28.1640625" style="22" customWidth="1"/>
+    <col min="5" max="5" width="24.6640625" style="22" customWidth="1"/>
     <col min="6" max="6" width="15.5" style="22" customWidth="1"/>
-    <col min="7" max="7" width="13.875" style="22" customWidth="1"/>
-    <col min="8" max="8" width="27.75" style="22" customWidth="1"/>
+    <col min="7" max="7" width="13.83203125" style="22" customWidth="1"/>
+    <col min="8" max="8" width="27.6640625" style="22" customWidth="1"/>
     <col min="9" max="16384" width="9" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="24.75" thickBot="1">
+    <row r="1" spans="1:8" ht="31" thickBot="1">
       <c r="A1" s="24" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1" s="24" t="s">
         <v>304</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="C1" s="24" t="s">
         <v>305</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>306</v>
       </c>
       <c r="D1" s="24" t="s">
         <v>127</v>
@@ -8724,16 +9064,16 @@
         <v>2</v>
       </c>
       <c r="F1" s="24" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G1" s="24" t="s">
         <v>143</v>
       </c>
       <c r="H1" s="24" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="24.75" thickBot="1">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="16" thickBot="1">
       <c r="A2" s="24" t="s">
         <v>128</v>
       </c>
@@ -8741,27 +9081,27 @@
         <v>121</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D2" s="24" t="s">
         <v>130</v>
       </c>
       <c r="E2" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="F2" s="24" t="s">
         <v>310</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="G2" s="24" t="s">
         <v>311</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="H2" s="24" t="s">
         <v>312</v>
       </c>
-      <c r="H2" s="24" t="s">
+    </row>
+    <row r="3" spans="1:8" ht="16" thickBot="1">
+      <c r="A3" s="25" t="s">
         <v>313</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="14.25" thickBot="1">
-      <c r="A3" s="25" t="s">
-        <v>314</v>
       </c>
       <c r="B3" s="25">
         <v>11111111111</v>
@@ -8770,10 +9110,10 @@
         <v>22222222221</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F3" s="25">
         <v>112233</v>
@@ -8782,12 +9122,12 @@
         <v>111</v>
       </c>
       <c r="H3" s="25" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="16" thickBot="1">
+      <c r="A4" s="25" t="s">
         <v>315</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="14.25" thickBot="1">
-      <c r="A4" s="25" t="s">
-        <v>316</v>
       </c>
       <c r="B4" s="25">
         <v>11111111112</v>
@@ -8796,10 +9136,10 @@
         <v>22222222222</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F4" s="25">
         <v>112233</v>
@@ -8808,10 +9148,10 @@
         <v>112</v>
       </c>
       <c r="H4" s="25" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="14.25" thickBot="1">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="16" thickBot="1">
       <c r="A5" s="25" t="s">
         <v>13</v>
       </c>
@@ -8822,10 +9162,10 @@
         <v>22222222223</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F5" s="25">
         <v>112233</v>
@@ -8834,10 +9174,10 @@
         <v>113</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="14.25" thickBot="1">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="16" thickBot="1">
       <c r="A6" s="25" t="s">
         <v>190</v>
       </c>
@@ -8848,10 +9188,10 @@
         <v>22222222224</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F6" s="25">
         <v>112233</v>
@@ -8860,10 +9200,10 @@
         <v>114</v>
       </c>
       <c r="H6" s="25" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="14.25" thickBot="1">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="16" thickBot="1">
       <c r="A7" s="25" t="s">
         <v>195</v>
       </c>
@@ -8874,10 +9214,10 @@
         <v>22222222225</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F7" s="25">
         <v>112233</v>
@@ -8886,10 +9226,10 @@
         <v>115</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="14.25" thickBot="1">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="16" thickBot="1">
       <c r="A8" s="25" t="s">
         <v>197</v>
       </c>
@@ -8900,10 +9240,10 @@
         <v>22222222226</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F8" s="25">
         <v>112233</v>
@@ -8912,12 +9252,12 @@
         <v>116</v>
       </c>
       <c r="H8" s="25" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="14.25" thickBot="1">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="16" thickBot="1">
       <c r="A9" s="25" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B9" s="25">
         <v>11111111117</v>
@@ -8926,10 +9266,10 @@
         <v>22222222227</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F9" s="25">
         <v>112233</v>
@@ -8938,7 +9278,7 @@
         <v>117</v>
       </c>
       <c r="H9" s="25" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
   </sheetData>

--- a/ICBC-DATA.xlsx
+++ b/ICBC-DATA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangbo43/Desktop/webhook/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\AICP\ICBC\WebHook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F95A5D53-829A-9149-B8C2-E1798136CBA4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BF9FC23-0B0E-4527-9702-3EE1B77EC1CB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="460" windowWidth="29040" windowHeight="16000" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="信用卡催收外呼信息-暂不用" sheetId="3" r:id="rId1"/>
@@ -1860,32 +1860,32 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>金额一</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>金额二</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>金额三</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>moneyOne</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>moneyTwo</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>moneyThree</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>当天交易明细笔数金额</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>金额一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金额二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金额三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>moneyOne</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>moneyTwo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>moneyThree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2049,7 +2049,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -2239,22 +2239,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2429,13 +2420,10 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2790,24 +2778,24 @@
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="13.1640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
     <col min="3" max="3" width="21.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.875" style="1" customWidth="1"/>
     <col min="5" max="5" width="17" style="1" customWidth="1"/>
     <col min="6" max="6" width="17.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="29.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="29.125" style="1" customWidth="1"/>
     <col min="8" max="8" width="17" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.375" style="1" customWidth="1"/>
     <col min="11" max="11" width="9" style="1"/>
-    <col min="12" max="12" width="9.6640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9.625" style="1" customWidth="1"/>
     <col min="13" max="13" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15">
+    <row r="1" spans="1:13">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -2848,7 +2836,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="30">
+    <row r="2" spans="1:13" ht="27">
       <c r="A2" s="11" t="s">
         <v>46</v>
       </c>
@@ -3027,29 +3015,29 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="2" width="22.83203125" style="22" customWidth="1"/>
-    <col min="3" max="3" width="25.1640625" style="22" customWidth="1"/>
-    <col min="4" max="4" width="38.1640625" style="22" customWidth="1"/>
-    <col min="5" max="5" width="27.1640625" style="22" customWidth="1"/>
+    <col min="1" max="2" width="22.875" style="22" customWidth="1"/>
+    <col min="3" max="3" width="25.125" style="22" customWidth="1"/>
+    <col min="4" max="4" width="38.125" style="22" customWidth="1"/>
+    <col min="5" max="5" width="27.125" style="22" customWidth="1"/>
     <col min="6" max="6" width="14.5" style="22" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.625" style="22" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" style="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="22" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.33203125" style="22" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.1640625" style="22" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.6640625" style="22" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.1640625" style="22" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.33203125" style="22" customWidth="1"/>
+    <col min="9" max="9" width="10.375" style="22" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.375" style="22" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.125" style="22" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.625" style="22" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.125" style="22" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.375" style="22" customWidth="1"/>
     <col min="15" max="16" width="9" style="22" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.6640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.625" style="22" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="13" style="22" customWidth="1"/>
     <col min="19" max="37" width="9" style="22" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="80" style="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="15">
+    <row r="1" spans="1:38">
       <c r="A1" s="12"/>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -3099,7 +3087,7 @@
       <c r="AK1" s="12"/>
       <c r="AL1" s="12"/>
     </row>
-    <row r="2" spans="1:38" ht="30">
+    <row r="2" spans="1:38" ht="27">
       <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
@@ -3215,7 +3203,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="3" spans="1:38" ht="45">
+    <row r="3" spans="1:38" ht="40.5">
       <c r="A3" s="12" t="s">
         <v>128</v>
       </c>
@@ -3289,7 +3277,7 @@
       <c r="AK3" s="12"/>
       <c r="AL3" s="12"/>
     </row>
-    <row r="4" spans="1:38" ht="18" thickBot="1">
+    <row r="4" spans="1:38" ht="16.5" thickBot="1">
       <c r="A4" s="13" t="s">
         <v>136</v>
       </c>
@@ -3405,7 +3393,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="5" spans="1:38" ht="19" thickTop="1" thickBot="1">
+    <row r="5" spans="1:38" ht="17.25" thickTop="1" thickBot="1">
       <c r="A5" s="13" t="s">
         <v>136</v>
       </c>
@@ -3521,7 +3509,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="6" spans="1:38" ht="19" thickTop="1" thickBot="1">
+    <row r="6" spans="1:38" ht="17.25" thickTop="1" thickBot="1">
       <c r="A6" s="13" t="s">
         <v>136</v>
       </c>
@@ -3575,7 +3563,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="7" spans="1:38" ht="19" thickTop="1" thickBot="1">
+    <row r="7" spans="1:38" ht="17.25" thickTop="1" thickBot="1">
       <c r="A7" s="13" t="s">
         <v>138</v>
       </c>
@@ -3631,7 +3619,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="8" spans="1:38" ht="19" thickTop="1" thickBot="1">
+    <row r="8" spans="1:38" ht="17.25" thickTop="1" thickBot="1">
       <c r="A8" s="13" t="s">
         <v>138</v>
       </c>
@@ -3747,7 +3735,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="9" spans="1:38" ht="19" thickTop="1" thickBot="1">
+    <row r="9" spans="1:38" ht="17.25" thickTop="1" thickBot="1">
       <c r="A9" s="13" t="s">
         <v>140</v>
       </c>
@@ -3801,7 +3789,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="10" spans="1:38" ht="19" thickTop="1" thickBot="1">
+    <row r="10" spans="1:38" ht="17.25" thickTop="1" thickBot="1">
       <c r="A10" s="13" t="s">
         <v>140</v>
       </c>
@@ -3855,7 +3843,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="11" spans="1:38" ht="19" thickTop="1" thickBot="1">
+    <row r="11" spans="1:38" ht="17.25" thickTop="1" thickBot="1">
       <c r="A11" s="13" t="s">
         <v>166</v>
       </c>
@@ -3909,7 +3897,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="12" spans="1:38" ht="19" thickTop="1" thickBot="1">
+    <row r="12" spans="1:38" ht="17.25" thickTop="1" thickBot="1">
       <c r="A12" s="13" t="s">
         <v>166</v>
       </c>
@@ -3963,7 +3951,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="13" spans="1:38" ht="19" thickTop="1" thickBot="1">
+    <row r="13" spans="1:38" ht="17.25" thickTop="1" thickBot="1">
       <c r="A13" s="13" t="s">
         <v>177</v>
       </c>
@@ -4017,7 +4005,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="14" spans="1:38" ht="19" thickTop="1" thickBot="1">
+    <row r="14" spans="1:38" ht="17.25" thickTop="1" thickBot="1">
       <c r="A14" s="13" t="s">
         <v>177</v>
       </c>
@@ -4071,7 +4059,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="15" spans="1:38" ht="19" thickTop="1" thickBot="1">
+    <row r="15" spans="1:38" ht="17.25" thickTop="1" thickBot="1">
       <c r="A15" s="13" t="s">
         <v>167</v>
       </c>
@@ -4125,7 +4113,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="16" spans="1:38" ht="19" thickTop="1" thickBot="1">
+    <row r="16" spans="1:38" ht="17.25" thickTop="1" thickBot="1">
       <c r="A16" s="13" t="s">
         <v>167</v>
       </c>
@@ -4179,7 +4167,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="17" spans="1:38" ht="19" thickTop="1" thickBot="1">
+    <row r="17" spans="1:38" ht="17.25" thickTop="1" thickBot="1">
       <c r="A17" s="13" t="s">
         <v>168</v>
       </c>
@@ -4233,7 +4221,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="18" spans="1:38" ht="19" thickTop="1" thickBot="1">
+    <row r="18" spans="1:38" ht="17.25" thickTop="1" thickBot="1">
       <c r="A18" s="13" t="s">
         <v>496</v>
       </c>
@@ -4287,7 +4275,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="19" spans="1:38" ht="19" thickTop="1" thickBot="1">
+    <row r="19" spans="1:38" ht="17.25" thickTop="1" thickBot="1">
       <c r="A19" s="13" t="s">
         <v>498</v>
       </c>
@@ -4349,7 +4337,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="20" spans="1:38" ht="15" thickTop="1"/>
+    <row r="20" spans="1:38" ht="14.25" thickTop="1"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4365,28 +4353,28 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.33203125" style="42" customWidth="1"/>
-    <col min="3" max="3" width="31.83203125" style="42" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.625" style="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.375" style="42" customWidth="1"/>
+    <col min="3" max="3" width="31.875" style="42" customWidth="1"/>
+    <col min="4" max="4" width="10.625" style="22" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.5" style="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.1640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.125" style="22" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="45" style="22" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.6640625" style="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" style="22" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.6640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.625" style="22" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.625" style="22" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.625" style="22" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20.5" style="22" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="32.6640625" style="22" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.1640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="32.625" style="22" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.125" style="22" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="17" style="22" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10.5" style="22" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9.5" style="22" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="8.83203125" style="22"/>
+    <col min="17" max="16384" width="8.875" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16" thickBot="1">
+    <row r="1" spans="1:10" ht="15" thickBot="1">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -4418,7 +4406,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15" thickBot="1">
+    <row r="2" spans="1:10" ht="14.25" thickBot="1">
       <c r="A2" s="31" t="s">
         <v>128</v>
       </c>
@@ -4450,7 +4438,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15">
+    <row r="3" spans="1:10" ht="14.25">
       <c r="A3" s="33" t="s">
         <v>35</v>
       </c>
@@ -4482,7 +4470,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15">
+    <row r="4" spans="1:10" ht="14.25">
       <c r="A4" s="33" t="s">
         <v>45</v>
       </c>
@@ -4514,7 +4502,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15">
+    <row r="5" spans="1:10" ht="14.25">
       <c r="A5" s="33" t="s">
         <v>378</v>
       </c>
@@ -4546,7 +4534,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15">
+    <row r="6" spans="1:10" ht="14.25">
       <c r="A6" s="33" t="s">
         <v>13</v>
       </c>
@@ -4596,11 +4584,11 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="29.33203125" customWidth="1"/>
-    <col min="41" max="41" width="21.6640625" customWidth="1"/>
-    <col min="42" max="42" width="16.83203125" customWidth="1"/>
+    <col min="1" max="1" width="29.375" customWidth="1"/>
+    <col min="41" max="41" width="21.625" customWidth="1"/>
+    <col min="42" max="42" width="16.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:42">
@@ -4659,7 +4647,7 @@
       <c r="AO1" s="11"/>
       <c r="AP1" s="11"/>
     </row>
-    <row r="2" spans="1:42" ht="60">
+    <row r="2" spans="1:42" ht="54">
       <c r="A2" s="11" t="s">
         <v>28</v>
       </c>
@@ -4787,7 +4775,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:42" ht="45">
+    <row r="3" spans="1:42" ht="40.5">
       <c r="A3" s="11" t="s">
         <v>48</v>
       </c>
@@ -4915,7 +4903,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:42" ht="18" thickBot="1">
+    <row r="4" spans="1:42" ht="16.5" thickBot="1">
       <c r="A4" s="13" t="s">
         <v>332</v>
       </c>
@@ -5043,7 +5031,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="5" spans="1:42" ht="19" thickTop="1" thickBot="1">
+    <row r="5" spans="1:42" ht="17.25" thickTop="1" thickBot="1">
       <c r="A5" s="13" t="s">
         <v>333</v>
       </c>
@@ -5171,7 +5159,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="6" spans="1:42" ht="19" thickTop="1" thickBot="1">
+    <row r="6" spans="1:42" ht="17.25" thickTop="1" thickBot="1">
       <c r="A6" s="13" t="s">
         <v>205</v>
       </c>
@@ -5299,7 +5287,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="7" spans="1:42" ht="19" thickTop="1" thickBot="1">
+    <row r="7" spans="1:42" ht="17.25" thickTop="1" thickBot="1">
       <c r="A7" s="13" t="s">
         <v>206</v>
       </c>
@@ -5427,7 +5415,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="8" spans="1:42" ht="19" thickTop="1" thickBot="1">
+    <row r="8" spans="1:42" ht="17.25" thickTop="1" thickBot="1">
       <c r="A8" s="13" t="s">
         <v>205</v>
       </c>
@@ -5555,7 +5543,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="9" spans="1:42" ht="19" thickTop="1" thickBot="1">
+    <row r="9" spans="1:42" ht="17.25" thickTop="1" thickBot="1">
       <c r="A9" s="13" t="s">
         <v>206</v>
       </c>
@@ -5683,7 +5671,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="10" spans="1:42" ht="15" thickTop="1"/>
+    <row r="10" spans="1:42" ht="14.25" thickTop="1"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A1:D1"/>
@@ -5708,28 +5696,28 @@
       <selection activeCell="E3" sqref="E3:E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.6640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.875" style="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.625" style="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" style="23" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.5" style="23" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" style="23" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.625" style="23" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.5" style="23" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.625" style="23" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.5" style="23" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.625" style="23" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20.5" style="23" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="32.6640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.1640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="32.625" style="23" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.125" style="23" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15" style="23" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10.5" style="23" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9.5" style="23" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="8.83203125" style="23"/>
+    <col min="17" max="16384" width="8.875" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="16" thickBot="1">
+    <row r="1" spans="1:16" ht="15" thickBot="1">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -5779,7 +5767,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="17" thickTop="1" thickBot="1">
+    <row r="2" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
       <c r="A2" s="26" t="s">
         <v>341</v>
       </c>
@@ -5829,7 +5817,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="17" thickTop="1" thickBot="1">
+    <row r="3" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
       <c r="A3" s="26" t="s">
         <v>35</v>
       </c>
@@ -5879,7 +5867,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="17" thickTop="1" thickBot="1">
+    <row r="4" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
       <c r="A4" s="26" t="s">
         <v>35</v>
       </c>
@@ -5929,7 +5917,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="17" thickTop="1" thickBot="1">
+    <row r="5" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
       <c r="A5" s="26" t="s">
         <v>39</v>
       </c>
@@ -5979,7 +5967,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="17" thickTop="1" thickBot="1">
+    <row r="6" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
       <c r="A6" s="26" t="s">
         <v>39</v>
       </c>
@@ -6029,7 +6017,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="17" thickTop="1" thickBot="1">
+    <row r="7" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
       <c r="A7" s="26" t="s">
         <v>39</v>
       </c>
@@ -6079,7 +6067,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="17" thickTop="1" thickBot="1">
+    <row r="8" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
       <c r="A8" s="26" t="s">
         <v>39</v>
       </c>
@@ -6129,7 +6117,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="17" thickTop="1" thickBot="1">
+    <row r="9" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
       <c r="A9" s="26" t="s">
         <v>45</v>
       </c>
@@ -6179,7 +6167,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="17" thickTop="1" thickBot="1">
+    <row r="10" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
       <c r="A10" s="26" t="s">
         <v>45</v>
       </c>
@@ -6229,7 +6217,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="17" thickTop="1" thickBot="1">
+    <row r="11" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
       <c r="A11" s="26" t="s">
         <v>45</v>
       </c>
@@ -6279,7 +6267,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="17" thickTop="1" thickBot="1">
+    <row r="12" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
       <c r="A12" s="26" t="s">
         <v>45</v>
       </c>
@@ -6329,7 +6317,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="17" thickTop="1" thickBot="1">
+    <row r="13" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
       <c r="A13" s="26" t="s">
         <v>45</v>
       </c>
@@ -6379,7 +6367,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="17" thickTop="1" thickBot="1">
+    <row r="14" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
       <c r="A14" s="26" t="s">
         <v>45</v>
       </c>
@@ -6429,7 +6417,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="17" thickTop="1" thickBot="1">
+    <row r="15" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
       <c r="A15" s="26" t="s">
         <v>378</v>
       </c>
@@ -6479,7 +6467,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="17" thickTop="1" thickBot="1">
+    <row r="16" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
       <c r="A16" s="26" t="s">
         <v>13</v>
       </c>
@@ -6529,7 +6517,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="17" ht="15" thickTop="1"/>
+    <row r="17" ht="14.25" thickTop="1"/>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6541,24 +6529,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E5CF3B6-B177-4342-8426-912BE4F25E02}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q30" sqref="Q30:Q32"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="35.5" customWidth="1"/>
     <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="154.6640625" style="16" customWidth="1"/>
-    <col min="9" max="9" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="154.625" style="16" customWidth="1"/>
+    <col min="9" max="9" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17.5" customWidth="1"/>
-    <col min="12" max="12" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="30" customHeight="1">
@@ -6584,7 +6572,7 @@
         <v>208</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="I1" s="17" t="s">
         <v>120</v>
@@ -6604,14 +6592,14 @@
       <c r="N1" s="17" t="s">
         <v>393</v>
       </c>
-      <c r="O1" s="58" t="s">
-        <v>557</v>
-      </c>
-      <c r="P1" s="58" t="s">
+      <c r="O1" s="17" t="s">
         <v>558</v>
       </c>
-      <c r="Q1" s="58" t="s">
+      <c r="P1" s="17" t="s">
         <v>559</v>
+      </c>
+      <c r="Q1" s="17" t="s">
+        <v>560</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="30" customHeight="1">
@@ -6657,14 +6645,14 @@
       <c r="N2" s="17" t="s">
         <v>395</v>
       </c>
-      <c r="O2" s="58" t="s">
-        <v>560</v>
-      </c>
-      <c r="P2" s="58" t="s">
+      <c r="O2" s="17" t="s">
         <v>561</v>
       </c>
-      <c r="Q2" s="58" t="s">
+      <c r="P2" s="17" t="s">
         <v>562</v>
+      </c>
+      <c r="Q2" s="17" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="30" customHeight="1">
@@ -6710,7 +6698,7 @@
       <c r="N3" s="20">
         <v>1</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="58">
         <v>300</v>
       </c>
       <c r="P3" s="59">
@@ -6763,7 +6751,7 @@
       <c r="N4" s="20">
         <v>1</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="58">
         <v>300</v>
       </c>
       <c r="P4" s="59">
@@ -6816,7 +6804,7 @@
       <c r="N5" s="20">
         <v>1</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="58">
         <v>300</v>
       </c>
       <c r="P5" s="59">
@@ -6869,7 +6857,7 @@
       <c r="N6" s="20">
         <v>2</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="58">
         <v>800</v>
       </c>
       <c r="P6" s="59">
@@ -6922,7 +6910,7 @@
       <c r="N7" s="20">
         <v>2</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="58">
         <v>800</v>
       </c>
       <c r="P7" s="59">
@@ -6975,7 +6963,7 @@
       <c r="N8" s="20">
         <v>2</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="58">
         <v>800</v>
       </c>
       <c r="P8" s="59">
@@ -7028,7 +7016,7 @@
       <c r="N9" s="20">
         <v>3</v>
       </c>
-      <c r="O9" s="60">
+      <c r="O9" s="59">
         <v>600</v>
       </c>
       <c r="P9" s="59">
@@ -7081,7 +7069,7 @@
       <c r="N10" s="20">
         <v>3</v>
       </c>
-      <c r="O10" s="60">
+      <c r="O10" s="59">
         <v>600</v>
       </c>
       <c r="P10" s="59">
@@ -7134,7 +7122,7 @@
       <c r="N11" s="20">
         <v>3</v>
       </c>
-      <c r="O11" s="60">
+      <c r="O11" s="59">
         <v>600</v>
       </c>
       <c r="P11" s="59">
@@ -7187,7 +7175,7 @@
       <c r="N12" s="20">
         <v>4</v>
       </c>
-      <c r="O12" s="60">
+      <c r="O12" s="59">
         <v>301</v>
       </c>
       <c r="P12" s="59">
@@ -7240,7 +7228,7 @@
       <c r="N13" s="20">
         <v>4</v>
       </c>
-      <c r="O13" s="60">
+      <c r="O13" s="59">
         <v>301</v>
       </c>
       <c r="P13" s="59">
@@ -7293,7 +7281,7 @@
       <c r="N14" s="20">
         <v>4</v>
       </c>
-      <c r="O14" s="60">
+      <c r="O14" s="59">
         <v>301</v>
       </c>
       <c r="P14" s="59">
@@ -7346,7 +7334,7 @@
       <c r="N15" s="20">
         <v>5</v>
       </c>
-      <c r="O15" s="60">
+      <c r="O15" s="59">
         <v>6000</v>
       </c>
       <c r="P15" s="59">
@@ -7399,7 +7387,7 @@
       <c r="N16" s="20">
         <v>5</v>
       </c>
-      <c r="O16" s="60">
+      <c r="O16" s="59">
         <v>6000</v>
       </c>
       <c r="P16" s="59">
@@ -7452,7 +7440,7 @@
       <c r="N17" s="20">
         <v>5</v>
       </c>
-      <c r="O17" s="60">
+      <c r="O17" s="59">
         <v>6000</v>
       </c>
       <c r="P17" s="59">
@@ -7505,7 +7493,7 @@
       <c r="N18" s="20">
         <v>6</v>
       </c>
-      <c r="O18" s="60">
+      <c r="O18" s="59">
         <v>600</v>
       </c>
       <c r="P18" s="59">
@@ -7558,7 +7546,7 @@
       <c r="N19" s="20">
         <v>6</v>
       </c>
-      <c r="O19" s="60">
+      <c r="O19" s="59">
         <v>600</v>
       </c>
       <c r="P19" s="59">
@@ -7611,7 +7599,7 @@
       <c r="N20" s="20">
         <v>6</v>
       </c>
-      <c r="O20" s="60">
+      <c r="O20" s="59">
         <v>600</v>
       </c>
       <c r="P20" s="59">
@@ -7664,7 +7652,7 @@
       <c r="N21" s="20">
         <v>7</v>
       </c>
-      <c r="O21" s="60">
+      <c r="O21" s="59">
         <v>10001</v>
       </c>
       <c r="P21" s="59">
@@ -7717,7 +7705,7 @@
       <c r="N22" s="20">
         <v>7</v>
       </c>
-      <c r="O22" s="60">
+      <c r="O22" s="59">
         <v>10001</v>
       </c>
       <c r="P22" s="59">
@@ -7770,7 +7758,7 @@
       <c r="N23" s="20">
         <v>7</v>
       </c>
-      <c r="O23" s="60">
+      <c r="O23" s="59">
         <v>10001</v>
       </c>
       <c r="P23" s="59">
@@ -7823,7 +7811,7 @@
       <c r="N24" s="20">
         <v>8</v>
       </c>
-      <c r="O24" s="60">
+      <c r="O24" s="59">
         <v>299</v>
       </c>
       <c r="P24" s="59">
@@ -7876,7 +7864,7 @@
       <c r="N25" s="20">
         <v>8</v>
       </c>
-      <c r="O25" s="60">
+      <c r="O25" s="59">
         <v>299</v>
       </c>
       <c r="P25" s="59">
@@ -7929,7 +7917,7 @@
       <c r="N26" s="20">
         <v>8</v>
       </c>
-      <c r="O26" s="60">
+      <c r="O26" s="59">
         <v>299</v>
       </c>
       <c r="P26" s="59">
@@ -7982,7 +7970,7 @@
       <c r="N27" s="20">
         <v>9</v>
       </c>
-      <c r="O27" s="60">
+      <c r="O27" s="59">
         <v>285</v>
       </c>
       <c r="P27" s="59">
@@ -8035,7 +8023,7 @@
       <c r="N28" s="20">
         <v>9</v>
       </c>
-      <c r="O28" s="60">
+      <c r="O28" s="59">
         <v>285</v>
       </c>
       <c r="P28" s="59">
@@ -8088,7 +8076,7 @@
       <c r="N29" s="20">
         <v>9</v>
       </c>
-      <c r="O29" s="60">
+      <c r="O29" s="59">
         <v>285</v>
       </c>
       <c r="P29" s="59">
@@ -8141,7 +8129,7 @@
       <c r="N30" s="20">
         <v>10</v>
       </c>
-      <c r="O30" s="60">
+      <c r="O30" s="59">
         <v>600</v>
       </c>
       <c r="P30" s="59">
@@ -8194,7 +8182,7 @@
       <c r="N31" s="20">
         <v>10</v>
       </c>
-      <c r="O31" s="60">
+      <c r="O31" s="59">
         <v>600</v>
       </c>
       <c r="P31" s="59">
@@ -8247,7 +8235,7 @@
       <c r="N32" s="20">
         <v>10</v>
       </c>
-      <c r="O32" s="60">
+      <c r="O32" s="59">
         <v>600</v>
       </c>
       <c r="P32" s="59">
@@ -8272,21 +8260,21 @@
       <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="6.1640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.125" style="22" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.5" style="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.625" style="22" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.625" style="22" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" style="22" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.6640625" style="22" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.33203125" style="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.1640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.625" style="22" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.375" style="22" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.125" style="22" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" style="22" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.33203125" style="22" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.375" style="22" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="12" style="22" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="40.1640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="40.125" style="22" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="22"/>
   </cols>
   <sheetData>
@@ -9034,20 +9022,20 @@
       <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="22"/>
-    <col min="2" max="2" width="20.1640625" style="22" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" style="22" customWidth="1"/>
-    <col min="4" max="4" width="28.1640625" style="22" customWidth="1"/>
-    <col min="5" max="5" width="24.6640625" style="22" customWidth="1"/>
+    <col min="2" max="2" width="20.125" style="22" customWidth="1"/>
+    <col min="3" max="3" width="22.375" style="22" customWidth="1"/>
+    <col min="4" max="4" width="28.125" style="22" customWidth="1"/>
+    <col min="5" max="5" width="24.625" style="22" customWidth="1"/>
     <col min="6" max="6" width="15.5" style="22" customWidth="1"/>
-    <col min="7" max="7" width="13.83203125" style="22" customWidth="1"/>
-    <col min="8" max="8" width="27.6640625" style="22" customWidth="1"/>
+    <col min="7" max="7" width="13.875" style="22" customWidth="1"/>
+    <col min="8" max="8" width="27.625" style="22" customWidth="1"/>
     <col min="9" max="16384" width="9" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="31" thickBot="1">
+    <row r="1" spans="1:8" ht="24.75" thickBot="1">
       <c r="A1" s="24" t="s">
         <v>303</v>
       </c>
@@ -9073,7 +9061,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="16" thickBot="1">
+    <row r="2" spans="1:8" ht="24.75" thickBot="1">
       <c r="A2" s="24" t="s">
         <v>128</v>
       </c>
@@ -9099,7 +9087,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16" thickBot="1">
+    <row r="3" spans="1:8" ht="14.25" thickBot="1">
       <c r="A3" s="25" t="s">
         <v>313</v>
       </c>
@@ -9125,7 +9113,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="16" thickBot="1">
+    <row r="4" spans="1:8" ht="14.25" thickBot="1">
       <c r="A4" s="25" t="s">
         <v>315</v>
       </c>
@@ -9151,7 +9139,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="16" thickBot="1">
+    <row r="5" spans="1:8" ht="14.25" thickBot="1">
       <c r="A5" s="25" t="s">
         <v>13</v>
       </c>
@@ -9177,7 +9165,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="16" thickBot="1">
+    <row r="6" spans="1:8" ht="14.25" thickBot="1">
       <c r="A6" s="25" t="s">
         <v>190</v>
       </c>
@@ -9203,7 +9191,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="16" thickBot="1">
+    <row r="7" spans="1:8" ht="14.25" thickBot="1">
       <c r="A7" s="25" t="s">
         <v>195</v>
       </c>
@@ -9229,7 +9217,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="16" thickBot="1">
+    <row r="8" spans="1:8" ht="14.25" thickBot="1">
       <c r="A8" s="25" t="s">
         <v>197</v>
       </c>
@@ -9255,7 +9243,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="16" thickBot="1">
+    <row r="9" spans="1:8" ht="14.25" thickBot="1">
       <c r="A9" s="25" t="s">
         <v>316</v>
       </c>

--- a/ICBC-DATA.xlsx
+++ b/ICBC-DATA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\AICP\ICBC\WebHook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BF9FC23-0B0E-4527-9702-3EE1B77EC1CB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F00F7EA1-9DBB-4042-A963-691B09F0B218}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="信用卡催收外呼信息-暂不用" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="565">
   <si>
     <t>姓名</t>
   </si>
@@ -1886,6 +1886,9 @@
   <si>
     <t>moneyThree</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等值4500人民币</t>
   </si>
 </sst>
 </file>
@@ -2411,6 +2414,12 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2418,12 +2427,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3011,8 +3014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9C9EB0D-85D9-47ED-B377-7DA30201B995}">
   <dimension ref="A1:AL20"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -3315,7 +3318,7 @@
         <v>412</v>
       </c>
       <c r="M4" s="15" t="s">
-        <v>428</v>
+        <v>564</v>
       </c>
       <c r="N4" s="15" t="s">
         <v>429</v>
@@ -4592,58 +4595,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42">
-      <c r="A1" s="55"/>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="55" t="s">
+      <c r="A1" s="57"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="57" t="s">
         <v>97</v>
       </c>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="55" t="s">
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="57" t="s">
         <v>98</v>
       </c>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
-      <c r="P1" s="57"/>
-      <c r="Q1" s="55" t="s">
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="57" t="s">
         <v>99</v>
       </c>
-      <c r="R1" s="56"/>
-      <c r="S1" s="56"/>
-      <c r="T1" s="56"/>
-      <c r="U1" s="56"/>
-      <c r="V1" s="57"/>
-      <c r="W1" s="55" t="s">
+      <c r="R1" s="58"/>
+      <c r="S1" s="58"/>
+      <c r="T1" s="58"/>
+      <c r="U1" s="58"/>
+      <c r="V1" s="59"/>
+      <c r="W1" s="57" t="s">
         <v>100</v>
       </c>
-      <c r="X1" s="56"/>
-      <c r="Y1" s="56"/>
-      <c r="Z1" s="56"/>
-      <c r="AA1" s="56"/>
-      <c r="AB1" s="57"/>
-      <c r="AC1" s="55" t="s">
+      <c r="X1" s="58"/>
+      <c r="Y1" s="58"/>
+      <c r="Z1" s="58"/>
+      <c r="AA1" s="58"/>
+      <c r="AB1" s="59"/>
+      <c r="AC1" s="57" t="s">
         <v>101</v>
       </c>
-      <c r="AD1" s="56"/>
-      <c r="AE1" s="56"/>
-      <c r="AF1" s="56"/>
-      <c r="AG1" s="56"/>
-      <c r="AH1" s="57"/>
-      <c r="AI1" s="55" t="s">
+      <c r="AD1" s="58"/>
+      <c r="AE1" s="58"/>
+      <c r="AF1" s="58"/>
+      <c r="AG1" s="58"/>
+      <c r="AH1" s="59"/>
+      <c r="AI1" s="57" t="s">
         <v>102</v>
       </c>
-      <c r="AJ1" s="56"/>
-      <c r="AK1" s="56"/>
-      <c r="AL1" s="56"/>
-      <c r="AM1" s="56"/>
-      <c r="AN1" s="57"/>
+      <c r="AJ1" s="58"/>
+      <c r="AK1" s="58"/>
+      <c r="AL1" s="58"/>
+      <c r="AM1" s="58"/>
+      <c r="AN1" s="59"/>
       <c r="AO1" s="11"/>
       <c r="AP1" s="11"/>
     </row>
@@ -5692,8 +5695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EDD2311-8857-4ECF-8573-8040401A87F4}">
   <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -6529,7 +6532,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E5CF3B6-B177-4342-8426-912BE4F25E02}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
@@ -6698,13 +6701,13 @@
       <c r="N3" s="20">
         <v>1</v>
       </c>
-      <c r="O3" s="58">
+      <c r="O3" s="55">
         <v>300</v>
       </c>
-      <c r="P3" s="59">
+      <c r="P3" s="56">
         <v>789</v>
       </c>
-      <c r="Q3" s="59">
+      <c r="Q3" s="56">
         <v>10001</v>
       </c>
     </row>
@@ -6751,13 +6754,13 @@
       <c r="N4" s="20">
         <v>1</v>
       </c>
-      <c r="O4" s="58">
+      <c r="O4" s="55">
         <v>300</v>
       </c>
-      <c r="P4" s="59">
+      <c r="P4" s="56">
         <v>789</v>
       </c>
-      <c r="Q4" s="59">
+      <c r="Q4" s="56">
         <v>10001</v>
       </c>
     </row>
@@ -6804,13 +6807,13 @@
       <c r="N5" s="20">
         <v>1</v>
       </c>
-      <c r="O5" s="58">
+      <c r="O5" s="55">
         <v>300</v>
       </c>
-      <c r="P5" s="59">
+      <c r="P5" s="56">
         <v>789</v>
       </c>
-      <c r="Q5" s="59">
+      <c r="Q5" s="56">
         <v>10001</v>
       </c>
     </row>
@@ -6857,13 +6860,13 @@
       <c r="N6" s="20">
         <v>2</v>
       </c>
-      <c r="O6" s="58">
+      <c r="O6" s="55">
         <v>800</v>
       </c>
-      <c r="P6" s="59">
+      <c r="P6" s="56">
         <v>900</v>
       </c>
-      <c r="Q6" s="59">
+      <c r="Q6" s="56">
         <v>1000</v>
       </c>
     </row>
@@ -6910,13 +6913,13 @@
       <c r="N7" s="20">
         <v>2</v>
       </c>
-      <c r="O7" s="58">
+      <c r="O7" s="55">
         <v>800</v>
       </c>
-      <c r="P7" s="59">
+      <c r="P7" s="56">
         <v>900</v>
       </c>
-      <c r="Q7" s="59">
+      <c r="Q7" s="56">
         <v>1000</v>
       </c>
     </row>
@@ -6963,13 +6966,13 @@
       <c r="N8" s="20">
         <v>2</v>
       </c>
-      <c r="O8" s="58">
+      <c r="O8" s="55">
         <v>800</v>
       </c>
-      <c r="P8" s="59">
+      <c r="P8" s="56">
         <v>900</v>
       </c>
-      <c r="Q8" s="59">
+      <c r="Q8" s="56">
         <v>1000</v>
       </c>
     </row>
@@ -7016,13 +7019,13 @@
       <c r="N9" s="20">
         <v>3</v>
       </c>
-      <c r="O9" s="59">
+      <c r="O9" s="56">
         <v>600</v>
       </c>
-      <c r="P9" s="59">
+      <c r="P9" s="56">
         <v>888</v>
       </c>
-      <c r="Q9" s="59">
+      <c r="Q9" s="56">
         <v>299</v>
       </c>
     </row>
@@ -7069,13 +7072,13 @@
       <c r="N10" s="20">
         <v>3</v>
       </c>
-      <c r="O10" s="59">
+      <c r="O10" s="56">
         <v>600</v>
       </c>
-      <c r="P10" s="59">
+      <c r="P10" s="56">
         <v>888</v>
       </c>
-      <c r="Q10" s="59">
+      <c r="Q10" s="56">
         <v>299</v>
       </c>
     </row>
@@ -7122,13 +7125,13 @@
       <c r="N11" s="20">
         <v>3</v>
       </c>
-      <c r="O11" s="59">
+      <c r="O11" s="56">
         <v>600</v>
       </c>
-      <c r="P11" s="59">
+      <c r="P11" s="56">
         <v>888</v>
       </c>
-      <c r="Q11" s="59">
+      <c r="Q11" s="56">
         <v>299</v>
       </c>
     </row>
@@ -7175,13 +7178,13 @@
       <c r="N12" s="20">
         <v>4</v>
       </c>
-      <c r="O12" s="59">
+      <c r="O12" s="56">
         <v>301</v>
       </c>
-      <c r="P12" s="59">
+      <c r="P12" s="56">
         <v>90000</v>
       </c>
-      <c r="Q12" s="59">
+      <c r="Q12" s="56">
         <v>285</v>
       </c>
     </row>
@@ -7228,13 +7231,13 @@
       <c r="N13" s="20">
         <v>4</v>
       </c>
-      <c r="O13" s="59">
+      <c r="O13" s="56">
         <v>301</v>
       </c>
-      <c r="P13" s="59">
+      <c r="P13" s="56">
         <v>90000</v>
       </c>
-      <c r="Q13" s="59">
+      <c r="Q13" s="56">
         <v>285</v>
       </c>
     </row>
@@ -7281,13 +7284,13 @@
       <c r="N14" s="20">
         <v>4</v>
       </c>
-      <c r="O14" s="59">
+      <c r="O14" s="56">
         <v>301</v>
       </c>
-      <c r="P14" s="59">
+      <c r="P14" s="56">
         <v>90000</v>
       </c>
-      <c r="Q14" s="59">
+      <c r="Q14" s="56">
         <v>285</v>
       </c>
     </row>
@@ -7334,13 +7337,13 @@
       <c r="N15" s="20">
         <v>5</v>
       </c>
-      <c r="O15" s="59">
+      <c r="O15" s="56">
         <v>6000</v>
       </c>
-      <c r="P15" s="59">
+      <c r="P15" s="56">
         <v>90000</v>
       </c>
-      <c r="Q15" s="59">
+      <c r="Q15" s="56">
         <v>300</v>
       </c>
     </row>
@@ -7387,13 +7390,13 @@
       <c r="N16" s="20">
         <v>5</v>
       </c>
-      <c r="O16" s="59">
+      <c r="O16" s="56">
         <v>6000</v>
       </c>
-      <c r="P16" s="59">
+      <c r="P16" s="56">
         <v>90000</v>
       </c>
-      <c r="Q16" s="59">
+      <c r="Q16" s="56">
         <v>300</v>
       </c>
     </row>
@@ -7440,13 +7443,13 @@
       <c r="N17" s="20">
         <v>5</v>
       </c>
-      <c r="O17" s="59">
+      <c r="O17" s="56">
         <v>6000</v>
       </c>
-      <c r="P17" s="59">
+      <c r="P17" s="56">
         <v>90000</v>
       </c>
-      <c r="Q17" s="59">
+      <c r="Q17" s="56">
         <v>300</v>
       </c>
     </row>
@@ -7493,13 +7496,13 @@
       <c r="N18" s="20">
         <v>6</v>
       </c>
-      <c r="O18" s="59">
+      <c r="O18" s="56">
         <v>600</v>
       </c>
-      <c r="P18" s="59">
+      <c r="P18" s="56">
         <v>200</v>
       </c>
-      <c r="Q18" s="59">
+      <c r="Q18" s="56">
         <v>789</v>
       </c>
     </row>
@@ -7546,13 +7549,13 @@
       <c r="N19" s="20">
         <v>6</v>
       </c>
-      <c r="O19" s="59">
+      <c r="O19" s="56">
         <v>600</v>
       </c>
-      <c r="P19" s="59">
+      <c r="P19" s="56">
         <v>200</v>
       </c>
-      <c r="Q19" s="59">
+      <c r="Q19" s="56">
         <v>789</v>
       </c>
     </row>
@@ -7599,13 +7602,13 @@
       <c r="N20" s="20">
         <v>6</v>
       </c>
-      <c r="O20" s="59">
+      <c r="O20" s="56">
         <v>600</v>
       </c>
-      <c r="P20" s="59">
+      <c r="P20" s="56">
         <v>200</v>
       </c>
-      <c r="Q20" s="59">
+      <c r="Q20" s="56">
         <v>789</v>
       </c>
     </row>
@@ -7652,13 +7655,13 @@
       <c r="N21" s="20">
         <v>7</v>
       </c>
-      <c r="O21" s="59">
+      <c r="O21" s="56">
         <v>10001</v>
       </c>
-      <c r="P21" s="59">
+      <c r="P21" s="56">
         <v>600</v>
       </c>
-      <c r="Q21" s="59">
+      <c r="Q21" s="56">
         <v>150</v>
       </c>
     </row>
@@ -7705,13 +7708,13 @@
       <c r="N22" s="20">
         <v>7</v>
       </c>
-      <c r="O22" s="59">
+      <c r="O22" s="56">
         <v>10001</v>
       </c>
-      <c r="P22" s="59">
+      <c r="P22" s="56">
         <v>600</v>
       </c>
-      <c r="Q22" s="59">
+      <c r="Q22" s="56">
         <v>150</v>
       </c>
     </row>
@@ -7758,13 +7761,13 @@
       <c r="N23" s="20">
         <v>7</v>
       </c>
-      <c r="O23" s="59">
+      <c r="O23" s="56">
         <v>10001</v>
       </c>
-      <c r="P23" s="59">
+      <c r="P23" s="56">
         <v>600</v>
       </c>
-      <c r="Q23" s="59">
+      <c r="Q23" s="56">
         <v>150</v>
       </c>
     </row>
@@ -7811,13 +7814,13 @@
       <c r="N24" s="20">
         <v>8</v>
       </c>
-      <c r="O24" s="59">
+      <c r="O24" s="56">
         <v>299</v>
       </c>
-      <c r="P24" s="59">
+      <c r="P24" s="56">
         <v>301</v>
       </c>
-      <c r="Q24" s="59">
+      <c r="Q24" s="56">
         <v>90000</v>
       </c>
     </row>
@@ -7864,13 +7867,13 @@
       <c r="N25" s="20">
         <v>8</v>
       </c>
-      <c r="O25" s="59">
+      <c r="O25" s="56">
         <v>299</v>
       </c>
-      <c r="P25" s="59">
+      <c r="P25" s="56">
         <v>301</v>
       </c>
-      <c r="Q25" s="59">
+      <c r="Q25" s="56">
         <v>90000</v>
       </c>
     </row>
@@ -7917,13 +7920,13 @@
       <c r="N26" s="20">
         <v>8</v>
       </c>
-      <c r="O26" s="59">
+      <c r="O26" s="56">
         <v>299</v>
       </c>
-      <c r="P26" s="59">
+      <c r="P26" s="56">
         <v>301</v>
       </c>
-      <c r="Q26" s="59">
+      <c r="Q26" s="56">
         <v>90000</v>
       </c>
     </row>
@@ -7970,13 +7973,13 @@
       <c r="N27" s="20">
         <v>9</v>
       </c>
-      <c r="O27" s="59">
+      <c r="O27" s="56">
         <v>285</v>
       </c>
-      <c r="P27" s="59">
+      <c r="P27" s="56">
         <v>6000</v>
       </c>
-      <c r="Q27" s="59">
+      <c r="Q27" s="56">
         <v>300</v>
       </c>
     </row>
@@ -8023,13 +8026,13 @@
       <c r="N28" s="20">
         <v>9</v>
       </c>
-      <c r="O28" s="59">
+      <c r="O28" s="56">
         <v>285</v>
       </c>
-      <c r="P28" s="59">
+      <c r="P28" s="56">
         <v>6000</v>
       </c>
-      <c r="Q28" s="59">
+      <c r="Q28" s="56">
         <v>300</v>
       </c>
     </row>
@@ -8076,13 +8079,13 @@
       <c r="N29" s="20">
         <v>9</v>
       </c>
-      <c r="O29" s="59">
+      <c r="O29" s="56">
         <v>285</v>
       </c>
-      <c r="P29" s="59">
+      <c r="P29" s="56">
         <v>6000</v>
       </c>
-      <c r="Q29" s="59">
+      <c r="Q29" s="56">
         <v>300</v>
       </c>
     </row>
@@ -8129,13 +8132,13 @@
       <c r="N30" s="20">
         <v>10</v>
       </c>
-      <c r="O30" s="59">
+      <c r="O30" s="56">
         <v>600</v>
       </c>
-      <c r="P30" s="59">
+      <c r="P30" s="56">
         <v>789</v>
       </c>
-      <c r="Q30" s="59">
+      <c r="Q30" s="56">
         <v>288</v>
       </c>
     </row>
@@ -8182,13 +8185,13 @@
       <c r="N31" s="20">
         <v>10</v>
       </c>
-      <c r="O31" s="59">
+      <c r="O31" s="56">
         <v>600</v>
       </c>
-      <c r="P31" s="59">
+      <c r="P31" s="56">
         <v>789</v>
       </c>
-      <c r="Q31" s="59">
+      <c r="Q31" s="56">
         <v>288</v>
       </c>
     </row>
@@ -8235,13 +8238,13 @@
       <c r="N32" s="20">
         <v>10</v>
       </c>
-      <c r="O32" s="59">
+      <c r="O32" s="56">
         <v>600</v>
       </c>
-      <c r="P32" s="59">
+      <c r="P32" s="56">
         <v>789</v>
       </c>
-      <c r="Q32" s="59">
+      <c r="Q32" s="56">
         <v>288</v>
       </c>
     </row>
